--- a/Arkusze/Doktorat_obliczenia_EU-28_2008.xlsx
+++ b/Arkusze/Doktorat_obliczenia_EU-28_2008.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zemat\OneDrive\R_Map_Stats_GreenJobs\Arkusze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="6_{36C2D5C1-5DBB-4C48-916D-F727FD7C5247}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{C43769E3-4ADA-465C-A2A9-AE61B894F6F5}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="6_{36C2D5C1-5DBB-4C48-916D-F727FD7C5247}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{5AE112D9-0DCA-4F8E-8A43-F7390ACDE9D3}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="60" windowWidth="15195" windowHeight="9210" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="169">
   <si>
     <t>X1</t>
   </si>
@@ -541,6 +541,9 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>kraj</t>
+  </si>
 </sst>
 </file>
 
@@ -14287,7 +14290,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
+      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14302,578 +14305,590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
       <c r="B1" t="str">
-        <f>'dane po Vs'!B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C1" t="str">
-        <f>'dane po Vs'!C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D1" s="10" t="str">
-        <f>'dane po Vs'!D1</f>
-        <v>X6</v>
-      </c>
-      <c r="E1" s="10" t="str">
-        <f>'dane po Vs'!E1</f>
-        <v>X8</v>
-      </c>
-      <c r="F1" s="10" t="str">
-        <f>'dane po Vs'!F1</f>
-        <v>X10</v>
-      </c>
-      <c r="G1" s="10" t="str">
-        <f>'dane po Vs'!G1</f>
-        <v>X11</v>
-      </c>
-      <c r="H1" s="10" t="str">
-        <f>'dane po Vs'!H1</f>
-        <v>X12</v>
-      </c>
-      <c r="I1" s="10" t="str">
-        <f>'dane po Vs'!I1</f>
-        <v>X13</v>
-      </c>
-      <c r="J1" s="10" t="str">
-        <f>'dane po Vs'!J1</f>
-        <v>X14</v>
-      </c>
-      <c r="K1" s="10" t="str">
-        <f>'dane po Vs'!K1</f>
-        <v>X15</v>
-      </c>
-      <c r="L1" t="str">
-        <f>'dane po Vs'!L1</f>
-        <v>X16</v>
-      </c>
-      <c r="M1" t="str">
-        <f>'dane po Vs'!M1</f>
-        <v>X17</v>
-      </c>
-      <c r="N1" t="str">
-        <f>'dane po Vs'!N1</f>
-        <v>X18</v>
-      </c>
-      <c r="O1" t="str">
-        <f>'dane po Vs'!O1</f>
-        <v>X19</v>
-      </c>
-      <c r="P1" t="str">
-        <f>'dane po Vs'!P1</f>
-        <v>X20</v>
-      </c>
-      <c r="Q1" t="str">
-        <f>'dane po Vs'!Q1</f>
-        <v>X21</v>
-      </c>
-      <c r="R1" t="str">
-        <f>'dane po Vs'!R1</f>
-        <v>X23</v>
-      </c>
-      <c r="S1" t="str">
-        <f>'dane po Vs'!S1</f>
-        <v>X24</v>
-      </c>
-      <c r="T1" s="10" t="str">
-        <f>'dane po Vs'!T1</f>
-        <v>X25</v>
-      </c>
-      <c r="U1" s="10" t="str">
-        <f>'dane po Vs'!U1</f>
-        <v>X26</v>
-      </c>
-      <c r="V1" t="str">
-        <f>'dane po Vs'!V1</f>
-        <v>X27</v>
-      </c>
-      <c r="W1" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B2" t="str">
         <f>'dane po Vs'!B2</f>
         <v>Chroniony obszar lądowy (% powierzchni państwa)</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C1" t="str">
         <f>'dane po Vs'!C2</f>
         <v>Indeks wydajnosci zasobów (rok 2000=100)</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D1" s="10" t="str">
         <f>'dane po Vs'!D2</f>
         <v>Połowy w regionach rybackich (tys.ton)</v>
       </c>
-      <c r="E2" s="10" t="str">
+      <c r="E1" s="10" t="str">
         <f>'dane po Vs'!E2</f>
         <v>Zależność energetyczna (%)</v>
       </c>
-      <c r="F2" s="10" t="str">
+      <c r="F1" s="10" t="str">
         <f>'dane po Vs'!F2</f>
         <v>Emisja tlenków siarki (kg/osoba)</v>
       </c>
-      <c r="G2" s="10" t="str">
+      <c r="G1" s="10" t="str">
         <f>'dane po Vs'!G2</f>
         <v>Emisja cząstek stałych (kg/osoba)</v>
       </c>
-      <c r="H2" s="10" t="str">
+      <c r="H1" s="10" t="str">
         <f>'dane po Vs'!H2</f>
         <v>Zanieczyszczenie hałasem (% ludności)</v>
       </c>
-      <c r="I2" s="10" t="str">
+      <c r="I1" s="10" t="str">
         <f>'dane po Vs'!I2</f>
         <v>Konsumpcja surowców (ton/osoba)</v>
       </c>
-      <c r="J2" s="10" t="str">
+      <c r="J1" s="10" t="str">
         <f>'dane po Vs'!J2</f>
         <v>Zużycie nawozów (kg/ha)</v>
       </c>
-      <c r="K2" s="10" t="str">
+      <c r="K1" s="10" t="str">
         <f>'dane po Vs'!K2</f>
         <v>Odpady komunalne (kg/osoba)</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L1" t="str">
         <f>'dane po Vs'!L2</f>
         <v>Odnawialna energia elektryczna (%konsumpcji prądu)</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M1" t="str">
         <f>'dane po Vs'!M2</f>
         <v>Krajowa konsumpcja biomasy (100 tys. ton ekwiwalentu oleju)</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N1" t="str">
         <f>'dane po Vs'!N2</f>
         <v>Uprawy ekologiczne (% użytków rolnych)</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O1" t="str">
         <f>'dane po Vs'!O2</f>
         <v>Odzysk odpadów (kg/osoba)</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P1" t="str">
         <f>'dane po Vs'!P2</f>
         <v>Wydatki na ochronę środoiwska (% PKB)</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q1" t="str">
         <f>'dane po Vs'!Q2</f>
         <v>Dochody z podatków środoiwskowych (% PKB)</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R1" t="str">
         <f>'dane po Vs'!R2</f>
         <v>Patenty związane z recyklingiem i surowcami wtórnymi  (liczba)</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S1" t="str">
         <f>'dane po Vs'!S2</f>
         <v>Wydatki publiczne na badania i rozwój dotyczące środowiska (% PKB)</v>
       </c>
-      <c r="T2" s="10" t="str">
+      <c r="T1" s="10" t="str">
         <f>'dane po Vs'!T2</f>
         <v>Stopa bezrobocia ludzi młodych w wieku 15-24 lata, obliczona jako udział (%) w całkowitej populacji w tej samej grupie wiekowej</v>
       </c>
-      <c r="U2" s="10" t="str">
+      <c r="U1" s="10" t="str">
         <f>'dane po Vs'!U2</f>
         <v>Osoby zagrożone ubóstwem lub wykluczeniem społecznym</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V1" t="str">
         <f>'dane po Vs'!V2</f>
         <v>Zatrudnienie w sektorze dóbr i usług środowiskowych (ekwiwalent pełnego czasu pracy ∙〖10〗^(-3); FTE)</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W1" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y1" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z1" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="10" t="str">
-        <f t="shared" ref="AA2:AA30" si="0">X2</f>
+      <c r="AA1" s="10" t="str">
+        <f t="shared" ref="AA1:AA29" si="0">X1</f>
         <v>zi</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB1" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC1" t="s">
         <v>122</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD1" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>'dane po Vs'!A3</f>
+        <v>Austria</v>
+      </c>
+      <c r="B2">
+        <f>'dane po Vs'!B3</f>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <f>'dane po Vs'!C3</f>
+        <v>119.7</v>
+      </c>
+      <c r="D2" s="10">
+        <f>'dane po Vs'!D3</f>
+        <v>376</v>
+      </c>
+      <c r="E2" s="10">
+        <f>'dane po Vs'!E3</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F2" s="10">
+        <f>'dane po Vs'!F3</f>
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="10">
+        <f>'dane po Vs'!G3</f>
+        <v>4.2</v>
+      </c>
+      <c r="H2" s="10">
+        <f>'dane po Vs'!H3</f>
+        <v>21.6</v>
+      </c>
+      <c r="I2" s="10">
+        <f>'dane po Vs'!I3</f>
+        <v>22.2</v>
+      </c>
+      <c r="J2" s="10">
+        <f>'dane po Vs'!J3</f>
+        <v>-2</v>
+      </c>
+      <c r="K2" s="10">
+        <f>'dane po Vs'!K3</f>
+        <v>600</v>
+      </c>
+      <c r="L2">
+        <f>'dane po Vs'!L3</f>
+        <v>27.8</v>
+      </c>
+      <c r="M2">
+        <f>'dane po Vs'!M3</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N2">
+        <f>'dane po Vs'!N3</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O2">
+        <f>'dane po Vs'!O3</f>
+        <v>2332</v>
+      </c>
+      <c r="P2">
+        <f>'dane po Vs'!P3</f>
+        <v>0.33</v>
+      </c>
+      <c r="Q2">
+        <f>'dane po Vs'!Q3</f>
+        <v>2.35</v>
+      </c>
+      <c r="R2">
+        <f>'dane po Vs'!R3</f>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="S2">
+        <f>'dane po Vs'!S3</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T2" s="10">
+        <f>'dane po Vs'!T3</f>
+        <v>8.5</v>
+      </c>
+      <c r="U2" s="10">
+        <f>'dane po Vs'!U3</f>
+        <v>20.6</v>
+      </c>
+      <c r="V2">
+        <f>'dane po Vs'!V3</f>
+        <v>167.7</v>
+      </c>
+      <c r="W2" s="8">
+        <f>((B2-$B$30)^2+(C2-$C$30)^2+(D2-$D$30)^2+(E2-$E$30)^2+(F2-$F$30)^2+(G2-$G$30)^2+(H2-$H$30)^2+(I2-$I$30)^2+(J2-$J$30)^2+(K2-$K$30)^2+(L2-$L$30)^2+(M2-$M$30)^2+(N2-$N$30)^2+(O2-$O$30)^2+(P2-$P$30)^2+(Q2-$Q$30)^2+(R2-$R$30)^2+(S2-$S$30)^2+(T2-$T$30)^2+(U2-$U$30)^2+(V2-$V$30)^2)^(0.5)</f>
+        <v>8634.9808375644334</v>
+      </c>
+      <c r="X2" s="8">
+        <f>1-(W2/$AD$2)</f>
+        <v>0.34591050823401204</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y29" si="1">A2</f>
+        <v>Austria</v>
+      </c>
+      <c r="Z2" s="9">
+        <f t="shared" ref="Z2:Z29" si="2">X2</f>
+        <v>0.34591050823401204</v>
+      </c>
+      <c r="AA2" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34591050823401204</v>
+      </c>
+      <c r="AB2" s="9">
+        <f>AVERAGE(W2:W29)</f>
+        <v>8755.1710011492232</v>
+      </c>
+      <c r="AC2" s="9">
+        <f>STDEV(W2:W29)</f>
+        <v>2223.1785739640982</v>
+      </c>
+      <c r="AD2" s="9">
+        <f>AB2+2*AC2</f>
+        <v>13201.52814907742</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>'dane po Vs'!A3</f>
-        <v>Austria</v>
+        <f>'dane po Vs'!A4</f>
+        <v>Belgia</v>
       </c>
       <c r="B3">
-        <f>'dane po Vs'!B3</f>
-        <v>11</v>
+        <f>'dane po Vs'!B4</f>
+        <v>10</v>
       </c>
       <c r="C3">
-        <f>'dane po Vs'!C3</f>
-        <v>119.7</v>
+        <f>'dane po Vs'!C4</f>
+        <v>99.2</v>
       </c>
       <c r="D3" s="10">
-        <f>'dane po Vs'!D3</f>
-        <v>376</v>
+        <f>'dane po Vs'!D4</f>
+        <v>231.76190476190476</v>
       </c>
       <c r="E3" s="10">
-        <f>'dane po Vs'!E3</f>
-        <v>69.599999999999994</v>
+        <f>'dane po Vs'!E4</f>
+        <v>81.099999999999994</v>
       </c>
       <c r="F3" s="10">
-        <f>'dane po Vs'!F3</f>
-        <v>2.5</v>
+        <f>'dane po Vs'!F4</f>
+        <v>9</v>
       </c>
       <c r="G3" s="10">
-        <f>'dane po Vs'!G3</f>
-        <v>4.2</v>
+        <f>'dane po Vs'!G4</f>
+        <v>4.3</v>
       </c>
       <c r="H3" s="10">
-        <f>'dane po Vs'!H3</f>
-        <v>21.6</v>
+        <f>'dane po Vs'!H4</f>
+        <v>21</v>
       </c>
       <c r="I3" s="10">
-        <f>'dane po Vs'!I3</f>
-        <v>22.2</v>
+        <f>'dane po Vs'!I4</f>
+        <v>16.8</v>
       </c>
       <c r="J3" s="10">
-        <f>'dane po Vs'!J3</f>
-        <v>-2</v>
+        <f>'dane po Vs'!J4</f>
+        <v>4</v>
       </c>
       <c r="K3" s="10">
-        <f>'dane po Vs'!K3</f>
-        <v>600</v>
+        <f>'dane po Vs'!K4</f>
+        <v>479</v>
       </c>
       <c r="L3">
-        <f>'dane po Vs'!L3</f>
-        <v>27.8</v>
+        <f>'dane po Vs'!L4</f>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <f>'dane po Vs'!M3</f>
-        <v>18.100000000000001</v>
+        <f>'dane po Vs'!M4</f>
+        <v>7.8</v>
       </c>
       <c r="N3">
-        <f>'dane po Vs'!N3</f>
-        <v>17.399999999999999</v>
+        <f>'dane po Vs'!N4</f>
+        <v>2.6</v>
       </c>
       <c r="O3">
-        <f>'dane po Vs'!O3</f>
-        <v>2332</v>
+        <f>'dane po Vs'!O4</f>
+        <v>2036</v>
       </c>
       <c r="P3">
-        <f>'dane po Vs'!P3</f>
-        <v>0.33</v>
+        <f>'dane po Vs'!P4</f>
+        <v>0.41</v>
       </c>
       <c r="Q3">
-        <f>'dane po Vs'!Q3</f>
-        <v>2.35</v>
+        <f>'dane po Vs'!Q4</f>
+        <v>2.14</v>
       </c>
       <c r="R3">
-        <f>'dane po Vs'!R3</f>
-        <v>8.0299999999999994</v>
+        <f>'dane po Vs'!R4</f>
+        <v>6.4</v>
       </c>
       <c r="S3">
-        <f>'dane po Vs'!S3</f>
-        <v>0.14000000000000001</v>
+        <f>'dane po Vs'!S4</f>
+        <v>0.17</v>
       </c>
       <c r="T3" s="10">
-        <f>'dane po Vs'!T3</f>
-        <v>8.5</v>
+        <f>'dane po Vs'!T4</f>
+        <v>18</v>
       </c>
       <c r="U3" s="10">
-        <f>'dane po Vs'!U3</f>
-        <v>20.6</v>
+        <f>'dane po Vs'!U4</f>
+        <v>20.8</v>
       </c>
       <c r="V3">
-        <f>'dane po Vs'!V3</f>
-        <v>167.7</v>
+        <f>'dane po Vs'!V4</f>
+        <v>80.8</v>
       </c>
       <c r="W3" s="8">
-        <f>((B3-$B$31)^2+(C3-$C$31)^2+(D3-$D$31)^2+(E3-$E$31)^2+(F3-$F$31)^2+(G3-$G$31)^2+(H3-$H$31)^2+(I3-$I$31)^2+(J3-$J$31)^2+(K3-$K$31)^2+(L3-$L$31)^2+(M3-$M$31)^2+(N3-$N$31)^2+(O3-$O$31)^2+(P3-$P$31)^2+(Q3-$Q$31)^2+(R3-$R$31)^2+(S3-$S$31)^2+(T3-$T$31)^2+(U3-$U$31)^2+(V3-$V$31)^2)^(0.5)</f>
-        <v>8634.9808375644334</v>
+        <f>((B3-$B$30)^2+(C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2+(H3-$H$30)^2+(I3-$I$30)^2+(J3-$J$30)^2+(K3-$K$30)^2+(L3-$L$30)^2+(M3-$M$30)^2+(N3-$N$30)^2+(O3-$O$30)^2+(P3-$P$30)^2+(Q3-$Q$30)^2+(R3-$R$30)^2+(S3-$S$30)^2+(T3-$T$30)^2+(U3-$U$30)^2+(V3-$V$30)^2)^(0.5)</f>
+        <v>8925.8553744057845</v>
       </c>
       <c r="X3" s="8">
-        <f t="shared" ref="X3:X30" si="1">1-(W3/$AD$3)</f>
-        <v>0.34591050823401204</v>
+        <f>1-(W3/$AD$2)</f>
+        <v>0.32387710925499469</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y30" si="2">A3</f>
-        <v>Austria</v>
+        <f t="shared" si="1"/>
+        <v>Belgia</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" ref="Z3:Z30" si="3">X3</f>
-        <v>0.34591050823401204</v>
+        <f t="shared" si="2"/>
+        <v>0.32387710925499469</v>
       </c>
       <c r="AA3" s="10">
         <f t="shared" si="0"/>
-        <v>0.34591050823401204</v>
+        <v>0.32387710925499469</v>
       </c>
       <c r="AB3" s="9">
-        <f>AVERAGE(W3:W30)</f>
-        <v>8755.1710011492232</v>
+        <f>AVERAGE(Z2:Z29)</f>
+        <v>0.33680624680097554</v>
       </c>
       <c r="AC3" s="9">
-        <f>STDEV(W3:W30)</f>
-        <v>2223.1785739640982</v>
+        <f>STDEV(Z2:Z29)</f>
+        <v>0.16840312340048713</v>
       </c>
       <c r="AD3" s="9">
         <f>AB3+2*AC3</f>
-        <v>13201.52814907742</v>
+        <v>0.67361249360194986</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>'dane po Vs'!A4</f>
-        <v>Belgia</v>
+        <f>'dane po Vs'!A5</f>
+        <v>Bułgaria</v>
       </c>
       <c r="B4">
-        <f>'dane po Vs'!B4</f>
-        <v>10</v>
+        <f>'dane po Vs'!B5</f>
+        <v>30</v>
       </c>
       <c r="C4">
-        <f>'dane po Vs'!C4</f>
-        <v>99.2</v>
+        <f>'dane po Vs'!C5</f>
+        <v>105.6</v>
       </c>
       <c r="D4" s="10">
-        <f>'dane po Vs'!D4</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D5</f>
+        <v>22</v>
       </c>
       <c r="E4" s="10">
-        <f>'dane po Vs'!E4</f>
-        <v>81.099999999999994</v>
+        <f>'dane po Vs'!E5</f>
+        <v>51.7</v>
       </c>
       <c r="F4" s="10">
-        <f>'dane po Vs'!F4</f>
-        <v>9</v>
+        <f>'dane po Vs'!F5</f>
+        <v>76.3</v>
       </c>
       <c r="G4" s="10">
-        <f>'dane po Vs'!G4</f>
-        <v>4.3</v>
+        <f>'dane po Vs'!G5</f>
+        <v>6.6</v>
       </c>
       <c r="H4" s="10">
-        <f>'dane po Vs'!H4</f>
-        <v>21</v>
+        <f>'dane po Vs'!H5</f>
+        <v>16.899999999999999</v>
       </c>
       <c r="I4" s="10">
-        <f>'dane po Vs'!I4</f>
-        <v>16.8</v>
+        <f>'dane po Vs'!I5</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="J4" s="10">
-        <f>'dane po Vs'!J4</f>
-        <v>4</v>
+        <f>'dane po Vs'!J5</f>
+        <v>-4</v>
       </c>
       <c r="K4" s="10">
-        <f>'dane po Vs'!K4</f>
-        <v>479</v>
+        <f>'dane po Vs'!K5</f>
+        <v>599</v>
       </c>
       <c r="L4">
-        <f>'dane po Vs'!L4</f>
-        <v>3.6</v>
+        <f>'dane po Vs'!L5</f>
+        <v>10.5</v>
       </c>
       <c r="M4">
-        <f>'dane po Vs'!M4</f>
-        <v>7.8</v>
+        <f>'dane po Vs'!M5</f>
+        <v>23.2</v>
       </c>
       <c r="N4">
-        <f>'dane po Vs'!N4</f>
-        <v>2.6</v>
+        <f>'dane po Vs'!N5</f>
+        <v>0.3</v>
       </c>
       <c r="O4">
-        <f>'dane po Vs'!O4</f>
-        <v>2036</v>
+        <f>'dane po Vs'!O5</f>
+        <v>373</v>
       </c>
       <c r="P4">
-        <f>'dane po Vs'!P4</f>
-        <v>0.41</v>
+        <f>'dane po Vs'!P5</f>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Q4">
-        <f>'dane po Vs'!Q4</f>
-        <v>2.14</v>
+        <f>'dane po Vs'!Q5</f>
+        <v>3.28</v>
       </c>
       <c r="R4">
-        <f>'dane po Vs'!R4</f>
-        <v>6.4</v>
+        <f>'dane po Vs'!R5</f>
+        <v>1</v>
       </c>
       <c r="S4">
-        <f>'dane po Vs'!S4</f>
-        <v>0.17</v>
+        <f>'dane po Vs'!S5</f>
+        <v>0.26</v>
       </c>
       <c r="T4" s="10">
-        <f>'dane po Vs'!T4</f>
-        <v>18</v>
+        <f>'dane po Vs'!T5</f>
+        <v>11.9</v>
       </c>
       <c r="U4" s="10">
-        <f>'dane po Vs'!U4</f>
-        <v>20.8</v>
+        <f>'dane po Vs'!U5</f>
+        <v>44.8</v>
       </c>
       <c r="V4">
-        <f>'dane po Vs'!V4</f>
-        <v>80.8</v>
+        <f>'dane po Vs'!V5</f>
+        <v>33.18</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" ref="W4:W30" si="4">((B4-$B$31)^2+(C4-$C$31)^2+(D4-$D$31)^2+(E4-$E$31)^2+(F4-$F$31)^2+(G4-$G$31)^2+(H4-$H$31)^2+(I4-$I$31)^2+(J4-$J$31)^2+(K4-$K$31)^2+(L4-$L$31)^2+(M4-$M$31)^2+(N4-$N$31)^2+(O4-$O$31)^2+(P4-$P$31)^2+(Q4-$Q$31)^2+(R4-$R$31)^2+(S4-$S$31)^2+(T4-$T$31)^2+(U4-$U$31)^2+(V4-$V$31)^2)^(0.5)</f>
-        <v>8925.8553744057845</v>
+        <f>((B4-$B$30)^2+(C4-$C$30)^2+(D4-$D$30)^2+(E4-$E$30)^2+(F4-$F$30)^2+(G4-$G$30)^2+(H4-$H$30)^2+(I4-$I$30)^2+(J4-$J$30)^2+(K4-$K$30)^2+(L4-$L$30)^2+(M4-$M$30)^2+(N4-$N$30)^2+(O4-$O$30)^2+(P4-$P$30)^2+(Q4-$Q$30)^2+(R4-$R$30)^2+(S4-$S$30)^2+(T4-$T$30)^2+(U4-$U$30)^2+(V4-$V$30)^2)^(0.5)</f>
+        <v>10588.168689582153</v>
       </c>
       <c r="X4" s="8">
+        <f>1-(W4/$AD$2)</f>
+        <v>0.19795885976108751</v>
+      </c>
+      <c r="Y4" t="str">
         <f t="shared" si="1"/>
-        <v>0.32387710925499469</v>
-      </c>
-      <c r="Y4" t="str">
+        <v>Bułgaria</v>
+      </c>
+      <c r="Z4" s="9">
         <f t="shared" si="2"/>
-        <v>Belgia</v>
-      </c>
-      <c r="Z4" s="9">
-        <f t="shared" si="3"/>
-        <v>0.32387710925499469</v>
+        <v>0.19795885976108751</v>
       </c>
       <c r="AA4" s="10">
         <f t="shared" si="0"/>
-        <v>0.32387710925499469</v>
-      </c>
-      <c r="AB4" s="9">
-        <f>AVERAGE(Z3:Z30)</f>
-        <v>0.33680624680097554</v>
-      </c>
-      <c r="AC4" s="9">
-        <f>STDEV(Z3:Z30)</f>
-        <v>0.16840312340048713</v>
-      </c>
-      <c r="AD4" s="9">
-        <f>AB4+2*AC4</f>
-        <v>0.67361249360194986</v>
+        <v>0.19795885976108751</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>'dane po Vs'!A5</f>
-        <v>Bułgaria</v>
+        <f>'dane po Vs'!A6</f>
+        <v>Chorwacja</v>
       </c>
       <c r="B5">
-        <f>'dane po Vs'!B5</f>
-        <v>30</v>
+        <f>'dane po Vs'!B6</f>
+        <v>37</v>
       </c>
       <c r="C5">
-        <f>'dane po Vs'!C5</f>
-        <v>105.6</v>
+        <f>'dane po Vs'!C6</f>
+        <v>70</v>
       </c>
       <c r="D5" s="10">
-        <f>'dane po Vs'!D5</f>
+        <f>'dane po Vs'!D6</f>
+        <v>490</v>
+      </c>
+      <c r="E5" s="10">
+        <f>'dane po Vs'!E6</f>
+        <v>54.6</v>
+      </c>
+      <c r="F5" s="10">
+        <f>'dane po Vs'!F6</f>
+        <v>12.5</v>
+      </c>
+      <c r="G5" s="10">
+        <f>'dane po Vs'!G6</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H5" s="10">
+        <f>'dane po Vs'!H6</f>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="I5" s="10">
+        <f>'dane po Vs'!I6</f>
+        <v>15.6</v>
+      </c>
+      <c r="J5" s="10">
+        <f>'dane po Vs'!J6</f>
+        <v>9</v>
+      </c>
+      <c r="K5" s="10">
+        <f>'dane po Vs'!K6</f>
+        <v>415</v>
+      </c>
+      <c r="L5">
+        <f>'dane po Vs'!L6</f>
         <v>22</v>
       </c>
-      <c r="E5" s="10">
-        <f>'dane po Vs'!E5</f>
-        <v>51.7</v>
-      </c>
-      <c r="F5" s="10">
-        <f>'dane po Vs'!F5</f>
-        <v>76.3</v>
-      </c>
-      <c r="G5" s="10">
-        <f>'dane po Vs'!G5</f>
-        <v>6.6</v>
-      </c>
-      <c r="H5" s="10">
-        <f>'dane po Vs'!H5</f>
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I5" s="10">
-        <f>'dane po Vs'!I5</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="J5" s="10">
-        <f>'dane po Vs'!J5</f>
-        <v>-4</v>
-      </c>
-      <c r="K5" s="10">
-        <f>'dane po Vs'!K5</f>
-        <v>599</v>
-      </c>
-      <c r="L5">
-        <f>'dane po Vs'!L5</f>
-        <v>10.5</v>
-      </c>
       <c r="M5">
-        <f>'dane po Vs'!M5</f>
-        <v>23.2</v>
+        <f>'dane po Vs'!M6</f>
+        <v>26.3</v>
       </c>
       <c r="N5">
-        <f>'dane po Vs'!N5</f>
-        <v>0.3</v>
+        <f>'dane po Vs'!N6</f>
+        <v>4.1100000000000003</v>
       </c>
       <c r="O5">
-        <f>'dane po Vs'!O5</f>
-        <v>373</v>
+        <f>'dane po Vs'!O6</f>
+        <v>1348</v>
       </c>
       <c r="P5">
-        <f>'dane po Vs'!P5</f>
-        <v>1.1100000000000001</v>
+        <f>'dane po Vs'!P6</f>
+        <v>0.76</v>
       </c>
       <c r="Q5">
-        <f>'dane po Vs'!Q5</f>
-        <v>3.28</v>
+        <f>'dane po Vs'!Q6</f>
+        <v>2.85</v>
       </c>
       <c r="R5">
-        <f>'dane po Vs'!R5</f>
-        <v>1</v>
+        <f>'dane po Vs'!R6</f>
+        <v>0</v>
       </c>
       <c r="S5">
-        <f>'dane po Vs'!S5</f>
-        <v>0.26</v>
+        <f>'dane po Vs'!S6</f>
+        <v>0.22</v>
       </c>
       <c r="T5" s="10">
-        <f>'dane po Vs'!T5</f>
-        <v>11.9</v>
+        <f>'dane po Vs'!T6</f>
+        <v>23.6</v>
       </c>
       <c r="U5" s="10">
-        <f>'dane po Vs'!U5</f>
-        <v>44.8</v>
+        <f>'dane po Vs'!U6</f>
+        <v>30.357142857142861</v>
       </c>
       <c r="V5">
-        <f>'dane po Vs'!V5</f>
-        <v>33.18</v>
+        <f>'dane po Vs'!V6</f>
+        <v>48.333333333333336</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" si="4"/>
-        <v>10588.168689582153</v>
+        <f>((B5-$B$30)^2+(C5-$C$30)^2+(D5-$D$30)^2+(E5-$E$30)^2+(F5-$F$30)^2+(G5-$G$30)^2+(H5-$H$30)^2+(I5-$I$30)^2+(J5-$J$30)^2+(K5-$K$30)^2+(L5-$L$30)^2+(M5-$M$30)^2+(N5-$N$30)^2+(O5-$O$30)^2+(P5-$P$30)^2+(Q5-$Q$30)^2+(R5-$R$30)^2+(S5-$S$30)^2+(T5-$T$30)^2+(U5-$U$30)^2+(V5-$V$30)^2)^(0.5)</f>
+        <v>9622.4490564234893</v>
       </c>
       <c r="X5" s="8">
+        <f>1-(W5/$AD$2)</f>
+        <v>0.27111096929366107</v>
+      </c>
+      <c r="Y5" t="str">
         <f t="shared" si="1"/>
-        <v>0.19795885976108751</v>
-      </c>
-      <c r="Y5" t="str">
+        <v>Chorwacja</v>
+      </c>
+      <c r="Z5" s="9">
         <f t="shared" si="2"/>
-        <v>Bułgaria</v>
-      </c>
-      <c r="Z5" s="9">
-        <f t="shared" si="3"/>
-        <v>0.19795885976108751</v>
+        <v>0.27111096929366107</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>0.19795885976108751</v>
+        <v>0.27111096929366107</v>
       </c>
       <c r="AB5" t="s">
         <v>167</v>
@@ -14887,112 +14902,112 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>'dane po Vs'!A6</f>
-        <v>Chorwacja</v>
+        <f>'dane po Vs'!A7</f>
+        <v>Cypr</v>
       </c>
       <c r="B6">
-        <f>'dane po Vs'!B6</f>
-        <v>37</v>
+        <f>'dane po Vs'!B7</f>
+        <v>7</v>
       </c>
       <c r="C6">
-        <f>'dane po Vs'!C6</f>
-        <v>70</v>
+        <f>'dane po Vs'!C7</f>
+        <v>72.5</v>
       </c>
       <c r="D6" s="10">
-        <f>'dane po Vs'!D6</f>
-        <v>490</v>
+        <f>'dane po Vs'!D7</f>
+        <v>232</v>
       </c>
       <c r="E6" s="10">
-        <f>'dane po Vs'!E6</f>
-        <v>54.6</v>
+        <f>'dane po Vs'!E7</f>
+        <v>97.5</v>
       </c>
       <c r="F6" s="10">
-        <f>'dane po Vs'!F6</f>
-        <v>12.5</v>
+        <f>'dane po Vs'!F7</f>
+        <v>28.5</v>
       </c>
       <c r="G6" s="10">
-        <f>'dane po Vs'!G6</f>
-        <v>9.8000000000000007</v>
+        <f>'dane po Vs'!G7</f>
+        <v>5</v>
       </c>
       <c r="H6" s="10">
-        <f>'dane po Vs'!H6</f>
-        <v>9.8571428571428577</v>
+        <f>'dane po Vs'!H7</f>
+        <v>29.7</v>
       </c>
       <c r="I6" s="10">
-        <f>'dane po Vs'!I6</f>
-        <v>15.6</v>
+        <f>'dane po Vs'!I7</f>
+        <v>40.1</v>
       </c>
       <c r="J6" s="10">
-        <f>'dane po Vs'!J6</f>
+        <f>'dane po Vs'!J7</f>
+        <v>33</v>
+      </c>
+      <c r="K6" s="10">
+        <f>'dane po Vs'!K7</f>
+        <v>728</v>
+      </c>
+      <c r="L6">
+        <f>'dane po Vs'!L7</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M6">
+        <f>'dane po Vs'!M7</f>
+        <v>172.7</v>
+      </c>
+      <c r="N6">
+        <f>'dane po Vs'!N7</f>
+        <v>1.6</v>
+      </c>
+      <c r="O6">
+        <f>'dane po Vs'!O7</f>
+        <v>2476</v>
+      </c>
+      <c r="P6">
+        <f>'dane po Vs'!P7</f>
+        <v>0.16</v>
+      </c>
+      <c r="Q6">
+        <f>'dane po Vs'!Q7</f>
+        <v>3.02</v>
+      </c>
+      <c r="R6">
+        <f>'dane po Vs'!R7</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>'dane po Vs'!S7</f>
+        <v>0.09</v>
+      </c>
+      <c r="T6" s="10">
+        <f>'dane po Vs'!T7</f>
         <v>9</v>
       </c>
-      <c r="K6" s="10">
-        <f>'dane po Vs'!K6</f>
-        <v>415</v>
-      </c>
-      <c r="L6">
-        <f>'dane po Vs'!L6</f>
-        <v>22</v>
-      </c>
-      <c r="M6">
-        <f>'dane po Vs'!M6</f>
-        <v>26.3</v>
-      </c>
-      <c r="N6">
-        <f>'dane po Vs'!N6</f>
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="O6">
-        <f>'dane po Vs'!O6</f>
-        <v>1348</v>
-      </c>
-      <c r="P6">
-        <f>'dane po Vs'!P6</f>
-        <v>0.76</v>
-      </c>
-      <c r="Q6">
-        <f>'dane po Vs'!Q6</f>
-        <v>2.85</v>
-      </c>
-      <c r="R6">
-        <f>'dane po Vs'!R6</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>'dane po Vs'!S6</f>
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="10">
-        <f>'dane po Vs'!T6</f>
-        <v>23.6</v>
-      </c>
       <c r="U6" s="10">
-        <f>'dane po Vs'!U6</f>
-        <v>30.357142857142861</v>
+        <f>'dane po Vs'!U7</f>
+        <v>23.3</v>
       </c>
       <c r="V6">
-        <f>'dane po Vs'!V6</f>
-        <v>48.333333333333336</v>
+        <f>'dane po Vs'!V7</f>
+        <v>144.90352633826882</v>
       </c>
       <c r="W6" s="8">
-        <f t="shared" si="4"/>
-        <v>9622.4490564234893</v>
+        <f>((B6-$B$30)^2+(C6-$C$30)^2+(D6-$D$30)^2+(E6-$E$30)^2+(F6-$F$30)^2+(G6-$G$30)^2+(H6-$H$30)^2+(I6-$I$30)^2+(J6-$J$30)^2+(K6-$K$30)^2+(L6-$L$30)^2+(M6-$M$30)^2+(N6-$N$30)^2+(O6-$O$30)^2+(P6-$P$30)^2+(Q6-$Q$30)^2+(R6-$R$30)^2+(S6-$S$30)^2+(T6-$T$30)^2+(U6-$U$30)^2+(V6-$V$30)^2)^(0.5)</f>
+        <v>8491.928481115212</v>
       </c>
       <c r="X6" s="8">
+        <f>1-(W6/$AD$2)</f>
+        <v>0.35674655348830464</v>
+      </c>
+      <c r="Y6" t="str">
         <f t="shared" si="1"/>
-        <v>0.27111096929366107</v>
-      </c>
-      <c r="Y6" t="str">
+        <v>Cypr</v>
+      </c>
+      <c r="Z6" s="9">
         <f t="shared" si="2"/>
-        <v>Chorwacja</v>
-      </c>
-      <c r="Z6" s="9">
-        <f t="shared" si="3"/>
-        <v>0.27111096929366107</v>
+        <v>0.35674655348830464</v>
       </c>
       <c r="AA6" s="10">
         <f t="shared" si="0"/>
-        <v>0.27111096929366107</v>
+        <v>0.35674655348830464</v>
       </c>
       <c r="AB6" t="s">
         <v>167</v>
@@ -15006,112 +15021,112 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>'dane po Vs'!A7</f>
-        <v>Cypr</v>
+        <f>'dane po Vs'!A8</f>
+        <v>Czechy</v>
       </c>
       <c r="B7">
-        <f>'dane po Vs'!B7</f>
-        <v>7</v>
+        <f>'dane po Vs'!B8</f>
+        <v>9</v>
       </c>
       <c r="C7">
-        <f>'dane po Vs'!C7</f>
-        <v>72.5</v>
+        <f>'dane po Vs'!C8</f>
+        <v>130.4</v>
       </c>
       <c r="D7" s="10">
-        <f>'dane po Vs'!D7</f>
-        <v>232</v>
+        <f>'dane po Vs'!D8</f>
+        <v>8</v>
       </c>
       <c r="E7" s="10">
-        <f>'dane po Vs'!E7</f>
-        <v>97.5</v>
+        <f>'dane po Vs'!E8</f>
+        <v>27.8</v>
       </c>
       <c r="F7" s="10">
-        <f>'dane po Vs'!F7</f>
-        <v>28.5</v>
+        <f>'dane po Vs'!F8</f>
+        <v>16.3</v>
       </c>
       <c r="G7" s="10">
-        <f>'dane po Vs'!G7</f>
-        <v>5</v>
+        <f>'dane po Vs'!G8</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H7" s="10">
-        <f>'dane po Vs'!H7</f>
-        <v>29.7</v>
+        <f>'dane po Vs'!H8</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="I7" s="10">
-        <f>'dane po Vs'!I7</f>
-        <v>40.1</v>
+        <f>'dane po Vs'!I8</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="J7" s="10">
-        <f>'dane po Vs'!J7</f>
-        <v>33</v>
+        <f>'dane po Vs'!J8</f>
+        <v>0</v>
       </c>
       <c r="K7" s="10">
-        <f>'dane po Vs'!K7</f>
-        <v>728</v>
+        <f>'dane po Vs'!K8</f>
+        <v>306</v>
       </c>
       <c r="L7">
-        <f>'dane po Vs'!L7</f>
-        <v>5.0999999999999996</v>
+        <f>'dane po Vs'!L8</f>
+        <v>8.6</v>
       </c>
       <c r="M7">
-        <f>'dane po Vs'!M7</f>
-        <v>172.7</v>
+        <f>'dane po Vs'!M8</f>
+        <v>6.3</v>
       </c>
       <c r="N7">
-        <f>'dane po Vs'!N7</f>
-        <v>1.6</v>
+        <f>'dane po Vs'!N8</f>
+        <v>9</v>
       </c>
       <c r="O7">
-        <f>'dane po Vs'!O7</f>
-        <v>2476</v>
+        <f>'dane po Vs'!O8</f>
+        <v>3394</v>
       </c>
       <c r="P7">
-        <f>'dane po Vs'!P7</f>
-        <v>0.16</v>
+        <f>'dane po Vs'!P8</f>
+        <v>0.78</v>
       </c>
       <c r="Q7">
-        <f>'dane po Vs'!Q7</f>
-        <v>3.02</v>
+        <f>'dane po Vs'!Q8</f>
+        <v>2.2599999999999998</v>
       </c>
       <c r="R7">
-        <f>'dane po Vs'!R7</f>
-        <v>0</v>
+        <f>'dane po Vs'!R8</f>
+        <v>2.02</v>
       </c>
       <c r="S7">
-        <f>'dane po Vs'!S7</f>
-        <v>0.09</v>
+        <f>'dane po Vs'!S8</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T7" s="10">
-        <f>'dane po Vs'!T7</f>
-        <v>9</v>
+        <f>'dane po Vs'!T8</f>
+        <v>9.9</v>
       </c>
       <c r="U7" s="10">
-        <f>'dane po Vs'!U7</f>
-        <v>23.3</v>
+        <f>'dane po Vs'!U8</f>
+        <v>15.3</v>
       </c>
       <c r="V7">
-        <f>'dane po Vs'!V7</f>
-        <v>144.90352633826882</v>
+        <f>'dane po Vs'!V8</f>
+        <v>106.25</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="4"/>
-        <v>8491.928481115212</v>
+        <f>((B7-$B$30)^2+(C7-$C$30)^2+(D7-$D$30)^2+(E7-$E$30)^2+(F7-$F$30)^2+(G7-$G$30)^2+(H7-$H$30)^2+(I7-$I$30)^2+(J7-$J$30)^2+(K7-$K$30)^2+(L7-$L$30)^2+(M7-$M$30)^2+(N7-$N$30)^2+(O7-$O$30)^2+(P7-$P$30)^2+(Q7-$Q$30)^2+(R7-$R$30)^2+(S7-$S$30)^2+(T7-$T$30)^2+(U7-$U$30)^2+(V7-$V$30)^2)^(0.5)</f>
+        <v>7563.2103411457838</v>
       </c>
       <c r="X7" s="8">
+        <f>1-(W7/$AD$2)</f>
+        <v>0.42709584407663181</v>
+      </c>
+      <c r="Y7" t="str">
         <f t="shared" si="1"/>
-        <v>0.35674655348830464</v>
-      </c>
-      <c r="Y7" t="str">
+        <v>Czechy</v>
+      </c>
+      <c r="Z7" s="9">
         <f t="shared" si="2"/>
-        <v>Cypr</v>
-      </c>
-      <c r="Z7" s="9">
-        <f t="shared" si="3"/>
-        <v>0.35674655348830464</v>
+        <v>0.42709584407663181</v>
       </c>
       <c r="AA7" s="10">
         <f t="shared" si="0"/>
-        <v>0.35674655348830464</v>
+        <v>0.42709584407663181</v>
       </c>
       <c r="AB7" t="s">
         <v>167</v>
@@ -15125,112 +15140,112 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>'dane po Vs'!A8</f>
-        <v>Czechy</v>
+        <f>'dane po Vs'!A9</f>
+        <v>Dania</v>
       </c>
       <c r="B8">
-        <f>'dane po Vs'!B8</f>
-        <v>9</v>
+        <f>'dane po Vs'!B9</f>
+        <v>7</v>
       </c>
       <c r="C8">
-        <f>'dane po Vs'!C8</f>
-        <v>130.4</v>
+        <f>'dane po Vs'!C9</f>
+        <v>102.6</v>
       </c>
       <c r="D8" s="10">
-        <f>'dane po Vs'!D8</f>
+        <f>'dane po Vs'!D9</f>
+        <v>231.76190476190476</v>
+      </c>
+      <c r="E8" s="10">
+        <f>'dane po Vs'!E9</f>
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="F8" s="10">
+        <f>'dane po Vs'!F9</f>
+        <v>3.9</v>
+      </c>
+      <c r="G8" s="10">
+        <f>'dane po Vs'!G9</f>
+        <v>7.3</v>
+      </c>
+      <c r="H8" s="10">
+        <f>'dane po Vs'!H9</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I8" s="10">
+        <f>'dane po Vs'!I9</f>
+        <v>27</v>
+      </c>
+      <c r="J8" s="10">
+        <f>'dane po Vs'!J9</f>
+        <v>7</v>
+      </c>
+      <c r="K8" s="10">
+        <f>'dane po Vs'!K9</f>
+        <v>830</v>
+      </c>
+      <c r="L8">
+        <f>'dane po Vs'!L9</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M8">
+        <f>'dane po Vs'!M9</f>
+        <v>2.8</v>
+      </c>
+      <c r="N8">
+        <f>'dane po Vs'!N9</f>
+        <v>5.6</v>
+      </c>
+      <c r="O8">
+        <f>'dane po Vs'!O9</f>
+        <v>4272</v>
+      </c>
+      <c r="P8">
+        <f>'dane po Vs'!P9</f>
+        <v>0.41</v>
+      </c>
+      <c r="Q8">
+        <f>'dane po Vs'!Q9</f>
+        <v>4.17</v>
+      </c>
+      <c r="R8">
+        <f>'dane po Vs'!R9</f>
+        <v>2.56</v>
+      </c>
+      <c r="S8">
+        <f>'dane po Vs'!S9</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T8" s="10">
+        <f>'dane po Vs'!T9</f>
         <v>8</v>
       </c>
-      <c r="E8" s="10">
-        <f>'dane po Vs'!E8</f>
-        <v>27.8</v>
-      </c>
-      <c r="F8" s="10">
-        <f>'dane po Vs'!F8</f>
+      <c r="U8" s="10">
+        <f>'dane po Vs'!U9</f>
         <v>16.3</v>
       </c>
-      <c r="G8" s="10">
-        <f>'dane po Vs'!G8</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H8" s="10">
-        <f>'dane po Vs'!H8</f>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="I8" s="10">
-        <f>'dane po Vs'!I8</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="J8" s="10">
-        <f>'dane po Vs'!J8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <f>'dane po Vs'!K8</f>
-        <v>306</v>
-      </c>
-      <c r="L8">
-        <f>'dane po Vs'!L8</f>
-        <v>8.6</v>
-      </c>
-      <c r="M8">
-        <f>'dane po Vs'!M8</f>
-        <v>6.3</v>
-      </c>
-      <c r="N8">
-        <f>'dane po Vs'!N8</f>
-        <v>9</v>
-      </c>
-      <c r="O8">
-        <f>'dane po Vs'!O8</f>
-        <v>3394</v>
-      </c>
-      <c r="P8">
-        <f>'dane po Vs'!P8</f>
-        <v>0.78</v>
-      </c>
-      <c r="Q8">
-        <f>'dane po Vs'!Q8</f>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="R8">
-        <f>'dane po Vs'!R8</f>
-        <v>2.02</v>
-      </c>
-      <c r="S8">
-        <f>'dane po Vs'!S8</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T8" s="10">
-        <f>'dane po Vs'!T8</f>
-        <v>9.9</v>
-      </c>
-      <c r="U8" s="10">
-        <f>'dane po Vs'!U8</f>
-        <v>15.3</v>
-      </c>
       <c r="V8">
-        <f>'dane po Vs'!V8</f>
-        <v>106.25</v>
+        <f>'dane po Vs'!V9</f>
+        <v>68.575000000000003</v>
       </c>
       <c r="W8" s="8">
-        <f t="shared" si="4"/>
-        <v>7563.2103411457838</v>
+        <f>((B8-$B$30)^2+(C8-$C$30)^2+(D8-$D$30)^2+(E8-$E$30)^2+(F8-$F$30)^2+(G8-$G$30)^2+(H8-$H$30)^2+(I8-$I$30)^2+(J8-$J$30)^2+(K8-$K$30)^2+(L8-$L$30)^2+(M8-$M$30)^2+(N8-$N$30)^2+(O8-$O$30)^2+(P8-$P$30)^2+(Q8-$Q$30)^2+(R8-$R$30)^2+(S8-$S$30)^2+(T8-$T$30)^2+(U8-$U$30)^2+(V8-$V$30)^2)^(0.5)</f>
+        <v>6713.0653769702312</v>
       </c>
       <c r="X8" s="8">
+        <f>1-(W8/$AD$2)</f>
+        <v>0.49149331038320976</v>
+      </c>
+      <c r="Y8" t="str">
         <f t="shared" si="1"/>
-        <v>0.42709584407663181</v>
-      </c>
-      <c r="Y8" t="str">
+        <v>Dania</v>
+      </c>
+      <c r="Z8" s="9">
         <f t="shared" si="2"/>
-        <v>Czechy</v>
-      </c>
-      <c r="Z8" s="9">
-        <f t="shared" si="3"/>
-        <v>0.42709584407663181</v>
+        <v>0.49149331038320976</v>
       </c>
       <c r="AA8" s="10">
         <f t="shared" si="0"/>
-        <v>0.42709584407663181</v>
+        <v>0.49149331038320976</v>
       </c>
       <c r="AB8" t="s">
         <v>167</v>
@@ -15244,112 +15259,112 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>'dane po Vs'!A9</f>
-        <v>Dania</v>
+        <f>'dane po Vs'!A10</f>
+        <v>Estonia</v>
       </c>
       <c r="B9">
-        <f>'dane po Vs'!B9</f>
-        <v>7</v>
+        <f>'dane po Vs'!B10</f>
+        <v>16</v>
       </c>
       <c r="C9">
-        <f>'dane po Vs'!C9</f>
-        <v>102.6</v>
+        <f>'dane po Vs'!C10</f>
+        <v>102.4</v>
       </c>
       <c r="D9" s="10">
-        <f>'dane po Vs'!D9</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D10</f>
+        <v>207</v>
       </c>
       <c r="E9" s="10">
-        <f>'dane po Vs'!E9</f>
-        <v>-20.100000000000001</v>
+        <f>'dane po Vs'!E10</f>
+        <v>24.7</v>
       </c>
       <c r="F9" s="10">
-        <f>'dane po Vs'!F9</f>
-        <v>3.9</v>
+        <f>'dane po Vs'!F10</f>
+        <v>52</v>
       </c>
       <c r="G9" s="10">
-        <f>'dane po Vs'!G9</f>
-        <v>7.3</v>
+        <f>'dane po Vs'!G10</f>
+        <v>14.2</v>
       </c>
       <c r="H9" s="10">
-        <f>'dane po Vs'!H9</f>
-        <v>18.399999999999999</v>
+        <f>'dane po Vs'!H10</f>
+        <v>18</v>
       </c>
       <c r="I9" s="10">
-        <f>'dane po Vs'!I9</f>
-        <v>27</v>
+        <f>'dane po Vs'!I10</f>
+        <v>26.4</v>
       </c>
       <c r="J9" s="10">
-        <f>'dane po Vs'!J9</f>
-        <v>7</v>
+        <f>'dane po Vs'!J10</f>
+        <v>-5</v>
       </c>
       <c r="K9" s="10">
-        <f>'dane po Vs'!K9</f>
-        <v>830</v>
+        <f>'dane po Vs'!K10</f>
+        <v>392</v>
       </c>
       <c r="L9">
-        <f>'dane po Vs'!L9</f>
-        <v>18.600000000000001</v>
+        <f>'dane po Vs'!L10</f>
+        <v>18.899999999999999</v>
       </c>
       <c r="M9">
-        <f>'dane po Vs'!M9</f>
-        <v>2.8</v>
+        <f>'dane po Vs'!M10</f>
+        <v>10.5</v>
       </c>
       <c r="N9">
-        <f>'dane po Vs'!N9</f>
-        <v>5.6</v>
+        <f>'dane po Vs'!N10</f>
+        <v>9.6</v>
       </c>
       <c r="O9">
-        <f>'dane po Vs'!O9</f>
-        <v>4272</v>
+        <f>'dane po Vs'!O10</f>
+        <v>2343</v>
       </c>
       <c r="P9">
-        <f>'dane po Vs'!P9</f>
-        <v>0.41</v>
+        <f>'dane po Vs'!P10</f>
+        <v>0.69</v>
       </c>
       <c r="Q9">
-        <f>'dane po Vs'!Q9</f>
-        <v>4.17</v>
+        <f>'dane po Vs'!Q10</f>
+        <v>2.3199999999999998</v>
       </c>
       <c r="R9">
-        <f>'dane po Vs'!R9</f>
-        <v>2.56</v>
+        <f>'dane po Vs'!R10</f>
+        <v>0</v>
       </c>
       <c r="S9">
-        <f>'dane po Vs'!S9</f>
-        <v>7.0000000000000007E-2</v>
+        <f>'dane po Vs'!S10</f>
+        <v>0.15</v>
       </c>
       <c r="T9" s="10">
-        <f>'dane po Vs'!T9</f>
-        <v>8</v>
+        <f>'dane po Vs'!T10</f>
+        <v>12</v>
       </c>
       <c r="U9" s="10">
-        <f>'dane po Vs'!U9</f>
-        <v>16.3</v>
+        <f>'dane po Vs'!U10</f>
+        <v>21.8</v>
       </c>
       <c r="V9">
-        <f>'dane po Vs'!V9</f>
-        <v>68.575000000000003</v>
+        <f>'dane po Vs'!V10</f>
+        <v>28.25</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" si="4"/>
-        <v>6713.0653769702312</v>
+        <f>((B9-$B$30)^2+(C9-$C$30)^2+(D9-$D$30)^2+(E9-$E$30)^2+(F9-$F$30)^2+(G9-$G$30)^2+(H9-$H$30)^2+(I9-$I$30)^2+(J9-$J$30)^2+(K9-$K$30)^2+(L9-$L$30)^2+(M9-$M$30)^2+(N9-$N$30)^2+(O9-$O$30)^2+(P9-$P$30)^2+(Q9-$Q$30)^2+(R9-$R$30)^2+(S9-$S$30)^2+(T9-$T$30)^2+(U9-$U$30)^2+(V9-$V$30)^2)^(0.5)</f>
+        <v>8619.399209399704</v>
       </c>
       <c r="X9" s="8">
+        <f>1-(W9/$AD$2)</f>
+        <v>0.34709079796931952</v>
+      </c>
+      <c r="Y9" t="str">
         <f t="shared" si="1"/>
-        <v>0.49149331038320976</v>
-      </c>
-      <c r="Y9" t="str">
+        <v>Estonia</v>
+      </c>
+      <c r="Z9" s="9">
         <f t="shared" si="2"/>
-        <v>Dania</v>
-      </c>
-      <c r="Z9" s="9">
-        <f t="shared" si="3"/>
-        <v>0.49149331038320976</v>
+        <v>0.34709079796931952</v>
       </c>
       <c r="AA9" s="10">
         <f t="shared" si="0"/>
-        <v>0.49149331038320976</v>
+        <v>0.34709079796931952</v>
       </c>
       <c r="AB9" t="s">
         <v>167</v>
@@ -15363,112 +15378,112 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>'dane po Vs'!A10</f>
-        <v>Estonia</v>
+        <f>'dane po Vs'!A11</f>
+        <v>Finlandia</v>
       </c>
       <c r="B10">
-        <f>'dane po Vs'!B10</f>
-        <v>16</v>
+        <f>'dane po Vs'!B11</f>
+        <v>13</v>
       </c>
       <c r="C10">
-        <f>'dane po Vs'!C10</f>
-        <v>102.4</v>
+        <f>'dane po Vs'!C11</f>
+        <v>105.4</v>
       </c>
       <c r="D10" s="10">
-        <f>'dane po Vs'!D10</f>
-        <v>207</v>
+        <f>'dane po Vs'!D11</f>
+        <v>231.76190476190476</v>
       </c>
       <c r="E10" s="10">
-        <f>'dane po Vs'!E10</f>
-        <v>24.7</v>
+        <f>'dane po Vs'!E11</f>
+        <v>54.1</v>
       </c>
       <c r="F10" s="10">
-        <f>'dane po Vs'!F10</f>
-        <v>52</v>
+        <f>'dane po Vs'!F11</f>
+        <v>13.2</v>
       </c>
       <c r="G10" s="10">
-        <f>'dane po Vs'!G10</f>
-        <v>14.2</v>
+        <f>'dane po Vs'!G11</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H10" s="10">
-        <f>'dane po Vs'!H10</f>
-        <v>18</v>
+        <f>'dane po Vs'!H11</f>
+        <v>15.5</v>
       </c>
       <c r="I10" s="10">
-        <f>'dane po Vs'!I10</f>
-        <v>26.4</v>
+        <f>'dane po Vs'!I11</f>
+        <v>39</v>
       </c>
       <c r="J10" s="10">
-        <f>'dane po Vs'!J10</f>
-        <v>-5</v>
+        <f>'dane po Vs'!J11</f>
+        <v>5</v>
       </c>
       <c r="K10" s="10">
-        <f>'dane po Vs'!K10</f>
-        <v>392</v>
+        <f>'dane po Vs'!K11</f>
+        <v>521</v>
       </c>
       <c r="L10">
-        <f>'dane po Vs'!L10</f>
-        <v>18.899999999999999</v>
+        <f>'dane po Vs'!L11</f>
+        <v>31.3</v>
       </c>
       <c r="M10">
-        <f>'dane po Vs'!M10</f>
-        <v>10.5</v>
+        <f>'dane po Vs'!M11</f>
+        <v>53.5</v>
       </c>
       <c r="N10">
-        <f>'dane po Vs'!N10</f>
-        <v>9.6</v>
+        <f>'dane po Vs'!N11</f>
+        <v>6.5</v>
       </c>
       <c r="O10">
-        <f>'dane po Vs'!O10</f>
-        <v>2343</v>
+        <f>'dane po Vs'!O11</f>
+        <v>486</v>
       </c>
       <c r="P10">
-        <f>'dane po Vs'!P10</f>
-        <v>0.69</v>
+        <f>'dane po Vs'!P11</f>
+        <v>0.39</v>
       </c>
       <c r="Q10">
-        <f>'dane po Vs'!Q10</f>
-        <v>2.3199999999999998</v>
+        <f>'dane po Vs'!Q11</f>
+        <v>2.6</v>
       </c>
       <c r="R10">
-        <f>'dane po Vs'!R10</f>
-        <v>0</v>
+        <f>'dane po Vs'!R11</f>
+        <v>5.3</v>
       </c>
       <c r="S10">
-        <f>'dane po Vs'!S10</f>
-        <v>0.15</v>
+        <f>'dane po Vs'!S11</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T10" s="10">
-        <f>'dane po Vs'!T10</f>
-        <v>12</v>
+        <f>'dane po Vs'!T11</f>
+        <v>16.5</v>
       </c>
       <c r="U10" s="10">
-        <f>'dane po Vs'!U10</f>
-        <v>21.8</v>
+        <f>'dane po Vs'!U11</f>
+        <v>17.399999999999999</v>
       </c>
       <c r="V10">
-        <f>'dane po Vs'!V10</f>
-        <v>28.25</v>
+        <f>'dane po Vs'!V11</f>
+        <v>132.69999999999999</v>
       </c>
       <c r="W10" s="8">
-        <f t="shared" si="4"/>
-        <v>8619.399209399704</v>
+        <f>((B10-$B$30)^2+(C10-$C$30)^2+(D10-$D$30)^2+(E10-$E$30)^2+(F10-$F$30)^2+(G10-$G$30)^2+(H10-$H$30)^2+(I10-$I$30)^2+(J10-$J$30)^2+(K10-$K$30)^2+(L10-$L$30)^2+(M10-$M$30)^2+(N10-$N$30)^2+(O10-$O$30)^2+(P10-$P$30)^2+(Q10-$Q$30)^2+(R10-$R$30)^2+(S10-$S$30)^2+(T10-$T$30)^2+(U10-$U$30)^2+(V10-$V$30)^2)^(0.5)</f>
+        <v>10471.862171676059</v>
       </c>
       <c r="X10" s="8">
+        <f>1-(W10/$AD$2)</f>
+        <v>0.20676893966946708</v>
+      </c>
+      <c r="Y10" t="str">
         <f t="shared" si="1"/>
-        <v>0.34709079796931952</v>
-      </c>
-      <c r="Y10" t="str">
+        <v>Finlandia</v>
+      </c>
+      <c r="Z10" s="9">
         <f t="shared" si="2"/>
-        <v>Estonia</v>
-      </c>
-      <c r="Z10" s="9">
-        <f t="shared" si="3"/>
-        <v>0.34709079796931952</v>
+        <v>0.20676893966946708</v>
       </c>
       <c r="AA10" s="10">
         <f t="shared" si="0"/>
-        <v>0.34709079796931952</v>
+        <v>0.20676893966946708</v>
       </c>
       <c r="AB10" t="s">
         <v>167</v>
@@ -15482,112 +15497,112 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>'dane po Vs'!A11</f>
-        <v>Finlandia</v>
+        <f>'dane po Vs'!A12</f>
+        <v>Francja</v>
       </c>
       <c r="B11">
-        <f>'dane po Vs'!B11</f>
-        <v>13</v>
+        <f>'dane po Vs'!B12</f>
+        <v>8</v>
       </c>
       <c r="C11">
-        <f>'dane po Vs'!C11</f>
-        <v>105.4</v>
+        <f>'dane po Vs'!C12</f>
+        <v>113.3</v>
       </c>
       <c r="D11" s="10">
-        <f>'dane po Vs'!D11</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D12</f>
+        <v>853</v>
       </c>
       <c r="E11" s="10">
-        <f>'dane po Vs'!E11</f>
-        <v>54.1</v>
+        <f>'dane po Vs'!E12</f>
+        <v>50.6</v>
       </c>
       <c r="F11" s="10">
-        <f>'dane po Vs'!F11</f>
-        <v>13.2</v>
+        <f>'dane po Vs'!F12</f>
+        <v>5.4</v>
       </c>
       <c r="G11" s="10">
-        <f>'dane po Vs'!G11</f>
-        <v>8.8000000000000007</v>
+        <f>'dane po Vs'!G12</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H11" s="10">
-        <f>'dane po Vs'!H11</f>
-        <v>15.5</v>
+        <f>'dane po Vs'!H12</f>
+        <v>17.8</v>
       </c>
       <c r="I11" s="10">
-        <f>'dane po Vs'!I11</f>
-        <v>39</v>
+        <f>'dane po Vs'!I12</f>
+        <v>13.9</v>
       </c>
       <c r="J11" s="10">
-        <f>'dane po Vs'!J11</f>
-        <v>5</v>
+        <f>'dane po Vs'!J12</f>
+        <v>4</v>
       </c>
       <c r="K11" s="10">
-        <f>'dane po Vs'!K11</f>
-        <v>521</v>
+        <f>'dane po Vs'!K12</f>
+        <v>541</v>
       </c>
       <c r="L11">
-        <f>'dane po Vs'!L11</f>
-        <v>31.3</v>
+        <f>'dane po Vs'!L12</f>
+        <v>11.3</v>
       </c>
       <c r="M11">
-        <f>'dane po Vs'!M11</f>
-        <v>53.5</v>
+        <f>'dane po Vs'!M12</f>
+        <v>126.9</v>
       </c>
       <c r="N11">
-        <f>'dane po Vs'!N11</f>
-        <v>6.5</v>
+        <f>'dane po Vs'!N12</f>
+        <v>2</v>
       </c>
       <c r="O11">
-        <f>'dane po Vs'!O11</f>
-        <v>486</v>
+        <f>'dane po Vs'!O12</f>
+        <v>1587</v>
       </c>
       <c r="P11">
-        <f>'dane po Vs'!P11</f>
-        <v>0.39</v>
+        <f>'dane po Vs'!P12</f>
+        <v>0.53999999999999992</v>
       </c>
       <c r="Q11">
-        <f>'dane po Vs'!Q11</f>
-        <v>2.6</v>
+        <f>'dane po Vs'!Q12</f>
+        <v>1.84</v>
       </c>
       <c r="R11">
-        <f>'dane po Vs'!R11</f>
-        <v>5.3</v>
+        <f>'dane po Vs'!R12</f>
+        <v>38.909999999999997</v>
       </c>
       <c r="S11">
-        <f>'dane po Vs'!S11</f>
-        <v>0.28999999999999998</v>
+        <f>'dane po Vs'!S12</f>
+        <v>0.33</v>
       </c>
       <c r="T11" s="10">
-        <f>'dane po Vs'!T11</f>
-        <v>16.5</v>
+        <f>'dane po Vs'!T12</f>
+        <v>19</v>
       </c>
       <c r="U11" s="10">
-        <f>'dane po Vs'!U11</f>
-        <v>17.399999999999999</v>
+        <f>'dane po Vs'!U12</f>
+        <v>18.5</v>
       </c>
       <c r="V11">
-        <f>'dane po Vs'!V11</f>
-        <v>132.69999999999999</v>
+        <f>'dane po Vs'!V12</f>
+        <v>393.4</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" si="4"/>
-        <v>10471.862171676059</v>
+        <f>((B11-$B$30)^2+(C11-$C$30)^2+(D11-$D$30)^2+(E11-$E$30)^2+(F11-$F$30)^2+(G11-$G$30)^2+(H11-$H$30)^2+(I11-$I$30)^2+(J11-$J$30)^2+(K11-$K$30)^2+(L11-$L$30)^2+(M11-$M$30)^2+(N11-$N$30)^2+(O11-$O$30)^2+(P11-$P$30)^2+(Q11-$Q$30)^2+(R11-$R$30)^2+(S11-$S$30)^2+(T11-$T$30)^2+(U11-$U$30)^2+(V11-$V$30)^2)^(0.5)</f>
+        <v>9402.5815947017454</v>
       </c>
       <c r="X11" s="8">
+        <f>1-(W11/$AD$2)</f>
+        <v>0.2877656670861366</v>
+      </c>
+      <c r="Y11" t="str">
         <f t="shared" si="1"/>
-        <v>0.20676893966946708</v>
-      </c>
-      <c r="Y11" t="str">
+        <v>Francja</v>
+      </c>
+      <c r="Z11" s="9">
         <f t="shared" si="2"/>
-        <v>Finlandia</v>
-      </c>
-      <c r="Z11" s="9">
-        <f t="shared" si="3"/>
-        <v>0.20676893966946708</v>
+        <v>0.2877656670861366</v>
       </c>
       <c r="AA11" s="10">
         <f t="shared" si="0"/>
-        <v>0.20676893966946708</v>
+        <v>0.2877656670861366</v>
       </c>
       <c r="AB11" t="s">
         <v>167</v>
@@ -15601,112 +15616,112 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>'dane po Vs'!A12</f>
-        <v>Francja</v>
+        <f>'dane po Vs'!A13</f>
+        <v>Grecja</v>
       </c>
       <c r="B12">
-        <f>'dane po Vs'!B12</f>
+        <f>'dane po Vs'!B13</f>
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <f>'dane po Vs'!C13</f>
+        <v>86.7</v>
+      </c>
+      <c r="D12" s="10">
+        <f>'dane po Vs'!D13</f>
+        <v>205</v>
+      </c>
+      <c r="E12" s="10">
+        <f>'dane po Vs'!E13</f>
+        <v>73.3</v>
+      </c>
+      <c r="F12" s="10">
+        <f>'dane po Vs'!F13</f>
+        <v>40.1</v>
+      </c>
+      <c r="G12" s="10">
+        <f>'dane po Vs'!G13</f>
+        <v>9.4</v>
+      </c>
+      <c r="H12" s="10">
+        <f>'dane po Vs'!H13</f>
+        <v>22.3</v>
+      </c>
+      <c r="I12" s="10">
+        <f>'dane po Vs'!I13</f>
+        <v>21</v>
+      </c>
+      <c r="J12" s="10">
+        <f>'dane po Vs'!J13</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="10">
+        <f>'dane po Vs'!K13</f>
+        <v>458</v>
+      </c>
+      <c r="L12">
+        <f>'dane po Vs'!L13</f>
         <v>8</v>
       </c>
-      <c r="C12">
-        <f>'dane po Vs'!C12</f>
-        <v>113.3</v>
-      </c>
-      <c r="D12" s="10">
-        <f>'dane po Vs'!D12</f>
-        <v>853</v>
-      </c>
-      <c r="E12" s="10">
-        <f>'dane po Vs'!E12</f>
-        <v>50.6</v>
-      </c>
-      <c r="F12" s="10">
-        <f>'dane po Vs'!F12</f>
-        <v>5.4</v>
-      </c>
-      <c r="G12" s="10">
-        <f>'dane po Vs'!G12</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H12" s="10">
-        <f>'dane po Vs'!H12</f>
-        <v>17.8</v>
-      </c>
-      <c r="I12" s="10">
-        <f>'dane po Vs'!I12</f>
-        <v>13.9</v>
-      </c>
-      <c r="J12" s="10">
-        <f>'dane po Vs'!J12</f>
-        <v>4</v>
-      </c>
-      <c r="K12" s="10">
-        <f>'dane po Vs'!K12</f>
-        <v>541</v>
-      </c>
-      <c r="L12">
-        <f>'dane po Vs'!L12</f>
-        <v>11.3</v>
-      </c>
       <c r="M12">
-        <f>'dane po Vs'!M12</f>
-        <v>126.9</v>
+        <f>'dane po Vs'!M13</f>
+        <v>11.2</v>
       </c>
       <c r="N12">
-        <f>'dane po Vs'!N12</f>
-        <v>2</v>
+        <f>'dane po Vs'!N13</f>
+        <v>7.8</v>
       </c>
       <c r="O12">
-        <f>'dane po Vs'!O12</f>
-        <v>1587</v>
+        <f>'dane po Vs'!O13</f>
+        <v>3219</v>
       </c>
       <c r="P12">
-        <f>'dane po Vs'!P12</f>
-        <v>0.53999999999999992</v>
+        <f>'dane po Vs'!P13</f>
+        <v>0.41</v>
       </c>
       <c r="Q12">
-        <f>'dane po Vs'!Q12</f>
-        <v>1.84</v>
+        <f>'dane po Vs'!Q13</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R12">
-        <f>'dane po Vs'!R12</f>
-        <v>38.909999999999997</v>
+        <f>'dane po Vs'!R13</f>
+        <v>0</v>
       </c>
       <c r="S12">
-        <f>'dane po Vs'!S12</f>
-        <v>0.33</v>
+        <f>'dane po Vs'!S13</f>
+        <v>0.23</v>
       </c>
       <c r="T12" s="10">
-        <f>'dane po Vs'!T12</f>
-        <v>19</v>
+        <f>'dane po Vs'!T13</f>
+        <v>21.9</v>
       </c>
       <c r="U12" s="10">
-        <f>'dane po Vs'!U12</f>
-        <v>18.5</v>
+        <f>'dane po Vs'!U13</f>
+        <v>28.1</v>
       </c>
       <c r="V12">
-        <f>'dane po Vs'!V12</f>
-        <v>393.4</v>
+        <f>'dane po Vs'!V13</f>
+        <v>145.53229055046864</v>
       </c>
       <c r="W12" s="8">
-        <f t="shared" si="4"/>
-        <v>9402.5815947017454</v>
+        <f>((B12-$B$30)^2+(C12-$C$30)^2+(D12-$D$30)^2+(E12-$E$30)^2+(F12-$F$30)^2+(G12-$G$30)^2+(H12-$H$30)^2+(I12-$I$30)^2+(J12-$J$30)^2+(K12-$K$30)^2+(L12-$L$30)^2+(M12-$M$30)^2+(N12-$N$30)^2+(O12-$O$30)^2+(P12-$P$30)^2+(Q12-$Q$30)^2+(R12-$R$30)^2+(S12-$S$30)^2+(T12-$T$30)^2+(U12-$U$30)^2+(V12-$V$30)^2)^(0.5)</f>
+        <v>7741.2286400566709</v>
       </c>
       <c r="X12" s="8">
+        <f>1-(W12/$AD$2)</f>
+        <v>0.41361117041608086</v>
+      </c>
+      <c r="Y12" t="str">
         <f t="shared" si="1"/>
-        <v>0.2877656670861366</v>
-      </c>
-      <c r="Y12" t="str">
+        <v>Grecja</v>
+      </c>
+      <c r="Z12" s="9">
         <f t="shared" si="2"/>
-        <v>Francja</v>
-      </c>
-      <c r="Z12" s="9">
-        <f t="shared" si="3"/>
-        <v>0.2877656670861366</v>
+        <v>0.41361117041608086</v>
       </c>
       <c r="AA12" s="10">
         <f t="shared" si="0"/>
-        <v>0.2877656670861366</v>
+        <v>0.41361117041608086</v>
       </c>
       <c r="AB12" t="s">
         <v>167</v>
@@ -15720,112 +15735,112 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>'dane po Vs'!A13</f>
-        <v>Grecja</v>
+        <f>'dane po Vs'!A14</f>
+        <v>Hiszpania</v>
       </c>
       <c r="B13">
-        <f>'dane po Vs'!B13</f>
-        <v>16</v>
+        <f>'dane po Vs'!B14</f>
+        <v>23</v>
       </c>
       <c r="C13">
-        <f>'dane po Vs'!C13</f>
-        <v>86.7</v>
+        <f>'dane po Vs'!C14</f>
+        <v>109.7</v>
       </c>
       <c r="D13" s="10">
-        <f>'dane po Vs'!D13</f>
-        <v>205</v>
+        <f>'dane po Vs'!D14</f>
+        <v>84</v>
       </c>
       <c r="E13" s="10">
-        <f>'dane po Vs'!E13</f>
-        <v>73.3</v>
+        <f>'dane po Vs'!E14</f>
+        <v>81.3</v>
       </c>
       <c r="F13" s="10">
-        <f>'dane po Vs'!F13</f>
-        <v>40.1</v>
+        <f>'dane po Vs'!F14</f>
+        <v>11</v>
       </c>
       <c r="G13" s="10">
-        <f>'dane po Vs'!G13</f>
-        <v>9.4</v>
+        <f>'dane po Vs'!G14</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H13" s="10">
-        <f>'dane po Vs'!H13</f>
-        <v>22.3</v>
+        <f>'dane po Vs'!H14</f>
+        <v>22</v>
       </c>
       <c r="I13" s="10">
-        <f>'dane po Vs'!I13</f>
-        <v>21</v>
+        <f>'dane po Vs'!I14</f>
+        <v>17.7</v>
       </c>
       <c r="J13" s="10">
-        <f>'dane po Vs'!J13</f>
-        <v>2</v>
+        <f>'dane po Vs'!J14</f>
+        <v>-2</v>
       </c>
       <c r="K13" s="10">
-        <f>'dane po Vs'!K13</f>
-        <v>458</v>
+        <f>'dane po Vs'!K14</f>
+        <v>551</v>
       </c>
       <c r="L13">
-        <f>'dane po Vs'!L13</f>
-        <v>8</v>
+        <f>'dane po Vs'!L14</f>
+        <v>10.8</v>
       </c>
       <c r="M13">
-        <f>'dane po Vs'!M13</f>
-        <v>11.2</v>
+        <f>'dane po Vs'!M14</f>
+        <v>106.7</v>
       </c>
       <c r="N13">
-        <f>'dane po Vs'!N13</f>
-        <v>7.8</v>
+        <f>'dane po Vs'!N14</f>
+        <v>5.3</v>
       </c>
       <c r="O13">
-        <f>'dane po Vs'!O13</f>
-        <v>3219</v>
+        <f>'dane po Vs'!O14</f>
+        <v>163</v>
       </c>
       <c r="P13">
-        <f>'dane po Vs'!P13</f>
-        <v>0.41</v>
+        <f>'dane po Vs'!P14</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q13">
-        <f>'dane po Vs'!Q13</f>
-        <v>2.0499999999999998</v>
+        <f>'dane po Vs'!Q14</f>
+        <v>1.63</v>
       </c>
       <c r="R13">
-        <f>'dane po Vs'!R13</f>
-        <v>0</v>
+        <f>'dane po Vs'!R14</f>
+        <v>19.260000000000002</v>
       </c>
       <c r="S13">
-        <f>'dane po Vs'!S13</f>
-        <v>0.23</v>
+        <f>'dane po Vs'!S14</f>
+        <v>0.24</v>
       </c>
       <c r="T13" s="10">
-        <f>'dane po Vs'!T13</f>
-        <v>21.9</v>
+        <f>'dane po Vs'!T14</f>
+        <v>24.5</v>
       </c>
       <c r="U13" s="10">
-        <f>'dane po Vs'!U13</f>
-        <v>28.1</v>
+        <f>'dane po Vs'!U14</f>
+        <v>23.8</v>
       </c>
       <c r="V13">
-        <f>'dane po Vs'!V13</f>
-        <v>145.53229055046864</v>
+        <f>'dane po Vs'!V14</f>
+        <v>259.75</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" si="4"/>
-        <v>7741.2286400566709</v>
+        <f>((B13-$B$30)^2+(C13-$C$30)^2+(D13-$D$30)^2+(E13-$E$30)^2+(F13-$F$30)^2+(G13-$G$30)^2+(H13-$H$30)^2+(I13-$I$30)^2+(J13-$J$30)^2+(K13-$K$30)^2+(L13-$L$30)^2+(M13-$M$30)^2+(N13-$N$30)^2+(O13-$O$30)^2+(P13-$P$30)^2+(Q13-$Q$30)^2+(R13-$R$30)^2+(S13-$S$30)^2+(T13-$T$30)^2+(U13-$U$30)^2+(V13-$V$30)^2)^(0.5)</f>
+        <v>10789.756528889984</v>
       </c>
       <c r="X13" s="8">
+        <f>1-(W13/$AD$2)</f>
+        <v>0.18268882154797972</v>
+      </c>
+      <c r="Y13" t="str">
         <f t="shared" si="1"/>
-        <v>0.41361117041608086</v>
-      </c>
-      <c r="Y13" t="str">
+        <v>Hiszpania</v>
+      </c>
+      <c r="Z13" s="9">
         <f t="shared" si="2"/>
-        <v>Grecja</v>
-      </c>
-      <c r="Z13" s="9">
-        <f t="shared" si="3"/>
-        <v>0.41361117041608086</v>
+        <v>0.18268882154797972</v>
       </c>
       <c r="AA13" s="10">
         <f t="shared" si="0"/>
-        <v>0.41361117041608086</v>
+        <v>0.18268882154797972</v>
       </c>
       <c r="AB13" t="s">
         <v>167</v>
@@ -15839,112 +15854,112 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>'dane po Vs'!A14</f>
-        <v>Hiszpania</v>
+        <f>'dane po Vs'!A15</f>
+        <v>Holandia</v>
       </c>
       <c r="B14">
-        <f>'dane po Vs'!B14</f>
-        <v>23</v>
+        <f>'dane po Vs'!B15</f>
+        <v>8</v>
       </c>
       <c r="C14">
-        <f>'dane po Vs'!C14</f>
-        <v>109.7</v>
+        <f>'dane po Vs'!C15</f>
+        <v>115.3</v>
       </c>
       <c r="D14" s="10">
-        <f>'dane po Vs'!D14</f>
-        <v>84</v>
+        <f>'dane po Vs'!D15</f>
+        <v>1</v>
       </c>
       <c r="E14" s="10">
-        <f>'dane po Vs'!E14</f>
-        <v>81.3</v>
+        <f>'dane po Vs'!E15</f>
+        <v>34.299999999999997</v>
       </c>
       <c r="F14" s="10">
-        <f>'dane po Vs'!F14</f>
-        <v>11</v>
+        <f>'dane po Vs'!F15</f>
+        <v>3.1</v>
       </c>
       <c r="G14" s="10">
-        <f>'dane po Vs'!G14</f>
-        <v>4.4000000000000004</v>
+        <f>'dane po Vs'!G15</f>
+        <v>2</v>
       </c>
       <c r="H14" s="10">
-        <f>'dane po Vs'!H14</f>
-        <v>22</v>
+        <f>'dane po Vs'!H15</f>
+        <v>29.3</v>
       </c>
       <c r="I14" s="10">
-        <f>'dane po Vs'!I14</f>
-        <v>17.7</v>
+        <f>'dane po Vs'!I15</f>
+        <v>12.3</v>
       </c>
       <c r="J14" s="10">
-        <f>'dane po Vs'!J14</f>
-        <v>-2</v>
+        <f>'dane po Vs'!J15</f>
+        <v>8</v>
       </c>
       <c r="K14" s="10">
-        <f>'dane po Vs'!K14</f>
-        <v>551</v>
+        <f>'dane po Vs'!K15</f>
+        <v>600</v>
       </c>
       <c r="L14">
-        <f>'dane po Vs'!L14</f>
-        <v>10.8</v>
+        <f>'dane po Vs'!L15</f>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <f>'dane po Vs'!M14</f>
-        <v>106.7</v>
+        <f>'dane po Vs'!M15</f>
+        <v>0.4</v>
       </c>
       <c r="N14">
-        <f>'dane po Vs'!N14</f>
-        <v>5.3</v>
+        <f>'dane po Vs'!N15</f>
+        <v>2.6</v>
       </c>
       <c r="O14">
-        <f>'dane po Vs'!O14</f>
-        <v>163</v>
+        <f>'dane po Vs'!O15</f>
+        <v>1535</v>
       </c>
       <c r="P14">
-        <f>'dane po Vs'!P14</f>
-        <v>0.28999999999999998</v>
+        <f>'dane po Vs'!P15</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q14">
-        <f>'dane po Vs'!Q14</f>
-        <v>1.63</v>
+        <f>'dane po Vs'!Q15</f>
+        <v>3.48</v>
       </c>
       <c r="R14">
-        <f>'dane po Vs'!R14</f>
-        <v>19.260000000000002</v>
+        <f>'dane po Vs'!R15</f>
+        <v>8.9</v>
       </c>
       <c r="S14">
-        <f>'dane po Vs'!S14</f>
-        <v>0.24</v>
+        <f>'dane po Vs'!S15</f>
+        <v>0.2</v>
       </c>
       <c r="T14" s="10">
-        <f>'dane po Vs'!T14</f>
-        <v>24.5</v>
+        <f>'dane po Vs'!T15</f>
+        <v>8.6</v>
       </c>
       <c r="U14" s="10">
-        <f>'dane po Vs'!U14</f>
-        <v>23.8</v>
+        <f>'dane po Vs'!U15</f>
+        <v>14.9</v>
       </c>
       <c r="V14">
-        <f>'dane po Vs'!V14</f>
-        <v>259.75</v>
+        <f>'dane po Vs'!V15</f>
+        <v>130.75</v>
       </c>
       <c r="W14" s="8">
-        <f t="shared" si="4"/>
-        <v>10789.756528889984</v>
+        <f>((B14-$B$30)^2+(C14-$C$30)^2+(D14-$D$30)^2+(E14-$E$30)^2+(F14-$F$30)^2+(G14-$G$30)^2+(H14-$H$30)^2+(I14-$I$30)^2+(J14-$J$30)^2+(K14-$K$30)^2+(L14-$L$30)^2+(M14-$M$30)^2+(N14-$N$30)^2+(O14-$O$30)^2+(P14-$P$30)^2+(Q14-$Q$30)^2+(R14-$R$30)^2+(S14-$S$30)^2+(T14-$T$30)^2+(U14-$U$30)^2+(V14-$V$30)^2)^(0.5)</f>
+        <v>9424.093698273502</v>
       </c>
       <c r="X14" s="8">
+        <f>1-(W14/$AD$2)</f>
+        <v>0.28613615091733913</v>
+      </c>
+      <c r="Y14" t="str">
         <f t="shared" si="1"/>
-        <v>0.18268882154797972</v>
-      </c>
-      <c r="Y14" t="str">
+        <v>Holandia</v>
+      </c>
+      <c r="Z14" s="9">
         <f t="shared" si="2"/>
-        <v>Hiszpania</v>
-      </c>
-      <c r="Z14" s="9">
-        <f t="shared" si="3"/>
-        <v>0.18268882154797972</v>
+        <v>0.28613615091733913</v>
       </c>
       <c r="AA14" s="10">
         <f t="shared" si="0"/>
-        <v>0.18268882154797972</v>
+        <v>0.28613615091733913</v>
       </c>
       <c r="AB14" t="s">
         <v>167</v>
@@ -15958,112 +15973,112 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>'dane po Vs'!A15</f>
-        <v>Holandia</v>
+        <f>'dane po Vs'!A16</f>
+        <v>Irlandia</v>
       </c>
       <c r="B15">
-        <f>'dane po Vs'!B15</f>
-        <v>8</v>
+        <f>'dane po Vs'!B16</f>
+        <v>11</v>
       </c>
       <c r="C15">
-        <f>'dane po Vs'!C15</f>
-        <v>115.3</v>
+        <f>'dane po Vs'!C16</f>
+        <v>111.6</v>
       </c>
       <c r="D15" s="10">
-        <f>'dane po Vs'!D15</f>
+        <f>'dane po Vs'!D16</f>
+        <v>98</v>
+      </c>
+      <c r="E15" s="10">
+        <f>'dane po Vs'!E16</f>
+        <v>90.4</v>
+      </c>
+      <c r="F15" s="10">
+        <f>'dane po Vs'!F16</f>
+        <v>10.6</v>
+      </c>
+      <c r="G15" s="10">
+        <f>'dane po Vs'!G16</f>
+        <v>6.3</v>
+      </c>
+      <c r="H15" s="10">
+        <f>'dane po Vs'!H16</f>
+        <v>12</v>
+      </c>
+      <c r="I15" s="10">
+        <f>'dane po Vs'!I16</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J15" s="10">
+        <f>'dane po Vs'!J16</f>
         <v>1</v>
       </c>
-      <c r="E15" s="10">
-        <f>'dane po Vs'!E15</f>
-        <v>34.299999999999997</v>
-      </c>
-      <c r="F15" s="10">
-        <f>'dane po Vs'!F15</f>
-        <v>3.1</v>
-      </c>
-      <c r="G15" s="10">
-        <f>'dane po Vs'!G15</f>
-        <v>2</v>
-      </c>
-      <c r="H15" s="10">
-        <f>'dane po Vs'!H15</f>
-        <v>29.3</v>
-      </c>
-      <c r="I15" s="10">
-        <f>'dane po Vs'!I15</f>
-        <v>12.3</v>
-      </c>
-      <c r="J15" s="10">
-        <f>'dane po Vs'!J15</f>
-        <v>8</v>
-      </c>
       <c r="K15" s="10">
-        <f>'dane po Vs'!K15</f>
-        <v>600</v>
+        <f>'dane po Vs'!K16</f>
+        <v>718</v>
       </c>
       <c r="L15">
-        <f>'dane po Vs'!L15</f>
-        <v>3.6</v>
+        <f>'dane po Vs'!L16</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M15">
-        <f>'dane po Vs'!M15</f>
-        <v>0.4</v>
+        <f>'dane po Vs'!M16</f>
+        <v>11.1</v>
       </c>
       <c r="N15">
-        <f>'dane po Vs'!N15</f>
-        <v>2.6</v>
+        <f>'dane po Vs'!N16</f>
+        <v>1</v>
       </c>
       <c r="O15">
-        <f>'dane po Vs'!O15</f>
-        <v>1535</v>
+        <f>'dane po Vs'!O16</f>
+        <v>957</v>
       </c>
       <c r="P15">
-        <f>'dane po Vs'!P15</f>
-        <v>0.14000000000000001</v>
+        <f>'dane po Vs'!P16</f>
+        <v>0.41</v>
       </c>
       <c r="Q15">
-        <f>'dane po Vs'!Q15</f>
-        <v>3.48</v>
+        <f>'dane po Vs'!Q16</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R15">
-        <f>'dane po Vs'!R15</f>
-        <v>8.9</v>
+        <f>'dane po Vs'!R16</f>
+        <v>3.85</v>
       </c>
       <c r="S15">
-        <f>'dane po Vs'!S15</f>
-        <v>0.2</v>
+        <f>'dane po Vs'!S16</f>
+        <v>0.09</v>
       </c>
       <c r="T15" s="10">
-        <f>'dane po Vs'!T15</f>
-        <v>8.6</v>
+        <f>'dane po Vs'!T16</f>
+        <v>13.5</v>
       </c>
       <c r="U15" s="10">
-        <f>'dane po Vs'!U15</f>
-        <v>14.9</v>
+        <f>'dane po Vs'!U16</f>
+        <v>23.7</v>
       </c>
       <c r="V15">
-        <f>'dane po Vs'!V15</f>
-        <v>130.75</v>
+        <f>'dane po Vs'!V16</f>
+        <v>21.266666666666666</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="4"/>
-        <v>9424.093698273502</v>
+        <f>((B15-$B$30)^2+(C15-$C$30)^2+(D15-$D$30)^2+(E15-$E$30)^2+(F15-$F$30)^2+(G15-$G$30)^2+(H15-$H$30)^2+(I15-$I$30)^2+(J15-$J$30)^2+(K15-$K$30)^2+(L15-$L$30)^2+(M15-$M$30)^2+(N15-$N$30)^2+(O15-$O$30)^2+(P15-$P$30)^2+(Q15-$Q$30)^2+(R15-$R$30)^2+(S15-$S$30)^2+(T15-$T$30)^2+(U15-$U$30)^2+(V15-$V$30)^2)^(0.5)</f>
+        <v>10010.405885985901</v>
       </c>
       <c r="X15" s="8">
+        <f>1-(W15/$AD$2)</f>
+        <v>0.24172370251807007</v>
+      </c>
+      <c r="Y15" t="str">
         <f t="shared" si="1"/>
-        <v>0.28613615091733913</v>
-      </c>
-      <c r="Y15" t="str">
+        <v>Irlandia</v>
+      </c>
+      <c r="Z15" s="9">
         <f t="shared" si="2"/>
-        <v>Holandia</v>
-      </c>
-      <c r="Z15" s="9">
-        <f t="shared" si="3"/>
-        <v>0.28613615091733913</v>
+        <v>0.24172370251807007</v>
       </c>
       <c r="AA15" s="10">
         <f t="shared" si="0"/>
-        <v>0.28613615091733913</v>
+        <v>0.24172370251807007</v>
       </c>
       <c r="AB15" t="s">
         <v>167</v>
@@ -16077,112 +16092,112 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>'dane po Vs'!A16</f>
-        <v>Irlandia</v>
+        <f>'dane po Vs'!A17</f>
+        <v>Litwa</v>
       </c>
       <c r="B16">
-        <f>'dane po Vs'!B16</f>
-        <v>11</v>
+        <f>'dane po Vs'!B17</f>
+        <v>10</v>
       </c>
       <c r="C16">
-        <f>'dane po Vs'!C16</f>
-        <v>111.6</v>
+        <f>'dane po Vs'!C17</f>
+        <v>99.6</v>
       </c>
       <c r="D16" s="10">
-        <f>'dane po Vs'!D16</f>
-        <v>98</v>
+        <f>'dane po Vs'!D17</f>
+        <v>158</v>
       </c>
       <c r="E16" s="10">
-        <f>'dane po Vs'!E16</f>
-        <v>90.4</v>
+        <f>'dane po Vs'!E17</f>
+        <v>57.8</v>
       </c>
       <c r="F16" s="10">
-        <f>'dane po Vs'!F16</f>
-        <v>10.6</v>
+        <f>'dane po Vs'!F17</f>
+        <v>7.1</v>
       </c>
       <c r="G16" s="10">
-        <f>'dane po Vs'!G16</f>
-        <v>6.3</v>
+        <f>'dane po Vs'!G17</f>
+        <v>9</v>
       </c>
       <c r="H16" s="10">
-        <f>'dane po Vs'!H16</f>
-        <v>12</v>
+        <f>'dane po Vs'!H17</f>
+        <v>16.399999999999999</v>
       </c>
       <c r="I16" s="10">
-        <f>'dane po Vs'!I16</f>
-        <v>35.799999999999997</v>
+        <f>'dane po Vs'!I17</f>
+        <v>16.2</v>
       </c>
       <c r="J16" s="10">
-        <f>'dane po Vs'!J16</f>
+        <f>'dane po Vs'!J17</f>
+        <v>6</v>
+      </c>
+      <c r="K16" s="10">
+        <f>'dane po Vs'!K17</f>
+        <v>428</v>
+      </c>
+      <c r="L16">
+        <f>'dane po Vs'!L17</f>
+        <v>17.8</v>
+      </c>
+      <c r="M16">
+        <f>'dane po Vs'!M17</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N16">
+        <f>'dane po Vs'!N17</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O16">
+        <f>'dane po Vs'!O17</f>
+        <v>305</v>
+      </c>
+      <c r="P16">
+        <f>'dane po Vs'!P17</f>
+        <v>0.37</v>
+      </c>
+      <c r="Q16">
+        <f>'dane po Vs'!Q17</f>
+        <v>1.63</v>
+      </c>
+      <c r="R16">
+        <f>'dane po Vs'!R17</f>
         <v>1</v>
       </c>
-      <c r="K16" s="10">
-        <f>'dane po Vs'!K16</f>
-        <v>718</v>
-      </c>
-      <c r="L16">
-        <f>'dane po Vs'!L16</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M16">
-        <f>'dane po Vs'!M16</f>
-        <v>11.1</v>
-      </c>
-      <c r="N16">
-        <f>'dane po Vs'!N16</f>
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <f>'dane po Vs'!O16</f>
-        <v>957</v>
-      </c>
-      <c r="P16">
-        <f>'dane po Vs'!P16</f>
-        <v>0.41</v>
-      </c>
-      <c r="Q16">
-        <f>'dane po Vs'!Q16</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R16">
-        <f>'dane po Vs'!R16</f>
-        <v>3.85</v>
-      </c>
       <c r="S16">
-        <f>'dane po Vs'!S16</f>
-        <v>0.09</v>
+        <f>'dane po Vs'!S17</f>
+        <v>0.18</v>
       </c>
       <c r="T16" s="10">
-        <f>'dane po Vs'!T16</f>
-        <v>13.5</v>
+        <f>'dane po Vs'!T17</f>
+        <v>13.3</v>
       </c>
       <c r="U16" s="10">
-        <f>'dane po Vs'!U16</f>
-        <v>23.7</v>
+        <f>'dane po Vs'!U17</f>
+        <v>28.3</v>
       </c>
       <c r="V16">
-        <f>'dane po Vs'!V16</f>
-        <v>21.266666666666666</v>
+        <f>'dane po Vs'!V17</f>
+        <v>36.933333333333337</v>
       </c>
       <c r="W16" s="8">
-        <f t="shared" si="4"/>
-        <v>10010.405885985901</v>
+        <f>((B16-$B$30)^2+(C16-$C$30)^2+(D16-$D$30)^2+(E16-$E$30)^2+(F16-$F$30)^2+(G16-$G$30)^2+(H16-$H$30)^2+(I16-$I$30)^2+(J16-$J$30)^2+(K16-$K$30)^2+(L16-$L$30)^2+(M16-$M$30)^2+(N16-$N$30)^2+(O16-$O$30)^2+(P16-$P$30)^2+(Q16-$Q$30)^2+(R16-$R$30)^2+(S16-$S$30)^2+(T16-$T$30)^2+(U16-$U$30)^2+(V16-$V$30)^2)^(0.5)</f>
+        <v>10653.739104285387</v>
       </c>
       <c r="X16" s="8">
+        <f>1-(W16/$AD$2)</f>
+        <v>0.19299197911190935</v>
+      </c>
+      <c r="Y16" t="str">
         <f t="shared" si="1"/>
-        <v>0.24172370251807007</v>
-      </c>
-      <c r="Y16" t="str">
+        <v>Litwa</v>
+      </c>
+      <c r="Z16" s="9">
         <f t="shared" si="2"/>
-        <v>Irlandia</v>
-      </c>
-      <c r="Z16" s="9">
-        <f t="shared" si="3"/>
-        <v>0.24172370251807007</v>
+        <v>0.19299197911190935</v>
       </c>
       <c r="AA16" s="10">
         <f t="shared" si="0"/>
-        <v>0.24172370251807007</v>
+        <v>0.19299197911190935</v>
       </c>
       <c r="AB16" t="s">
         <v>167</v>
@@ -16196,112 +16211,112 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>'dane po Vs'!A17</f>
-        <v>Litwa</v>
+        <f>'dane po Vs'!A18</f>
+        <v>Luksemburg</v>
       </c>
       <c r="B17">
-        <f>'dane po Vs'!B17</f>
+        <f>'dane po Vs'!B18</f>
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f>'dane po Vs'!C18</f>
+        <v>130.69999999999999</v>
+      </c>
+      <c r="D17" s="10">
+        <f>'dane po Vs'!D18</f>
+        <v>157</v>
+      </c>
+      <c r="E17" s="10">
+        <f>'dane po Vs'!E18</f>
+        <v>97.5</v>
+      </c>
+      <c r="F17" s="10">
+        <f>'dane po Vs'!F18</f>
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="10">
+        <f>'dane po Vs'!G18</f>
+        <v>5.3</v>
+      </c>
+      <c r="H17" s="10">
+        <f>'dane po Vs'!H18</f>
+        <v>20</v>
+      </c>
+      <c r="I17" s="10">
+        <f>'dane po Vs'!I18</f>
+        <v>22.7</v>
+      </c>
+      <c r="J17" s="10">
+        <f>'dane po Vs'!J18</f>
+        <v>4</v>
+      </c>
+      <c r="K17" s="10">
+        <f>'dane po Vs'!K18</f>
+        <v>697</v>
+      </c>
+      <c r="L17">
+        <f>'dane po Vs'!L18</f>
+        <v>2.8</v>
+      </c>
+      <c r="M17">
+        <f>'dane po Vs'!M18</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N17">
+        <f>'dane po Vs'!N18</f>
+        <v>2.7</v>
+      </c>
+      <c r="O17">
+        <f>'dane po Vs'!O18</f>
+        <v>487</v>
+      </c>
+      <c r="P17">
+        <f>'dane po Vs'!P18</f>
+        <v>0.41</v>
+      </c>
+      <c r="Q17">
+        <f>'dane po Vs'!Q18</f>
+        <v>2.59</v>
+      </c>
+      <c r="R17">
+        <f>'dane po Vs'!R18</f>
+        <v>0.83</v>
+      </c>
+      <c r="S17">
+        <f>'dane po Vs'!S18</f>
+        <v>0.26</v>
+      </c>
+      <c r="T17" s="10">
+        <f>'dane po Vs'!T18</f>
+        <v>17.3</v>
+      </c>
+      <c r="U17" s="10">
+        <f>'dane po Vs'!U18</f>
+        <v>15.5</v>
+      </c>
+      <c r="V17">
+        <f>'dane po Vs'!V18</f>
         <v>10</v>
       </c>
-      <c r="C17">
-        <f>'dane po Vs'!C17</f>
-        <v>99.6</v>
-      </c>
-      <c r="D17" s="10">
-        <f>'dane po Vs'!D17</f>
-        <v>158</v>
-      </c>
-      <c r="E17" s="10">
-        <f>'dane po Vs'!E17</f>
-        <v>57.8</v>
-      </c>
-      <c r="F17" s="10">
-        <f>'dane po Vs'!F17</f>
-        <v>7.1</v>
-      </c>
-      <c r="G17" s="10">
-        <f>'dane po Vs'!G17</f>
-        <v>9</v>
-      </c>
-      <c r="H17" s="10">
-        <f>'dane po Vs'!H17</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I17" s="10">
-        <f>'dane po Vs'!I17</f>
-        <v>16.2</v>
-      </c>
-      <c r="J17" s="10">
-        <f>'dane po Vs'!J17</f>
-        <v>6</v>
-      </c>
-      <c r="K17" s="10">
-        <f>'dane po Vs'!K17</f>
-        <v>428</v>
-      </c>
-      <c r="L17">
-        <f>'dane po Vs'!L17</f>
-        <v>17.8</v>
-      </c>
-      <c r="M17">
-        <f>'dane po Vs'!M17</f>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="N17">
-        <f>'dane po Vs'!N17</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O17">
-        <f>'dane po Vs'!O17</f>
-        <v>305</v>
-      </c>
-      <c r="P17">
-        <f>'dane po Vs'!P17</f>
-        <v>0.37</v>
-      </c>
-      <c r="Q17">
-        <f>'dane po Vs'!Q17</f>
-        <v>1.63</v>
-      </c>
-      <c r="R17">
-        <f>'dane po Vs'!R17</f>
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <f>'dane po Vs'!S17</f>
-        <v>0.18</v>
-      </c>
-      <c r="T17" s="10">
-        <f>'dane po Vs'!T17</f>
-        <v>13.3</v>
-      </c>
-      <c r="U17" s="10">
-        <f>'dane po Vs'!U17</f>
-        <v>28.3</v>
-      </c>
-      <c r="V17">
-        <f>'dane po Vs'!V17</f>
-        <v>36.933333333333337</v>
-      </c>
       <c r="W17" s="8">
-        <f t="shared" si="4"/>
-        <v>10653.739104285387</v>
+        <f>((B17-$B$30)^2+(C17-$C$30)^2+(D17-$D$30)^2+(E17-$E$30)^2+(F17-$F$30)^2+(G17-$G$30)^2+(H17-$H$30)^2+(I17-$I$30)^2+(J17-$J$30)^2+(K17-$K$30)^2+(L17-$L$30)^2+(M17-$M$30)^2+(N17-$N$30)^2+(O17-$O$30)^2+(P17-$P$30)^2+(Q17-$Q$30)^2+(R17-$R$30)^2+(S17-$S$30)^2+(T17-$T$30)^2+(U17-$U$30)^2+(V17-$V$30)^2)^(0.5)</f>
+        <v>10480.046253356684</v>
       </c>
       <c r="X17" s="8">
+        <f>1-(W17/$AD$2)</f>
+        <v>0.20614900525064772</v>
+      </c>
+      <c r="Y17" t="str">
         <f t="shared" si="1"/>
-        <v>0.19299197911190935</v>
-      </c>
-      <c r="Y17" t="str">
+        <v>Luksemburg</v>
+      </c>
+      <c r="Z17" s="9">
         <f t="shared" si="2"/>
-        <v>Litwa</v>
-      </c>
-      <c r="Z17" s="9">
-        <f t="shared" si="3"/>
-        <v>0.19299197911190935</v>
+        <v>0.20614900525064772</v>
       </c>
       <c r="AA17" s="10">
         <f t="shared" si="0"/>
-        <v>0.19299197911190935</v>
+        <v>0.20614900525064772</v>
       </c>
       <c r="AB17" t="s">
         <v>167</v>
@@ -16315,112 +16330,112 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>'dane po Vs'!A18</f>
-        <v>Luksemburg</v>
+        <f>'dane po Vs'!A19</f>
+        <v>Łotwa</v>
       </c>
       <c r="B18">
-        <f>'dane po Vs'!B18</f>
-        <v>15</v>
+        <f>'dane po Vs'!B19</f>
+        <v>11</v>
       </c>
       <c r="C18">
-        <f>'dane po Vs'!C18</f>
-        <v>130.69999999999999</v>
+        <f>'dane po Vs'!C19</f>
+        <v>147.5</v>
       </c>
       <c r="D18" s="10">
-        <f>'dane po Vs'!D18</f>
-        <v>157</v>
+        <f>'dane po Vs'!D19</f>
+        <v>2</v>
       </c>
       <c r="E18" s="10">
-        <f>'dane po Vs'!E18</f>
-        <v>97.5</v>
+        <f>'dane po Vs'!E19</f>
+        <v>58.8</v>
       </c>
       <c r="F18" s="10">
-        <f>'dane po Vs'!F18</f>
-        <v>3.5</v>
+        <f>'dane po Vs'!F19</f>
+        <v>3</v>
       </c>
       <c r="G18" s="10">
-        <f>'dane po Vs'!G18</f>
-        <v>5.3</v>
+        <f>'dane po Vs'!G19</f>
+        <v>12.2</v>
       </c>
       <c r="H18" s="10">
-        <f>'dane po Vs'!H18</f>
-        <v>20</v>
+        <f>'dane po Vs'!H19</f>
+        <v>20.6</v>
       </c>
       <c r="I18" s="10">
-        <f>'dane po Vs'!I18</f>
-        <v>22.7</v>
+        <f>'dane po Vs'!I19</f>
+        <v>19.100000000000001</v>
       </c>
       <c r="J18" s="10">
-        <f>'dane po Vs'!J18</f>
-        <v>4</v>
+        <f>'dane po Vs'!J19</f>
+        <v>1</v>
       </c>
       <c r="K18" s="10">
-        <f>'dane po Vs'!K18</f>
-        <v>697</v>
+        <f>'dane po Vs'!K19</f>
+        <v>345</v>
       </c>
       <c r="L18">
-        <f>'dane po Vs'!L18</f>
-        <v>2.8</v>
+        <f>'dane po Vs'!L19</f>
+        <v>29.8</v>
       </c>
       <c r="M18">
-        <f>'dane po Vs'!M18</f>
-        <v>1.1000000000000001</v>
+        <f>'dane po Vs'!M19</f>
+        <v>18.5</v>
       </c>
       <c r="N18">
-        <f>'dane po Vs'!N18</f>
-        <v>2.7</v>
+        <f>'dane po Vs'!N19</f>
+        <v>8.9</v>
       </c>
       <c r="O18">
-        <f>'dane po Vs'!O18</f>
-        <v>487</v>
+        <f>'dane po Vs'!O19</f>
+        <v>10947</v>
       </c>
       <c r="P18">
-        <f>'dane po Vs'!P18</f>
-        <v>0.41</v>
+        <f>'dane po Vs'!P19</f>
+        <v>0.47</v>
       </c>
       <c r="Q18">
-        <f>'dane po Vs'!Q18</f>
-        <v>2.59</v>
+        <f>'dane po Vs'!Q19</f>
+        <v>2.08</v>
       </c>
       <c r="R18">
-        <f>'dane po Vs'!R18</f>
-        <v>0.83</v>
+        <f>'dane po Vs'!R19</f>
+        <v>0</v>
       </c>
       <c r="S18">
-        <f>'dane po Vs'!S18</f>
-        <v>0.26</v>
+        <f>'dane po Vs'!S19</f>
+        <v>0.16</v>
       </c>
       <c r="T18" s="10">
-        <f>'dane po Vs'!T18</f>
-        <v>17.3</v>
+        <f>'dane po Vs'!T19</f>
+        <v>13.6</v>
       </c>
       <c r="U18" s="10">
-        <f>'dane po Vs'!U18</f>
-        <v>15.5</v>
+        <f>'dane po Vs'!U19</f>
+        <v>34.200000000000003</v>
       </c>
       <c r="V18">
-        <f>'dane po Vs'!V18</f>
-        <v>10</v>
+        <f>'dane po Vs'!V19</f>
+        <v>27.4</v>
       </c>
       <c r="W18" s="8">
-        <f t="shared" si="4"/>
-        <v>10480.046253356684</v>
+        <f>((B18-$B$30)^2+(C18-$C$30)^2+(D18-$D$30)^2+(E18-$E$30)^2+(F18-$F$30)^2+(G18-$G$30)^2+(H18-$H$30)^2+(I18-$I$30)^2+(J18-$J$30)^2+(K18-$K$30)^2+(L18-$L$30)^2+(M18-$M$30)^2+(N18-$N$30)^2+(O18-$O$30)^2+(P18-$P$30)^2+(Q18-$Q$30)^2+(R18-$R$30)^2+(S18-$S$30)^2+(T18-$T$30)^2+(U18-$U$30)^2+(V18-$V$30)^2)^(0.5)</f>
+        <v>462.99772431842069</v>
       </c>
       <c r="X18" s="8">
+        <f>1-(W18/$AD$2)</f>
+        <v>0.96492847501516121</v>
+      </c>
+      <c r="Y18" t="str">
         <f t="shared" si="1"/>
-        <v>0.20614900525064772</v>
-      </c>
-      <c r="Y18" t="str">
+        <v>Łotwa</v>
+      </c>
+      <c r="Z18" s="9">
         <f t="shared" si="2"/>
-        <v>Luksemburg</v>
-      </c>
-      <c r="Z18" s="9">
-        <f t="shared" si="3"/>
-        <v>0.20614900525064772</v>
+        <v>0.96492847501516121</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" si="0"/>
-        <v>0.20614900525064772</v>
+        <v>0.96492847501516121</v>
       </c>
       <c r="AB18" t="s">
         <v>167</v>
@@ -16434,112 +16449,112 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>'dane po Vs'!A19</f>
-        <v>Łotwa</v>
+        <f>'dane po Vs'!A20</f>
+        <v>Malta</v>
       </c>
       <c r="B19">
-        <f>'dane po Vs'!B19</f>
-        <v>11</v>
+        <f>'dane po Vs'!B20</f>
+        <v>13</v>
       </c>
       <c r="C19">
-        <f>'dane po Vs'!C19</f>
-        <v>147.5</v>
+        <f>'dane po Vs'!C20</f>
+        <v>139.80000000000001</v>
       </c>
       <c r="D19" s="10">
-        <f>'dane po Vs'!D19</f>
-        <v>2</v>
+        <f>'dane po Vs'!D20</f>
+        <v>231.76190476190473</v>
       </c>
       <c r="E19" s="10">
-        <f>'dane po Vs'!E19</f>
-        <v>58.8</v>
+        <f>'dane po Vs'!E20</f>
+        <v>100</v>
       </c>
       <c r="F19" s="10">
-        <f>'dane po Vs'!F19</f>
-        <v>3</v>
+        <f>'dane po Vs'!F20</f>
+        <v>26.3</v>
       </c>
       <c r="G19" s="10">
-        <f>'dane po Vs'!G19</f>
-        <v>12.2</v>
+        <f>'dane po Vs'!G20</f>
+        <v>5.4</v>
       </c>
       <c r="H19" s="10">
-        <f>'dane po Vs'!H19</f>
-        <v>20.6</v>
+        <f>'dane po Vs'!H20</f>
+        <v>24.5</v>
       </c>
       <c r="I19" s="10">
-        <f>'dane po Vs'!I19</f>
-        <v>19.100000000000001</v>
+        <f>'dane po Vs'!I20</f>
+        <v>7.7</v>
       </c>
       <c r="J19" s="10">
-        <f>'dane po Vs'!J19</f>
-        <v>1</v>
+        <f>'dane po Vs'!J20</f>
+        <v>43</v>
       </c>
       <c r="K19" s="10">
-        <f>'dane po Vs'!K19</f>
-        <v>345</v>
+        <f>'dane po Vs'!K20</f>
+        <v>674</v>
       </c>
       <c r="L19">
-        <f>'dane po Vs'!L19</f>
-        <v>29.8</v>
+        <f>'dane po Vs'!L20</f>
+        <v>0.2</v>
       </c>
       <c r="M19">
-        <f>'dane po Vs'!M19</f>
-        <v>18.5</v>
+        <f>'dane po Vs'!M20</f>
+        <v>0</v>
       </c>
       <c r="N19">
-        <f>'dane po Vs'!N19</f>
-        <v>8.9</v>
+        <f>'dane po Vs'!N20</f>
+        <v>0.4</v>
       </c>
       <c r="O19">
-        <f>'dane po Vs'!O19</f>
-        <v>10947</v>
+        <f>'dane po Vs'!O20</f>
+        <v>618</v>
       </c>
       <c r="P19">
-        <f>'dane po Vs'!P19</f>
-        <v>0.47</v>
+        <f>'dane po Vs'!P20</f>
+        <v>0.41</v>
       </c>
       <c r="Q19">
-        <f>'dane po Vs'!Q19</f>
-        <v>2.08</v>
+        <f>'dane po Vs'!Q20</f>
+        <v>3.26</v>
       </c>
       <c r="R19">
-        <f>'dane po Vs'!R19</f>
+        <f>'dane po Vs'!R20</f>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>'dane po Vs'!S19</f>
-        <v>0.16</v>
+        <f>'dane po Vs'!S20</f>
+        <v>0.02</v>
       </c>
       <c r="T19" s="10">
-        <f>'dane po Vs'!T19</f>
-        <v>13.6</v>
+        <f>'dane po Vs'!T20</f>
+        <v>12.4</v>
       </c>
       <c r="U19" s="10">
-        <f>'dane po Vs'!U19</f>
-        <v>34.200000000000003</v>
+        <f>'dane po Vs'!U20</f>
+        <v>20.100000000000001</v>
       </c>
       <c r="V19">
-        <f>'dane po Vs'!V19</f>
-        <v>27.4</v>
+        <f>'dane po Vs'!V20</f>
+        <v>143.91419305977459</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="4"/>
-        <v>462.99772431842069</v>
+        <f>((B19-$B$30)^2+(C19-$C$30)^2+(D19-$D$30)^2+(E19-$E$30)^2+(F19-$F$30)^2+(G19-$G$30)^2+(H19-$H$30)^2+(I19-$I$30)^2+(J19-$J$30)^2+(K19-$K$30)^2+(L19-$L$30)^2+(M19-$M$30)^2+(N19-$N$30)^2+(O19-$O$30)^2+(P19-$P$30)^2+(Q19-$Q$30)^2+(R19-$R$30)^2+(S19-$S$30)^2+(T19-$T$30)^2+(U19-$U$30)^2+(V19-$V$30)^2)^(0.5)</f>
+        <v>10345.315579598626</v>
       </c>
       <c r="X19" s="8">
+        <f>1-(W19/$AD$2)</f>
+        <v>0.21635469297381293</v>
+      </c>
+      <c r="Y19" t="str">
         <f t="shared" si="1"/>
-        <v>0.96492847501516121</v>
-      </c>
-      <c r="Y19" t="str">
+        <v>Malta</v>
+      </c>
+      <c r="Z19" s="9">
         <f t="shared" si="2"/>
-        <v>Łotwa</v>
-      </c>
-      <c r="Z19" s="9">
-        <f t="shared" si="3"/>
-        <v>0.96492847501516121</v>
+        <v>0.21635469297381293</v>
       </c>
       <c r="AA19" s="10">
         <f t="shared" si="0"/>
-        <v>0.96492847501516121</v>
+        <v>0.21635469297381293</v>
       </c>
       <c r="AB19" t="s">
         <v>167</v>
@@ -16553,112 +16568,112 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>'dane po Vs'!A20</f>
-        <v>Malta</v>
+        <f>'dane po Vs'!A21</f>
+        <v>Niemcy</v>
       </c>
       <c r="B20">
-        <f>'dane po Vs'!B20</f>
-        <v>13</v>
+        <f>'dane po Vs'!B21</f>
+        <v>10</v>
       </c>
       <c r="C20">
-        <f>'dane po Vs'!C20</f>
-        <v>139.80000000000001</v>
+        <f>'dane po Vs'!C21</f>
+        <v>121.9</v>
       </c>
       <c r="D20" s="10">
-        <f>'dane po Vs'!D20</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D21</f>
+        <v>691</v>
       </c>
       <c r="E20" s="10">
-        <f>'dane po Vs'!E20</f>
-        <v>100</v>
+        <f>'dane po Vs'!E21</f>
+        <v>61</v>
       </c>
       <c r="F20" s="10">
-        <f>'dane po Vs'!F20</f>
+        <f>'dane po Vs'!F21</f>
+        <v>5.5</v>
+      </c>
+      <c r="G20" s="10">
+        <f>'dane po Vs'!G21</f>
+        <v>2.8</v>
+      </c>
+      <c r="H20" s="10">
+        <f>'dane po Vs'!H21</f>
         <v>26.3</v>
       </c>
-      <c r="G20" s="10">
-        <f>'dane po Vs'!G20</f>
+      <c r="I20" s="10">
+        <f>'dane po Vs'!I21</f>
+        <v>16.2</v>
+      </c>
+      <c r="J20" s="10">
+        <f>'dane po Vs'!J21</f>
+        <v>-1</v>
+      </c>
+      <c r="K20" s="10">
+        <f>'dane po Vs'!K21</f>
+        <v>589</v>
+      </c>
+      <c r="L20">
+        <f>'dane po Vs'!L21</f>
+        <v>8.6</v>
+      </c>
+      <c r="M20">
+        <f>'dane po Vs'!M21</f>
+        <v>26.1</v>
+      </c>
+      <c r="N20">
+        <f>'dane po Vs'!N21</f>
         <v>5.4</v>
       </c>
-      <c r="H20" s="10">
-        <f>'dane po Vs'!H20</f>
-        <v>24.5</v>
-      </c>
-      <c r="I20" s="10">
-        <f>'dane po Vs'!I20</f>
-        <v>7.7</v>
-      </c>
-      <c r="J20" s="10">
-        <f>'dane po Vs'!J20</f>
-        <v>43</v>
-      </c>
-      <c r="K20" s="10">
-        <f>'dane po Vs'!K20</f>
-        <v>674</v>
-      </c>
-      <c r="L20">
-        <f>'dane po Vs'!L20</f>
-        <v>0.2</v>
-      </c>
-      <c r="M20">
-        <f>'dane po Vs'!M20</f>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f>'dane po Vs'!N20</f>
-        <v>0.4</v>
-      </c>
       <c r="O20">
-        <f>'dane po Vs'!O20</f>
-        <v>618</v>
+        <f>'dane po Vs'!O21</f>
+        <v>430</v>
       </c>
       <c r="P20">
-        <f>'dane po Vs'!P20</f>
-        <v>0.41</v>
+        <f>'dane po Vs'!P21</f>
+        <v>0.48</v>
       </c>
       <c r="Q20">
-        <f>'dane po Vs'!Q20</f>
-        <v>3.26</v>
+        <f>'dane po Vs'!Q21</f>
+        <v>2.14</v>
       </c>
       <c r="R20">
-        <f>'dane po Vs'!R20</f>
-        <v>0</v>
+        <f>'dane po Vs'!R21</f>
+        <v>92.04</v>
       </c>
       <c r="S20">
-        <f>'dane po Vs'!S20</f>
-        <v>0.02</v>
+        <f>'dane po Vs'!S21</f>
+        <v>0.36</v>
       </c>
       <c r="T20" s="10">
-        <f>'dane po Vs'!T20</f>
-        <v>12.4</v>
+        <f>'dane po Vs'!T21</f>
+        <v>10.4</v>
       </c>
       <c r="U20" s="10">
-        <f>'dane po Vs'!U20</f>
+        <f>'dane po Vs'!U21</f>
         <v>20.100000000000001</v>
       </c>
       <c r="V20">
-        <f>'dane po Vs'!V20</f>
-        <v>143.91419305977459</v>
+        <f>'dane po Vs'!V21</f>
+        <v>410.24285714285713</v>
       </c>
       <c r="W20" s="8">
-        <f t="shared" si="4"/>
-        <v>10345.315579598626</v>
+        <f>((B20-$B$30)^2+(C20-$C$30)^2+(D20-$D$30)^2+(E20-$E$30)^2+(F20-$F$30)^2+(G20-$G$30)^2+(H20-$H$30)^2+(I20-$I$30)^2+(J20-$J$30)^2+(K20-$K$30)^2+(L20-$L$30)^2+(M20-$M$30)^2+(N20-$N$30)^2+(O20-$O$30)^2+(P20-$P$30)^2+(Q20-$Q$30)^2+(R20-$R$30)^2+(S20-$S$30)^2+(T20-$T$30)^2+(U20-$U$30)^2+(V20-$V$30)^2)^(0.5)</f>
+        <v>10545.011651700028</v>
       </c>
       <c r="X20" s="8">
+        <f>1-(W20/$AD$2)</f>
+        <v>0.20122795386858605</v>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" si="1"/>
-        <v>0.21635469297381293</v>
-      </c>
-      <c r="Y20" t="str">
+        <v>Niemcy</v>
+      </c>
+      <c r="Z20" s="9">
         <f t="shared" si="2"/>
-        <v>Malta</v>
-      </c>
-      <c r="Z20" s="9">
-        <f t="shared" si="3"/>
-        <v>0.21635469297381293</v>
+        <v>0.20122795386858605</v>
       </c>
       <c r="AA20" s="10">
         <f t="shared" si="0"/>
-        <v>0.21635469297381293</v>
+        <v>0.20122795386858605</v>
       </c>
       <c r="AB20" t="s">
         <v>167</v>
@@ -16672,112 +16687,112 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>'dane po Vs'!A21</f>
-        <v>Niemcy</v>
+        <f>'dane po Vs'!A22</f>
+        <v>Polska</v>
       </c>
       <c r="B21">
-        <f>'dane po Vs'!B21</f>
-        <v>10</v>
+        <f>'dane po Vs'!B22</f>
+        <v>8</v>
       </c>
       <c r="C21">
-        <f>'dane po Vs'!C21</f>
-        <v>121.9</v>
+        <f>'dane po Vs'!C22</f>
+        <v>115.6</v>
       </c>
       <c r="D21" s="10">
-        <f>'dane po Vs'!D21</f>
-        <v>691</v>
+        <f>'dane po Vs'!D22</f>
+        <v>231.76190476190473</v>
       </c>
       <c r="E21" s="10">
-        <f>'dane po Vs'!E21</f>
-        <v>61</v>
+        <f>'dane po Vs'!E22</f>
+        <v>30.2</v>
       </c>
       <c r="F21" s="10">
-        <f>'dane po Vs'!F21</f>
-        <v>5.5</v>
+        <f>'dane po Vs'!F22</f>
+        <v>24.6</v>
       </c>
       <c r="G21" s="10">
-        <f>'dane po Vs'!G21</f>
-        <v>2.8</v>
+        <f>'dane po Vs'!G22</f>
+        <v>7</v>
       </c>
       <c r="H21" s="10">
-        <f>'dane po Vs'!H21</f>
-        <v>26.3</v>
+        <f>'dane po Vs'!H22</f>
+        <v>18.7</v>
       </c>
       <c r="I21" s="10">
-        <f>'dane po Vs'!I21</f>
-        <v>16.2</v>
+        <f>'dane po Vs'!I22</f>
+        <v>16.899999999999999</v>
       </c>
       <c r="J21" s="10">
-        <f>'dane po Vs'!J21</f>
-        <v>-1</v>
+        <f>'dane po Vs'!J22</f>
+        <v>8</v>
       </c>
       <c r="K21" s="10">
-        <f>'dane po Vs'!K21</f>
-        <v>589</v>
+        <f>'dane po Vs'!K22</f>
+        <v>320</v>
       </c>
       <c r="L21">
-        <f>'dane po Vs'!L21</f>
-        <v>8.6</v>
+        <f>'dane po Vs'!L22</f>
+        <v>7.7</v>
       </c>
       <c r="M21">
-        <f>'dane po Vs'!M21</f>
-        <v>26.1</v>
+        <f>'dane po Vs'!M22</f>
+        <v>45.9</v>
       </c>
       <c r="N21">
-        <f>'dane po Vs'!N21</f>
-        <v>5.4</v>
+        <f>'dane po Vs'!N22</f>
+        <v>2</v>
       </c>
       <c r="O21">
-        <f>'dane po Vs'!O21</f>
-        <v>430</v>
+        <f>'dane po Vs'!O22</f>
+        <v>4156</v>
       </c>
       <c r="P21">
-        <f>'dane po Vs'!P21</f>
-        <v>0.48</v>
+        <f>'dane po Vs'!P22</f>
+        <v>0.78</v>
       </c>
       <c r="Q21">
-        <f>'dane po Vs'!Q21</f>
-        <v>2.14</v>
+        <f>'dane po Vs'!Q22</f>
+        <v>2.64</v>
       </c>
       <c r="R21">
-        <f>'dane po Vs'!R21</f>
-        <v>92.04</v>
+        <f>'dane po Vs'!R22</f>
+        <v>24.8</v>
       </c>
       <c r="S21">
-        <f>'dane po Vs'!S21</f>
-        <v>0.36</v>
+        <f>'dane po Vs'!S22</f>
+        <v>0.21</v>
       </c>
       <c r="T21" s="10">
-        <f>'dane po Vs'!T21</f>
-        <v>10.4</v>
+        <f>'dane po Vs'!T22</f>
+        <v>17.2</v>
       </c>
       <c r="U21" s="10">
-        <f>'dane po Vs'!U21</f>
-        <v>20.100000000000001</v>
+        <f>'dane po Vs'!U22</f>
+        <v>30.5</v>
       </c>
       <c r="V21">
-        <f>'dane po Vs'!V21</f>
-        <v>410.24285714285713</v>
+        <f>'dane po Vs'!V22</f>
+        <v>442.83333333333331</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="4"/>
-        <v>10545.011651700028</v>
+        <f>((B21-$B$30)^2+(C21-$C$30)^2+(D21-$D$30)^2+(E21-$E$30)^2+(F21-$F$30)^2+(G21-$G$30)^2+(H21-$H$30)^2+(I21-$I$30)^2+(J21-$J$30)^2+(K21-$K$30)^2+(L21-$L$30)^2+(M21-$M$30)^2+(N21-$N$30)^2+(O21-$O$30)^2+(P21-$P$30)^2+(Q21-$Q$30)^2+(R21-$R$30)^2+(S21-$S$30)^2+(T21-$T$30)^2+(U21-$U$30)^2+(V21-$V$30)^2)^(0.5)</f>
+        <v>6797.014445807903</v>
       </c>
       <c r="X21" s="8">
+        <f>1-(W21/$AD$2)</f>
+        <v>0.48513426862003795</v>
+      </c>
+      <c r="Y21" t="str">
         <f t="shared" si="1"/>
-        <v>0.20122795386858605</v>
-      </c>
-      <c r="Y21" t="str">
+        <v>Polska</v>
+      </c>
+      <c r="Z21" s="9">
         <f t="shared" si="2"/>
-        <v>Niemcy</v>
-      </c>
-      <c r="Z21" s="9">
-        <f t="shared" si="3"/>
-        <v>0.20122795386858605</v>
+        <v>0.48513426862003795</v>
       </c>
       <c r="AA21" s="10">
         <f t="shared" si="0"/>
-        <v>0.20122795386858605</v>
+        <v>0.48513426862003795</v>
       </c>
       <c r="AB21" t="s">
         <v>167</v>
@@ -16791,112 +16806,112 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>'dane po Vs'!A22</f>
-        <v>Polska</v>
+        <f>'dane po Vs'!A23</f>
+        <v>Portugalia</v>
       </c>
       <c r="B22">
-        <f>'dane po Vs'!B22</f>
-        <v>8</v>
+        <f>'dane po Vs'!B23</f>
+        <v>17</v>
       </c>
       <c r="C22">
-        <f>'dane po Vs'!C22</f>
-        <v>115.6</v>
+        <f>'dane po Vs'!C23</f>
+        <v>93.1</v>
       </c>
       <c r="D22" s="10">
-        <f>'dane po Vs'!D22</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D23</f>
+        <v>116</v>
       </c>
       <c r="E22" s="10">
-        <f>'dane po Vs'!E22</f>
-        <v>30.2</v>
+        <f>'dane po Vs'!E23</f>
+        <v>83.4</v>
       </c>
       <c r="F22" s="10">
-        <f>'dane po Vs'!F22</f>
-        <v>24.6</v>
+        <f>'dane po Vs'!F23</f>
+        <v>10.8</v>
       </c>
       <c r="G22" s="10">
-        <f>'dane po Vs'!G22</f>
+        <f>'dane po Vs'!G23</f>
         <v>7</v>
       </c>
       <c r="H22" s="10">
-        <f>'dane po Vs'!H22</f>
-        <v>18.7</v>
+        <f>'dane po Vs'!H23</f>
+        <v>24.2</v>
       </c>
       <c r="I22" s="10">
-        <f>'dane po Vs'!I22</f>
-        <v>16.899999999999999</v>
+        <f>'dane po Vs'!I23</f>
+        <v>22.2</v>
       </c>
       <c r="J22" s="10">
-        <f>'dane po Vs'!J22</f>
-        <v>8</v>
+        <f>'dane po Vs'!J23</f>
+        <v>4</v>
       </c>
       <c r="K22" s="10">
-        <f>'dane po Vs'!K22</f>
-        <v>320</v>
+        <f>'dane po Vs'!K23</f>
+        <v>518</v>
       </c>
       <c r="L22">
-        <f>'dane po Vs'!L22</f>
-        <v>7.7</v>
+        <f>'dane po Vs'!L23</f>
+        <v>23</v>
       </c>
       <c r="M22">
-        <f>'dane po Vs'!M22</f>
-        <v>45.9</v>
+        <f>'dane po Vs'!M23</f>
+        <v>52.9</v>
       </c>
       <c r="N22">
-        <f>'dane po Vs'!N22</f>
-        <v>2</v>
+        <f>'dane po Vs'!N23</f>
+        <v>5.7</v>
       </c>
       <c r="O22">
-        <f>'dane po Vs'!O22</f>
-        <v>4156</v>
+        <f>'dane po Vs'!O23</f>
+        <v>4332</v>
       </c>
       <c r="P22">
-        <f>'dane po Vs'!P22</f>
-        <v>0.78</v>
+        <f>'dane po Vs'!P23</f>
+        <v>0.27</v>
       </c>
       <c r="Q22">
-        <f>'dane po Vs'!Q22</f>
-        <v>2.64</v>
+        <f>'dane po Vs'!Q23</f>
+        <v>2.48</v>
       </c>
       <c r="R22">
-        <f>'dane po Vs'!R22</f>
-        <v>24.8</v>
+        <f>'dane po Vs'!R23</f>
+        <v>0.26</v>
       </c>
       <c r="S22">
-        <f>'dane po Vs'!S22</f>
-        <v>0.21</v>
+        <f>'dane po Vs'!S23</f>
+        <v>0.11</v>
       </c>
       <c r="T22" s="10">
-        <f>'dane po Vs'!T22</f>
-        <v>17.2</v>
+        <f>'dane po Vs'!T23</f>
+        <v>21.6</v>
       </c>
       <c r="U22" s="10">
-        <f>'dane po Vs'!U22</f>
-        <v>30.5</v>
+        <f>'dane po Vs'!U23</f>
+        <v>26</v>
       </c>
       <c r="V22">
-        <f>'dane po Vs'!V22</f>
-        <v>442.83333333333331</v>
+        <f>'dane po Vs'!V23</f>
+        <v>95.699999999999989</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="4"/>
-        <v>6797.014445807903</v>
+        <f>((B22-$B$30)^2+(C22-$C$30)^2+(D22-$D$30)^2+(E22-$E$30)^2+(F22-$F$30)^2+(G22-$G$30)^2+(H22-$H$30)^2+(I22-$I$30)^2+(J22-$J$30)^2+(K22-$K$30)^2+(L22-$L$30)^2+(M22-$M$30)^2+(N22-$N$30)^2+(O22-$O$30)^2+(P22-$P$30)^2+(Q22-$Q$30)^2+(R22-$R$30)^2+(S22-$S$30)^2+(T22-$T$30)^2+(U22-$U$30)^2+(V22-$V$30)^2)^(0.5)</f>
+        <v>6631.4033658994185</v>
       </c>
       <c r="X22" s="8">
+        <f>1-(W22/$AD$2)</f>
+        <v>0.49767911025036526</v>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" si="1"/>
-        <v>0.48513426862003795</v>
-      </c>
-      <c r="Y22" t="str">
+        <v>Portugalia</v>
+      </c>
+      <c r="Z22" s="9">
         <f t="shared" si="2"/>
-        <v>Polska</v>
-      </c>
-      <c r="Z22" s="9">
-        <f t="shared" si="3"/>
-        <v>0.48513426862003795</v>
+        <v>0.49767911025036526</v>
       </c>
       <c r="AA22" s="10">
         <f t="shared" si="0"/>
-        <v>0.48513426862003795</v>
+        <v>0.49767911025036526</v>
       </c>
       <c r="AB22" t="s">
         <v>167</v>
@@ -16910,112 +16925,112 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>'dane po Vs'!A23</f>
-        <v>Portugalia</v>
+        <f>'dane po Vs'!A24</f>
+        <v>Rumunia</v>
       </c>
       <c r="B23">
-        <f>'dane po Vs'!B23</f>
-        <v>17</v>
+        <f>'dane po Vs'!B24</f>
+        <v>13</v>
       </c>
       <c r="C23">
-        <f>'dane po Vs'!C23</f>
-        <v>93.1</v>
+        <f>'dane po Vs'!C24</f>
+        <v>51.9</v>
       </c>
       <c r="D23" s="10">
-        <f>'dane po Vs'!D23</f>
-        <v>116</v>
+        <f>'dane po Vs'!D24</f>
+        <v>224</v>
       </c>
       <c r="E23" s="10">
-        <f>'dane po Vs'!E23</f>
-        <v>83.4</v>
+        <f>'dane po Vs'!E24</f>
+        <v>27.9</v>
       </c>
       <c r="F23" s="10">
-        <f>'dane po Vs'!F23</f>
-        <v>10.8</v>
+        <f>'dane po Vs'!F24</f>
+        <v>25.6</v>
       </c>
       <c r="G23" s="10">
-        <f>'dane po Vs'!G23</f>
-        <v>7</v>
+        <f>'dane po Vs'!G24</f>
+        <v>8.4</v>
       </c>
       <c r="H23" s="10">
-        <f>'dane po Vs'!H23</f>
-        <v>24.2</v>
+        <f>'dane po Vs'!H24</f>
+        <v>31.3</v>
       </c>
       <c r="I23" s="10">
-        <f>'dane po Vs'!I23</f>
-        <v>22.2</v>
+        <f>'dane po Vs'!I24</f>
+        <v>26.8</v>
       </c>
       <c r="J23" s="10">
-        <f>'dane po Vs'!J23</f>
-        <v>4</v>
+        <f>'dane po Vs'!J24</f>
+        <v>1</v>
       </c>
       <c r="K23" s="10">
-        <f>'dane po Vs'!K23</f>
-        <v>518</v>
+        <f>'dane po Vs'!K24</f>
+        <v>411</v>
       </c>
       <c r="L23">
-        <f>'dane po Vs'!L23</f>
-        <v>23</v>
+        <f>'dane po Vs'!L24</f>
+        <v>20.5</v>
       </c>
       <c r="M23">
-        <f>'dane po Vs'!M23</f>
-        <v>52.9</v>
+        <f>'dane po Vs'!M24</f>
+        <v>30.4</v>
       </c>
       <c r="N23">
-        <f>'dane po Vs'!N23</f>
-        <v>5.7</v>
+        <f>'dane po Vs'!N24</f>
+        <v>1</v>
       </c>
       <c r="O23">
-        <f>'dane po Vs'!O23</f>
-        <v>4332</v>
+        <f>'dane po Vs'!O24</f>
+        <v>2869</v>
       </c>
       <c r="P23">
-        <f>'dane po Vs'!P23</f>
-        <v>0.27</v>
+        <f>'dane po Vs'!P24</f>
+        <v>0.78</v>
       </c>
       <c r="Q23">
-        <f>'dane po Vs'!Q23</f>
-        <v>2.48</v>
+        <f>'dane po Vs'!Q24</f>
+        <v>1.7</v>
       </c>
       <c r="R23">
-        <f>'dane po Vs'!R23</f>
-        <v>0.26</v>
+        <f>'dane po Vs'!R24</f>
+        <v>2.5</v>
       </c>
       <c r="S23">
-        <f>'dane po Vs'!S23</f>
-        <v>0.11</v>
+        <f>'dane po Vs'!S24</f>
+        <v>0.23</v>
       </c>
       <c r="T23" s="10">
-        <f>'dane po Vs'!T23</f>
-        <v>21.6</v>
+        <f>'dane po Vs'!T24</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="U23" s="10">
-        <f>'dane po Vs'!U23</f>
-        <v>26</v>
+        <f>'dane po Vs'!U24</f>
+        <v>44.2</v>
       </c>
       <c r="V23">
-        <f>'dane po Vs'!V23</f>
-        <v>95.699999999999989</v>
+        <f>'dane po Vs'!V24</f>
+        <v>228.2</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="4"/>
-        <v>6631.4033658994185</v>
+        <f>((B23-$B$30)^2+(C23-$C$30)^2+(D23-$D$30)^2+(E23-$E$30)^2+(F23-$F$30)^2+(G23-$G$30)^2+(H23-$H$30)^2+(I23-$I$30)^2+(J23-$J$30)^2+(K23-$K$30)^2+(L23-$L$30)^2+(M23-$M$30)^2+(N23-$N$30)^2+(O23-$O$30)^2+(P23-$P$30)^2+(Q23-$Q$30)^2+(R23-$R$30)^2+(S23-$S$30)^2+(T23-$T$30)^2+(U23-$U$30)^2+(V23-$V$30)^2)^(0.5)</f>
+        <v>8087.3304978960914</v>
       </c>
       <c r="X23" s="8">
+        <f>1-(W23/$AD$2)</f>
+        <v>0.38739436779057512</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" si="1"/>
-        <v>0.49767911025036526</v>
-      </c>
-      <c r="Y23" t="str">
+        <v>Rumunia</v>
+      </c>
+      <c r="Z23" s="9">
         <f t="shared" si="2"/>
-        <v>Portugalia</v>
-      </c>
-      <c r="Z23" s="9">
-        <f t="shared" si="3"/>
-        <v>0.49767911025036526</v>
+        <v>0.38739436779057512</v>
       </c>
       <c r="AA23" s="10">
         <f t="shared" si="0"/>
-        <v>0.49767911025036526</v>
+        <v>0.38739436779057512</v>
       </c>
       <c r="AB23" t="s">
         <v>167</v>
@@ -17029,112 +17044,112 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>'dane po Vs'!A24</f>
-        <v>Rumunia</v>
+        <f>'dane po Vs'!A25</f>
+        <v>Słowacja</v>
       </c>
       <c r="B24">
-        <f>'dane po Vs'!B24</f>
-        <v>13</v>
+        <f>'dane po Vs'!B25</f>
+        <v>12</v>
       </c>
       <c r="C24">
-        <f>'dane po Vs'!C24</f>
-        <v>51.9</v>
+        <f>'dane po Vs'!C25</f>
+        <v>106.2</v>
       </c>
       <c r="D24" s="10">
-        <f>'dane po Vs'!D24</f>
-        <v>224</v>
+        <f>'dane po Vs'!D25</f>
+        <v>1</v>
       </c>
       <c r="E24" s="10">
-        <f>'dane po Vs'!E24</f>
-        <v>27.9</v>
+        <f>'dane po Vs'!E25</f>
+        <v>64.400000000000006</v>
       </c>
       <c r="F24" s="10">
-        <f>'dane po Vs'!F24</f>
-        <v>25.6</v>
+        <f>'dane po Vs'!F25</f>
+        <v>13.6</v>
       </c>
       <c r="G24" s="10">
-        <f>'dane po Vs'!G24</f>
-        <v>8.4</v>
+        <f>'dane po Vs'!G25</f>
+        <v>6.7</v>
       </c>
       <c r="H24" s="10">
-        <f>'dane po Vs'!H24</f>
-        <v>31.3</v>
+        <f>'dane po Vs'!H25</f>
+        <v>19.3</v>
       </c>
       <c r="I24" s="10">
-        <f>'dane po Vs'!I24</f>
-        <v>26.8</v>
+        <f>'dane po Vs'!I25</f>
+        <v>15.4</v>
       </c>
       <c r="J24" s="10">
-        <f>'dane po Vs'!J24</f>
-        <v>1</v>
+        <f>'dane po Vs'!J25</f>
+        <v>-5</v>
       </c>
       <c r="K24" s="10">
-        <f>'dane po Vs'!K24</f>
-        <v>411</v>
+        <f>'dane po Vs'!K25</f>
+        <v>313</v>
       </c>
       <c r="L24">
-        <f>'dane po Vs'!L24</f>
-        <v>20.5</v>
+        <f>'dane po Vs'!L25</f>
+        <v>7.7</v>
       </c>
       <c r="M24">
-        <f>'dane po Vs'!M24</f>
-        <v>30.4</v>
+        <f>'dane po Vs'!M25</f>
+        <v>38.4</v>
       </c>
       <c r="N24">
-        <f>'dane po Vs'!N24</f>
-        <v>1</v>
+        <f>'dane po Vs'!N25</f>
+        <v>7.3</v>
       </c>
       <c r="O24">
-        <f>'dane po Vs'!O24</f>
-        <v>2869</v>
+        <f>'dane po Vs'!O25</f>
+        <v>580</v>
       </c>
       <c r="P24">
-        <f>'dane po Vs'!P24</f>
-        <v>0.78</v>
+        <f>'dane po Vs'!P25</f>
+        <v>0.66</v>
       </c>
       <c r="Q24">
-        <f>'dane po Vs'!Q24</f>
-        <v>1.7</v>
+        <f>'dane po Vs'!Q25</f>
+        <v>2</v>
       </c>
       <c r="R24">
-        <f>'dane po Vs'!R24</f>
-        <v>2.5</v>
+        <f>'dane po Vs'!R25</f>
+        <v>0.5</v>
       </c>
       <c r="S24">
-        <f>'dane po Vs'!S24</f>
-        <v>0.23</v>
+        <f>'dane po Vs'!S25</f>
+        <v>0.15</v>
       </c>
       <c r="T24" s="10">
-        <f>'dane po Vs'!T24</f>
-        <v>17.600000000000001</v>
+        <f>'dane po Vs'!T25</f>
+        <v>19.3</v>
       </c>
       <c r="U24" s="10">
-        <f>'dane po Vs'!U24</f>
-        <v>44.2</v>
+        <f>'dane po Vs'!U25</f>
+        <v>20.6</v>
       </c>
       <c r="V24">
-        <f>'dane po Vs'!V24</f>
-        <v>228.2</v>
+        <f>'dane po Vs'!V25</f>
+        <v>144.01113543840199</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="4"/>
-        <v>8087.3304978960914</v>
+        <f>((B24-$B$30)^2+(C24-$C$30)^2+(D24-$D$30)^2+(E24-$E$30)^2+(F24-$F$30)^2+(G24-$G$30)^2+(H24-$H$30)^2+(I24-$I$30)^2+(J24-$J$30)^2+(K24-$K$30)^2+(L24-$L$30)^2+(M24-$M$30)^2+(N24-$N$30)^2+(O24-$O$30)^2+(P24-$P$30)^2+(Q24-$Q$30)^2+(R24-$R$30)^2+(S24-$S$30)^2+(T24-$T$30)^2+(U24-$U$30)^2+(V24-$V$30)^2)^(0.5)</f>
+        <v>10373.133343913294</v>
       </c>
       <c r="X24" s="8">
+        <f>1-(W24/$AD$2)</f>
+        <v>0.214247530530152</v>
+      </c>
+      <c r="Y24" t="str">
         <f t="shared" si="1"/>
-        <v>0.38739436779057512</v>
-      </c>
-      <c r="Y24" t="str">
+        <v>Słowacja</v>
+      </c>
+      <c r="Z24" s="9">
         <f t="shared" si="2"/>
-        <v>Rumunia</v>
-      </c>
-      <c r="Z24" s="9">
-        <f t="shared" si="3"/>
-        <v>0.38739436779057512</v>
+        <v>0.214247530530152</v>
       </c>
       <c r="AA24" s="10">
         <f t="shared" si="0"/>
-        <v>0.38739436779057512</v>
+        <v>0.214247530530152</v>
       </c>
       <c r="AB24" t="s">
         <v>167</v>
@@ -17148,112 +17163,112 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>'dane po Vs'!A25</f>
-        <v>Słowacja</v>
+        <f>'dane po Vs'!A26</f>
+        <v>Słowenia</v>
       </c>
       <c r="B25">
-        <f>'dane po Vs'!B25</f>
-        <v>12</v>
+        <f>'dane po Vs'!B26</f>
+        <v>31</v>
       </c>
       <c r="C25">
-        <f>'dane po Vs'!C25</f>
-        <v>106.2</v>
+        <f>'dane po Vs'!C26</f>
+        <v>113.3</v>
       </c>
       <c r="D25" s="10">
-        <f>'dane po Vs'!D25</f>
+        <f>'dane po Vs'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <f>'dane po Vs'!E26</f>
+        <v>55.1</v>
+      </c>
+      <c r="F25" s="10">
+        <f>'dane po Vs'!F26</f>
+        <v>6.5</v>
+      </c>
+      <c r="G25" s="10">
+        <f>'dane po Vs'!G26</f>
+        <v>6.7</v>
+      </c>
+      <c r="H25" s="10">
+        <f>'dane po Vs'!H26</f>
+        <v>18.7</v>
+      </c>
+      <c r="I25" s="10">
+        <f>'dane po Vs'!I26</f>
+        <v>20.8</v>
+      </c>
+      <c r="J25" s="10">
+        <f>'dane po Vs'!J26</f>
+        <v>5</v>
+      </c>
+      <c r="K25" s="10">
+        <f>'dane po Vs'!K26</f>
+        <v>542</v>
+      </c>
+      <c r="L25">
+        <f>'dane po Vs'!L26</f>
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <f>'dane po Vs'!M26</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N25">
+        <f>'dane po Vs'!N26</f>
+        <v>6.1</v>
+      </c>
+      <c r="O25">
+        <f>'dane po Vs'!O26</f>
+        <v>463</v>
+      </c>
+      <c r="P25">
+        <f>'dane po Vs'!P26</f>
+        <v>0.92</v>
+      </c>
+      <c r="Q25">
+        <f>'dane po Vs'!Q26</f>
+        <v>2.95</v>
+      </c>
+      <c r="R25">
+        <f>'dane po Vs'!R26</f>
         <v>1</v>
       </c>
-      <c r="E25" s="10">
-        <f>'dane po Vs'!E25</f>
-        <v>64.400000000000006</v>
-      </c>
-      <c r="F25" s="10">
-        <f>'dane po Vs'!F25</f>
-        <v>13.6</v>
-      </c>
-      <c r="G25" s="10">
-        <f>'dane po Vs'!G25</f>
-        <v>6.7</v>
-      </c>
-      <c r="H25" s="10">
-        <f>'dane po Vs'!H25</f>
-        <v>19.3</v>
-      </c>
-      <c r="I25" s="10">
-        <f>'dane po Vs'!I25</f>
-        <v>15.4</v>
-      </c>
-      <c r="J25" s="10">
-        <f>'dane po Vs'!J25</f>
-        <v>-5</v>
-      </c>
-      <c r="K25" s="10">
-        <f>'dane po Vs'!K25</f>
-        <v>313</v>
-      </c>
-      <c r="L25">
-        <f>'dane po Vs'!L25</f>
-        <v>7.7</v>
-      </c>
-      <c r="M25">
-        <f>'dane po Vs'!M25</f>
-        <v>38.4</v>
-      </c>
-      <c r="N25">
-        <f>'dane po Vs'!N25</f>
-        <v>7.3</v>
-      </c>
-      <c r="O25">
-        <f>'dane po Vs'!O25</f>
-        <v>580</v>
-      </c>
-      <c r="P25">
-        <f>'dane po Vs'!P25</f>
-        <v>0.66</v>
-      </c>
-      <c r="Q25">
-        <f>'dane po Vs'!Q25</f>
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <f>'dane po Vs'!R25</f>
-        <v>0.5</v>
-      </c>
       <c r="S25">
-        <f>'dane po Vs'!S25</f>
-        <v>0.15</v>
+        <f>'dane po Vs'!S26</f>
+        <v>0.36</v>
       </c>
       <c r="T25" s="10">
-        <f>'dane po Vs'!T25</f>
-        <v>19.3</v>
+        <f>'dane po Vs'!T26</f>
+        <v>10.4</v>
       </c>
       <c r="U25" s="10">
-        <f>'dane po Vs'!U25</f>
-        <v>20.6</v>
+        <f>'dane po Vs'!U26</f>
+        <v>18.5</v>
       </c>
       <c r="V25">
-        <f>'dane po Vs'!V25</f>
-        <v>144.01113543840199</v>
+        <f>'dane po Vs'!V26</f>
+        <v>23.599999999999998</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="4"/>
-        <v>10373.133343913294</v>
+        <f>((B25-$B$30)^2+(C25-$C$30)^2+(D25-$D$30)^2+(E25-$E$30)^2+(F25-$F$30)^2+(G25-$G$30)^2+(H25-$H$30)^2+(I25-$I$30)^2+(J25-$J$30)^2+(K25-$K$30)^2+(L25-$L$30)^2+(M25-$M$30)^2+(N25-$N$30)^2+(O25-$O$30)^2+(P25-$P$30)^2+(Q25-$Q$30)^2+(R25-$R$30)^2+(S25-$S$30)^2+(T25-$T$30)^2+(U25-$U$30)^2+(V25-$V$30)^2)^(0.5)</f>
+        <v>10497.164774833262</v>
       </c>
       <c r="X25" s="8">
+        <f>1-(W25/$AD$2)</f>
+        <v>0.20485229768139768</v>
+      </c>
+      <c r="Y25" t="str">
         <f t="shared" si="1"/>
-        <v>0.214247530530152</v>
-      </c>
-      <c r="Y25" t="str">
+        <v>Słowenia</v>
+      </c>
+      <c r="Z25" s="9">
         <f t="shared" si="2"/>
-        <v>Słowacja</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="3"/>
-        <v>0.214247530530152</v>
+        <v>0.20485229768139768</v>
       </c>
       <c r="AA25" s="10">
         <f t="shared" si="0"/>
-        <v>0.214247530530152</v>
+        <v>0.20485229768139768</v>
       </c>
       <c r="AB25" t="s">
         <v>167</v>
@@ -17267,112 +17282,112 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>'dane po Vs'!A26</f>
-        <v>Słowenia</v>
+        <f>'dane po Vs'!A27</f>
+        <v>Szwecja</v>
       </c>
       <c r="B26">
-        <f>'dane po Vs'!B26</f>
-        <v>31</v>
+        <f>'dane po Vs'!B27</f>
+        <v>14</v>
       </c>
       <c r="C26">
-        <f>'dane po Vs'!C26</f>
-        <v>113.3</v>
+        <f>'dane po Vs'!C27</f>
+        <v>105.7</v>
       </c>
       <c r="D26" s="10">
-        <f>'dane po Vs'!D26</f>
-        <v>0</v>
+        <f>'dane po Vs'!D27</f>
+        <v>119</v>
       </c>
       <c r="E26" s="10">
-        <f>'dane po Vs'!E26</f>
-        <v>55.1</v>
+        <f>'dane po Vs'!E27</f>
+        <v>37.5</v>
       </c>
       <c r="F26" s="10">
-        <f>'dane po Vs'!F26</f>
-        <v>6.5</v>
+        <f>'dane po Vs'!F27</f>
+        <v>3.1</v>
       </c>
       <c r="G26" s="10">
-        <f>'dane po Vs'!G26</f>
-        <v>6.7</v>
+        <f>'dane po Vs'!G27</f>
+        <v>4.7</v>
       </c>
       <c r="H26" s="10">
-        <f>'dane po Vs'!H26</f>
-        <v>18.7</v>
+        <f>'dane po Vs'!H27</f>
+        <v>14.4</v>
       </c>
       <c r="I26" s="10">
-        <f>'dane po Vs'!I26</f>
-        <v>20.8</v>
+        <f>'dane po Vs'!I27</f>
+        <v>22.1</v>
       </c>
       <c r="J26" s="10">
-        <f>'dane po Vs'!J26</f>
-        <v>5</v>
+        <f>'dane po Vs'!J27</f>
+        <v>2</v>
       </c>
       <c r="K26" s="10">
-        <f>'dane po Vs'!K26</f>
-        <v>542</v>
+        <f>'dane po Vs'!K27</f>
+        <v>483</v>
       </c>
       <c r="L26">
-        <f>'dane po Vs'!L26</f>
-        <v>15</v>
+        <f>'dane po Vs'!L27</f>
+        <v>45.3</v>
       </c>
       <c r="M26">
-        <f>'dane po Vs'!M26</f>
-        <v>4.9000000000000004</v>
+        <f>'dane po Vs'!M27</f>
+        <v>5.8</v>
       </c>
       <c r="N26">
-        <f>'dane po Vs'!N26</f>
-        <v>6.1</v>
+        <f>'dane po Vs'!N27</f>
+        <v>10.9</v>
       </c>
       <c r="O26">
-        <f>'dane po Vs'!O26</f>
-        <v>463</v>
+        <f>'dane po Vs'!O27</f>
+        <v>1659</v>
       </c>
       <c r="P26">
-        <f>'dane po Vs'!P26</f>
-        <v>0.92</v>
+        <f>'dane po Vs'!P27</f>
+        <v>0.47799999999999992</v>
       </c>
       <c r="Q26">
-        <f>'dane po Vs'!Q26</f>
-        <v>2.95</v>
+        <f>'dane po Vs'!Q27</f>
+        <v>2.57</v>
       </c>
       <c r="R26">
-        <f>'dane po Vs'!R26</f>
-        <v>1</v>
+        <f>'dane po Vs'!R27</f>
+        <v>2.98</v>
       </c>
       <c r="S26">
-        <f>'dane po Vs'!S26</f>
-        <v>0.36</v>
+        <f>'dane po Vs'!S27</f>
+        <v>0.16</v>
       </c>
       <c r="T26" s="10">
-        <f>'dane po Vs'!T26</f>
-        <v>10.4</v>
+        <f>'dane po Vs'!T27</f>
+        <v>20.2</v>
       </c>
       <c r="U26" s="10">
-        <f>'dane po Vs'!U26</f>
-        <v>18.5</v>
+        <f>'dane po Vs'!U27</f>
+        <v>16.7</v>
       </c>
       <c r="V26">
-        <f>'dane po Vs'!V26</f>
-        <v>23.599999999999998</v>
+        <f>'dane po Vs'!V27</f>
+        <v>71.7</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" si="4"/>
-        <v>10497.164774833262</v>
+        <f>((B26-$B$30)^2+(C26-$C$30)^2+(D26-$D$30)^2+(E26-$E$30)^2+(F26-$F$30)^2+(G26-$G$30)^2+(H26-$H$30)^2+(I26-$I$30)^2+(J26-$J$30)^2+(K26-$K$30)^2+(L26-$L$30)^2+(M26-$M$30)^2+(N26-$N$30)^2+(O26-$O$30)^2+(P26-$P$30)^2+(Q26-$Q$30)^2+(R26-$R$30)^2+(S26-$S$30)^2+(T26-$T$30)^2+(U26-$U$30)^2+(V26-$V$30)^2)^(0.5)</f>
+        <v>9300.1095274026811</v>
       </c>
       <c r="X26" s="8">
+        <f>1-(W26/$AD$2)</f>
+        <v>0.29552780387378008</v>
+      </c>
+      <c r="Y26" t="str">
         <f t="shared" si="1"/>
-        <v>0.20485229768139768</v>
-      </c>
-      <c r="Y26" t="str">
+        <v>Szwecja</v>
+      </c>
+      <c r="Z26" s="9">
         <f t="shared" si="2"/>
-        <v>Słowenia</v>
-      </c>
-      <c r="Z26" s="9">
-        <f t="shared" si="3"/>
-        <v>0.20485229768139768</v>
+        <v>0.29552780387378008</v>
       </c>
       <c r="AA26" s="10">
         <f t="shared" si="0"/>
-        <v>0.20485229768139768</v>
+        <v>0.29552780387378008</v>
       </c>
       <c r="AB26" t="s">
         <v>167</v>
@@ -17386,112 +17401,112 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>'dane po Vs'!A27</f>
-        <v>Szwecja</v>
+        <f>'dane po Vs'!A28</f>
+        <v>Węgry</v>
       </c>
       <c r="B27">
-        <f>'dane po Vs'!B27</f>
-        <v>14</v>
+        <f>'dane po Vs'!B28</f>
+        <v>15</v>
       </c>
       <c r="C27">
-        <f>'dane po Vs'!C27</f>
-        <v>105.7</v>
+        <f>'dane po Vs'!C28</f>
+        <v>118</v>
       </c>
       <c r="D27" s="10">
-        <f>'dane po Vs'!D27</f>
-        <v>119</v>
+        <f>'dane po Vs'!D28</f>
+        <v>588</v>
       </c>
       <c r="E27" s="10">
-        <f>'dane po Vs'!E27</f>
-        <v>37.5</v>
+        <f>'dane po Vs'!E28</f>
+        <v>62.3</v>
       </c>
       <c r="F27" s="10">
-        <f>'dane po Vs'!F27</f>
-        <v>3.1</v>
+        <f>'dane po Vs'!F28</f>
+        <v>3.5</v>
       </c>
       <c r="G27" s="10">
-        <f>'dane po Vs'!G27</f>
-        <v>4.7</v>
+        <f>'dane po Vs'!G28</f>
+        <v>5.2</v>
       </c>
       <c r="H27" s="10">
-        <f>'dane po Vs'!H27</f>
-        <v>14.4</v>
+        <f>'dane po Vs'!H28</f>
+        <v>12.2</v>
       </c>
       <c r="I27" s="10">
-        <f>'dane po Vs'!I27</f>
-        <v>22.1</v>
+        <f>'dane po Vs'!I28</f>
+        <v>13.3</v>
       </c>
       <c r="J27" s="10">
-        <f>'dane po Vs'!J27</f>
-        <v>2</v>
+        <f>'dane po Vs'!J28</f>
+        <v>-4</v>
       </c>
       <c r="K27" s="10">
-        <f>'dane po Vs'!K27</f>
-        <v>483</v>
+        <f>'dane po Vs'!K28</f>
+        <v>454</v>
       </c>
       <c r="L27">
-        <f>'dane po Vs'!L27</f>
-        <v>45.3</v>
+        <f>'dane po Vs'!L28</f>
+        <v>8.6</v>
       </c>
       <c r="M27">
-        <f>'dane po Vs'!M27</f>
-        <v>5.8</v>
+        <f>'dane po Vs'!M28</f>
+        <v>76.5</v>
       </c>
       <c r="N27">
-        <f>'dane po Vs'!N27</f>
-        <v>10.9</v>
+        <f>'dane po Vs'!N28</f>
+        <v>2.1</v>
       </c>
       <c r="O27">
-        <f>'dane po Vs'!O27</f>
-        <v>1659</v>
+        <f>'dane po Vs'!O28</f>
+        <v>829</v>
       </c>
       <c r="P27">
-        <f>'dane po Vs'!P27</f>
-        <v>0.47799999999999992</v>
+        <f>'dane po Vs'!P28</f>
+        <v>0.34999999999999992</v>
       </c>
       <c r="Q27">
-        <f>'dane po Vs'!Q27</f>
-        <v>2.57</v>
+        <f>'dane po Vs'!Q28</f>
+        <v>2.66</v>
       </c>
       <c r="R27">
-        <f>'dane po Vs'!R27</f>
-        <v>2.98</v>
+        <f>'dane po Vs'!R28</f>
+        <v>4.84</v>
       </c>
       <c r="S27">
-        <f>'dane po Vs'!S27</f>
-        <v>0.16</v>
+        <f>'dane po Vs'!S28</f>
+        <v>0.23</v>
       </c>
       <c r="T27" s="10">
-        <f>'dane po Vs'!T27</f>
-        <v>20.2</v>
+        <f>'dane po Vs'!T28</f>
+        <v>19.5</v>
       </c>
       <c r="U27" s="10">
-        <f>'dane po Vs'!U27</f>
-        <v>16.7</v>
+        <f>'dane po Vs'!U28</f>
+        <v>28.2</v>
       </c>
       <c r="V27">
-        <f>'dane po Vs'!V27</f>
-        <v>71.7</v>
+        <f>'dane po Vs'!V28</f>
+        <v>144.12425003756678</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="4"/>
-        <v>9300.1095274026811</v>
+        <f>((B27-$B$30)^2+(C27-$C$30)^2+(D27-$D$30)^2+(E27-$E$30)^2+(F27-$F$30)^2+(G27-$G$30)^2+(H27-$H$30)^2+(I27-$I$30)^2+(J27-$J$30)^2+(K27-$K$30)^2+(L27-$L$30)^2+(M27-$M$30)^2+(N27-$N$30)^2+(O27-$O$30)^2+(P27-$P$30)^2+(Q27-$Q$30)^2+(R27-$R$30)^2+(S27-$S$30)^2+(T27-$T$30)^2+(U27-$U$30)^2+(V27-$V$30)^2)^(0.5)</f>
+        <v>10141.880668299298</v>
       </c>
       <c r="X27" s="8">
+        <f>1-(W27/$AD$2)</f>
+        <v>0.23176464468561864</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="1"/>
-        <v>0.29552780387378008</v>
-      </c>
-      <c r="Y27" t="str">
+        <v>Węgry</v>
+      </c>
+      <c r="Z27" s="9">
         <f t="shared" si="2"/>
-        <v>Szwecja</v>
-      </c>
-      <c r="Z27" s="9">
-        <f t="shared" si="3"/>
-        <v>0.29552780387378008</v>
+        <v>0.23176464468561864</v>
       </c>
       <c r="AA27" s="10">
         <f t="shared" si="0"/>
-        <v>0.29552780387378008</v>
+        <v>0.23176464468561864</v>
       </c>
       <c r="AB27" t="s">
         <v>167</v>
@@ -17505,112 +17520,112 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>'dane po Vs'!A28</f>
-        <v>Węgry</v>
+        <f>'dane po Vs'!A29</f>
+        <v>Wielka Brytania</v>
       </c>
       <c r="B28">
-        <f>'dane po Vs'!B28</f>
+        <f>'dane po Vs'!B29</f>
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <f>'dane po Vs'!C29</f>
+        <v>131.9</v>
+      </c>
+      <c r="D28" s="10">
+        <f>'dane po Vs'!D29</f>
+        <v>231.76190476190473</v>
+      </c>
+      <c r="E28" s="10">
+        <f>'dane po Vs'!E29</f>
+        <v>26.3</v>
+      </c>
+      <c r="F28" s="10">
+        <f>'dane po Vs'!F29</f>
+        <v>7.9</v>
+      </c>
+      <c r="G28" s="10">
+        <f>'dane po Vs'!G29</f>
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="10">
+        <f>'dane po Vs'!H29</f>
+        <v>19.8</v>
+      </c>
+      <c r="I28" s="10">
+        <f>'dane po Vs'!I29</f>
+        <v>10.9</v>
+      </c>
+      <c r="J28" s="10">
+        <f>'dane po Vs'!J29</f>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="K28" s="10">
+        <f>'dane po Vs'!K29</f>
+        <v>541</v>
+      </c>
+      <c r="L28">
+        <f>'dane po Vs'!L29</f>
+        <v>2.7</v>
+      </c>
+      <c r="M28">
+        <f>'dane po Vs'!M29</f>
+        <v>94.8</v>
+      </c>
+      <c r="N28">
+        <f>'dane po Vs'!N29</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O28">
+        <f>'dane po Vs'!O29</f>
+        <v>6114</v>
+      </c>
+      <c r="P28">
+        <f>'dane po Vs'!P29</f>
+        <v>0.26</v>
+      </c>
+      <c r="Q28">
+        <f>'dane po Vs'!Q29</f>
+        <v>2.27</v>
+      </c>
+      <c r="R28">
+        <f>'dane po Vs'!R29</f>
+        <v>15.18</v>
+      </c>
+      <c r="S28">
+        <f>'dane po Vs'!S29</f>
+        <v>0.15</v>
+      </c>
+      <c r="T28" s="10">
+        <f>'dane po Vs'!T29</f>
         <v>15</v>
       </c>
-      <c r="C28">
-        <f>'dane po Vs'!C28</f>
-        <v>118</v>
-      </c>
-      <c r="D28" s="10">
-        <f>'dane po Vs'!D28</f>
-        <v>588</v>
-      </c>
-      <c r="E28" s="10">
-        <f>'dane po Vs'!E28</f>
-        <v>62.3</v>
-      </c>
-      <c r="F28" s="10">
-        <f>'dane po Vs'!F28</f>
-        <v>3.5</v>
-      </c>
-      <c r="G28" s="10">
-        <f>'dane po Vs'!G28</f>
-        <v>5.2</v>
-      </c>
-      <c r="H28" s="10">
-        <f>'dane po Vs'!H28</f>
-        <v>12.2</v>
-      </c>
-      <c r="I28" s="10">
-        <f>'dane po Vs'!I28</f>
-        <v>13.3</v>
-      </c>
-      <c r="J28" s="10">
-        <f>'dane po Vs'!J28</f>
-        <v>-4</v>
-      </c>
-      <c r="K28" s="10">
-        <f>'dane po Vs'!K28</f>
-        <v>454</v>
-      </c>
-      <c r="L28">
-        <f>'dane po Vs'!L28</f>
-        <v>8.6</v>
-      </c>
-      <c r="M28">
-        <f>'dane po Vs'!M28</f>
-        <v>76.5</v>
-      </c>
-      <c r="N28">
-        <f>'dane po Vs'!N28</f>
-        <v>2.1</v>
-      </c>
-      <c r="O28">
-        <f>'dane po Vs'!O28</f>
-        <v>829</v>
-      </c>
-      <c r="P28">
-        <f>'dane po Vs'!P28</f>
-        <v>0.34999999999999992</v>
-      </c>
-      <c r="Q28">
-        <f>'dane po Vs'!Q28</f>
-        <v>2.66</v>
-      </c>
-      <c r="R28">
-        <f>'dane po Vs'!R28</f>
-        <v>4.84</v>
-      </c>
-      <c r="S28">
-        <f>'dane po Vs'!S28</f>
-        <v>0.23</v>
-      </c>
-      <c r="T28" s="10">
-        <f>'dane po Vs'!T28</f>
-        <v>19.5</v>
-      </c>
       <c r="U28" s="10">
-        <f>'dane po Vs'!U28</f>
-        <v>28.2</v>
+        <f>'dane po Vs'!U29</f>
+        <v>23.2</v>
       </c>
       <c r="V28">
-        <f>'dane po Vs'!V28</f>
-        <v>144.12425003756678</v>
+        <f>'dane po Vs'!V29</f>
+        <v>325.20000000000005</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" si="4"/>
-        <v>10141.880668299298</v>
+        <f>((B28-$B$30)^2+(C28-$C$30)^2+(D28-$D$30)^2+(E28-$E$30)^2+(F28-$F$30)^2+(G28-$G$30)^2+(H28-$H$30)^2+(I28-$I$30)^2+(J28-$J$30)^2+(K28-$K$30)^2+(L28-$L$30)^2+(M28-$M$30)^2+(N28-$N$30)^2+(O28-$O$30)^2+(P28-$P$30)^2+(Q28-$Q$30)^2+(R28-$R$30)^2+(S28-$S$30)^2+(T28-$T$30)^2+(U28-$U$30)^2+(V28-$V$30)^2)^(0.5)</f>
+        <v>4847.4951924879051</v>
       </c>
       <c r="X28" s="8">
+        <f>1-(W28/$AD$2)</f>
+        <v>0.6328080251204351</v>
+      </c>
+      <c r="Y28" t="str">
         <f t="shared" si="1"/>
-        <v>0.23176464468561864</v>
-      </c>
-      <c r="Y28" t="str">
+        <v>Wielka Brytania</v>
+      </c>
+      <c r="Z28" s="9">
         <f t="shared" si="2"/>
-        <v>Węgry</v>
-      </c>
-      <c r="Z28" s="9">
-        <f t="shared" si="3"/>
-        <v>0.23176464468561864</v>
+        <v>0.6328080251204351</v>
       </c>
       <c r="AA28" s="10">
         <f t="shared" si="0"/>
-        <v>0.23176464468561864</v>
+        <v>0.6328080251204351</v>
       </c>
       <c r="AB28" t="s">
         <v>167</v>
@@ -17624,112 +17639,112 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>'dane po Vs'!A29</f>
-        <v>Wielka Brytania</v>
+        <f>'dane po Vs'!A30</f>
+        <v>Włochy</v>
       </c>
       <c r="B29">
-        <f>'dane po Vs'!B29</f>
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <f>'dane po Vs'!C29</f>
-        <v>131.9</v>
+        <f>'dane po Vs'!B30</f>
+        <v>14</v>
+      </c>
+      <c r="C29" s="12">
+        <f>'dane po Vs'!C30</f>
+        <v>126.4</v>
       </c>
       <c r="D29" s="10">
-        <f>'dane po Vs'!D29</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D30</f>
+        <v>230</v>
       </c>
       <c r="E29" s="10">
-        <f>'dane po Vs'!E29</f>
-        <v>26.3</v>
+        <f>'dane po Vs'!E30</f>
+        <v>82.9</v>
       </c>
       <c r="F29" s="10">
-        <f>'dane po Vs'!F29</f>
-        <v>7.9</v>
+        <f>'dane po Vs'!F30</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G29" s="10">
-        <f>'dane po Vs'!G29</f>
-        <v>2.5</v>
+        <f>'dane po Vs'!G30</f>
+        <v>4</v>
       </c>
       <c r="H29" s="10">
-        <f>'dane po Vs'!H29</f>
-        <v>19.8</v>
+        <f>'dane po Vs'!H30</f>
+        <v>24.3</v>
       </c>
       <c r="I29" s="10">
-        <f>'dane po Vs'!I29</f>
-        <v>10.9</v>
+        <f>'dane po Vs'!I30</f>
+        <v>13.7</v>
       </c>
       <c r="J29" s="10">
-        <f>'dane po Vs'!J29</f>
-        <v>-0.54545454545454541</v>
+        <f>'dane po Vs'!J30</f>
+        <v>-3</v>
       </c>
       <c r="K29" s="10">
-        <f>'dane po Vs'!K29</f>
-        <v>541</v>
+        <f>'dane po Vs'!K30</f>
+        <v>552</v>
       </c>
       <c r="L29">
-        <f>'dane po Vs'!L29</f>
-        <v>2.7</v>
+        <f>'dane po Vs'!L30</f>
+        <v>11.5</v>
       </c>
       <c r="M29">
-        <f>'dane po Vs'!M29</f>
-        <v>94.8</v>
+        <f>'dane po Vs'!M30</f>
+        <v>47.6</v>
       </c>
       <c r="N29">
-        <f>'dane po Vs'!N29</f>
-        <v>4.0999999999999996</v>
+        <f>'dane po Vs'!N30</f>
+        <v>7.5</v>
       </c>
       <c r="O29">
-        <f>'dane po Vs'!O29</f>
-        <v>6114</v>
+        <f>'dane po Vs'!O30</f>
+        <v>1977</v>
       </c>
       <c r="P29">
-        <f>'dane po Vs'!P29</f>
-        <v>0.26</v>
+        <f>'dane po Vs'!P30</f>
+        <v>0.71</v>
       </c>
       <c r="Q29">
-        <f>'dane po Vs'!Q29</f>
-        <v>2.27</v>
+        <f>'dane po Vs'!Q30</f>
+        <v>2.56</v>
       </c>
       <c r="R29">
-        <f>'dane po Vs'!R29</f>
-        <v>15.18</v>
+        <f>'dane po Vs'!R30</f>
+        <v>23.66</v>
       </c>
       <c r="S29">
-        <f>'dane po Vs'!S29</f>
+        <f>'dane po Vs'!S30</f>
         <v>0.15</v>
       </c>
       <c r="T29" s="10">
-        <f>'dane po Vs'!T29</f>
-        <v>15</v>
+        <f>'dane po Vs'!T30</f>
+        <v>21.2</v>
       </c>
       <c r="U29" s="10">
-        <f>'dane po Vs'!U29</f>
-        <v>23.2</v>
+        <f>'dane po Vs'!U30</f>
+        <v>25.5</v>
       </c>
       <c r="V29">
-        <f>'dane po Vs'!V29</f>
-        <v>325.20000000000005</v>
+        <f>'dane po Vs'!V30</f>
+        <v>144.2523062613476</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" si="4"/>
-        <v>4847.4951924879051</v>
+        <f>((B29-$B$30)^2+(C29-$C$30)^2+(D29-$D$30)^2+(E29-$E$30)^2+(F29-$F$30)^2+(G29-$G$30)^2+(H29-$H$30)^2+(I29-$I$30)^2+(J29-$J$30)^2+(K29-$K$30)^2+(L29-$L$30)^2+(M29-$M$30)^2+(N29-$N$30)^2+(O29-$O$30)^2+(P29-$P$30)^2+(Q29-$Q$30)^2+(R29-$R$30)^2+(S29-$S$30)^2+(T29-$T$30)^2+(U29-$U$30)^2+(V29-$V$30)^2)^(0.5)</f>
+        <v>8983.1600161886126</v>
       </c>
       <c r="X29" s="8">
+        <f>1-(W29/$AD$2)</f>
+        <v>0.31953635103854283</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="1"/>
-        <v>0.6328080251204351</v>
-      </c>
-      <c r="Y29" t="str">
+        <v>Włochy</v>
+      </c>
+      <c r="Z29" s="9">
         <f t="shared" si="2"/>
-        <v>Wielka Brytania</v>
-      </c>
-      <c r="Z29" s="9">
-        <f t="shared" si="3"/>
-        <v>0.6328080251204351</v>
+        <v>0.31953635103854283</v>
       </c>
       <c r="AA29" s="10">
         <f t="shared" si="0"/>
-        <v>0.6328080251204351</v>
+        <v>0.31953635103854283</v>
       </c>
       <c r="AB29" t="s">
         <v>167</v>
@@ -17742,113 +17757,107 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <f>'dane po Vs'!A30</f>
-        <v>Włochy</v>
-      </c>
-      <c r="B30">
-        <f>'dane po Vs'!B30</f>
-        <v>14</v>
-      </c>
-      <c r="C30" s="12">
-        <f>'dane po Vs'!C30</f>
-        <v>126.4</v>
-      </c>
-      <c r="D30" s="10">
-        <f>'dane po Vs'!D30</f>
-        <v>230</v>
-      </c>
-      <c r="E30" s="10">
-        <f>'dane po Vs'!E30</f>
-        <v>82.9</v>
-      </c>
-      <c r="F30" s="10">
-        <f>'dane po Vs'!F30</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G30" s="10">
-        <f>'dane po Vs'!G30</f>
-        <v>4</v>
-      </c>
-      <c r="H30" s="10">
-        <f>'dane po Vs'!H30</f>
-        <v>24.3</v>
-      </c>
-      <c r="I30" s="10">
-        <f>'dane po Vs'!I30</f>
-        <v>13.7</v>
-      </c>
-      <c r="J30" s="10">
-        <f>'dane po Vs'!J30</f>
-        <v>-3</v>
-      </c>
-      <c r="K30" s="10">
-        <f>'dane po Vs'!K30</f>
-        <v>552</v>
-      </c>
-      <c r="L30">
-        <f>'dane po Vs'!L30</f>
-        <v>11.5</v>
-      </c>
-      <c r="M30">
-        <f>'dane po Vs'!M30</f>
-        <v>47.6</v>
-      </c>
-      <c r="N30">
-        <f>'dane po Vs'!N30</f>
-        <v>7.5</v>
-      </c>
-      <c r="O30">
-        <f>'dane po Vs'!O30</f>
-        <v>1977</v>
-      </c>
-      <c r="P30">
-        <f>'dane po Vs'!P30</f>
-        <v>0.71</v>
-      </c>
-      <c r="Q30">
-        <f>'dane po Vs'!Q30</f>
-        <v>2.56</v>
-      </c>
-      <c r="R30">
-        <f>'dane po Vs'!R30</f>
-        <v>23.66</v>
-      </c>
-      <c r="S30">
-        <f>'dane po Vs'!S30</f>
-        <v>0.15</v>
-      </c>
-      <c r="T30" s="10">
-        <f>'dane po Vs'!T30</f>
-        <v>21.2</v>
-      </c>
-      <c r="U30" s="10">
-        <f>'dane po Vs'!U30</f>
-        <v>25.5</v>
-      </c>
-      <c r="V30">
-        <f>'dane po Vs'!V30</f>
-        <v>144.2523062613476</v>
-      </c>
-      <c r="W30" s="8">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="7">
+        <f>MAX(B2:B29)</f>
+        <v>37</v>
+      </c>
+      <c r="C30" s="16">
+        <f>MAX(C2:C29)</f>
+        <v>147.5</v>
+      </c>
+      <c r="D30" s="15">
+        <f>MIN(D2:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:K30" si="3">MIN(E2:E29)</f>
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="3"/>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="3"/>
+        <v>7.7</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" ref="L30:S30" si="4">MAX(L2:L29)</f>
+        <v>45.3</v>
+      </c>
+      <c r="M30" s="7">
         <f t="shared" si="4"/>
-        <v>8983.1600161886126</v>
-      </c>
-      <c r="X30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31953635103854283</v>
-      </c>
-      <c r="Y30" t="str">
-        <f t="shared" si="2"/>
-        <v>Włochy</v>
-      </c>
-      <c r="Z30" s="9">
-        <f t="shared" si="3"/>
-        <v>0.31953635103854283</v>
-      </c>
-      <c r="AA30" s="10">
-        <f t="shared" si="0"/>
-        <v>0.31953635103854283</v>
+        <v>172.7</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="4"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="4"/>
+        <v>10947</v>
+      </c>
+      <c r="P30" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q30" s="7">
+        <f t="shared" si="4"/>
+        <v>4.17</v>
+      </c>
+      <c r="R30" s="7">
+        <f t="shared" si="4"/>
+        <v>92.04</v>
+      </c>
+      <c r="S30" s="7">
+        <f t="shared" si="4"/>
+        <v>0.36</v>
+      </c>
+      <c r="T30" s="15">
+        <f>MIN(T2:T29)</f>
+        <v>8</v>
+      </c>
+      <c r="U30" s="15">
+        <f>MIN(U2:U29)</f>
+        <v>14.9</v>
+      </c>
+      <c r="V30" s="16">
+        <f>MAX(V2:V29)</f>
+        <v>442.83333333333331</v>
+      </c>
+      <c r="W30" t="s">
+        <v>167</v>
+      </c>
+      <c r="X30" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>167</v>
       </c>
       <c r="AB30" t="s">
         <v>167</v>
@@ -17857,119 +17866,6 @@
         <v>167</v>
       </c>
       <c r="AD30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="7">
-        <f>MAX(B3:B30)</f>
-        <v>37</v>
-      </c>
-      <c r="C31" s="16">
-        <f>MAX(C3:C30)</f>
-        <v>147.5</v>
-      </c>
-      <c r="D31" s="15">
-        <f>MIN(D3:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="15">
-        <f t="shared" ref="E31:K31" si="5">MIN(E3:E30)</f>
-        <v>-20.100000000000001</v>
-      </c>
-      <c r="F31" s="15">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="G31" s="15">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H31" s="15">
-        <f t="shared" si="5"/>
-        <v>9.8571428571428577</v>
-      </c>
-      <c r="I31" s="15">
-        <f t="shared" si="5"/>
-        <v>7.7</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" si="5"/>
-        <v>306</v>
-      </c>
-      <c r="L31" s="7">
-        <f t="shared" ref="L31:S31" si="6">MAX(L3:L30)</f>
-        <v>45.3</v>
-      </c>
-      <c r="M31" s="7">
-        <f t="shared" si="6"/>
-        <v>172.7</v>
-      </c>
-      <c r="N31" s="7">
-        <f t="shared" si="6"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="O31" s="7">
-        <f t="shared" si="6"/>
-        <v>10947</v>
-      </c>
-      <c r="P31" s="7">
-        <f t="shared" si="6"/>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="6"/>
-        <v>4.17</v>
-      </c>
-      <c r="R31" s="7">
-        <f t="shared" si="6"/>
-        <v>92.04</v>
-      </c>
-      <c r="S31" s="7">
-        <f t="shared" si="6"/>
-        <v>0.36</v>
-      </c>
-      <c r="T31" s="15">
-        <f>MIN(T3:T30)</f>
-        <v>8</v>
-      </c>
-      <c r="U31" s="15">
-        <f>MIN(U3:U30)</f>
-        <v>14.9</v>
-      </c>
-      <c r="V31" s="16">
-        <f>MAX(V3:V30)</f>
-        <v>442.83333333333331</v>
-      </c>
-      <c r="W31" t="s">
-        <v>167</v>
-      </c>
-      <c r="X31" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD31" t="s">
         <v>167</v>
       </c>
     </row>
@@ -18092,174 +17988,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B1" t="str">
-        <f>wzorzec!B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C1" s="12" t="str">
-        <f>wzorzec!C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D1" s="10" t="str">
-        <f>wzorzec!D1</f>
-        <v>X6</v>
-      </c>
-      <c r="E1" s="10" t="str">
-        <f>wzorzec!E1</f>
-        <v>X8</v>
-      </c>
-      <c r="F1" s="10" t="str">
-        <f>wzorzec!F1</f>
-        <v>X10</v>
-      </c>
-      <c r="G1" s="10" t="str">
-        <f>wzorzec!G1</f>
-        <v>X11</v>
-      </c>
-      <c r="H1" s="10" t="str">
-        <f>wzorzec!H1</f>
-        <v>X12</v>
-      </c>
-      <c r="I1" s="10" t="str">
-        <f>wzorzec!I1</f>
-        <v>X13</v>
-      </c>
-      <c r="J1" s="10" t="str">
-        <f>wzorzec!J1</f>
-        <v>X14</v>
-      </c>
-      <c r="K1" s="10" t="str">
-        <f>wzorzec!K1</f>
-        <v>X15</v>
-      </c>
-      <c r="L1" t="str">
-        <f>wzorzec!L1</f>
-        <v>X16</v>
-      </c>
-      <c r="M1" t="str">
-        <f>wzorzec!M1</f>
-        <v>X17</v>
-      </c>
-      <c r="N1" t="str">
-        <f>wzorzec!N1</f>
-        <v>X18</v>
-      </c>
-      <c r="O1" t="str">
-        <f>wzorzec!O1</f>
-        <v>X19</v>
-      </c>
-      <c r="P1" t="str">
-        <f>wzorzec!P1</f>
-        <v>X20</v>
-      </c>
-      <c r="Q1" t="str">
-        <f>wzorzec!Q1</f>
-        <v>X21</v>
-      </c>
-      <c r="R1" t="str">
-        <f>wzorzec!R1</f>
-        <v>X23</v>
-      </c>
-      <c r="S1" t="str">
-        <f>wzorzec!S1</f>
-        <v>X24</v>
-      </c>
-      <c r="T1" s="10" t="str">
-        <f>wzorzec!T1</f>
-        <v>X25</v>
-      </c>
-      <c r="U1" s="10" t="str">
-        <f>wzorzec!U1</f>
-        <v>X26</v>
-      </c>
-      <c r="V1" s="11" t="str">
-        <f>wzorzec!V1</f>
-        <v>X27</v>
+      <c r="B1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C1" s="12" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S1" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U1" s="10" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V1" s="11" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" t="str">
-        <f>wzorzec!B2</f>
+        <f>wzorzec!B1</f>
         <v>Chroniony obszar lądowy (% powierzchni państwa)</v>
       </c>
       <c r="C2" s="12" t="str">
-        <f>wzorzec!C2</f>
+        <f>wzorzec!C1</f>
         <v>Indeks wydajnosci zasobów (rok 2000=100)</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>wzorzec!D2</f>
+        <f>wzorzec!D1</f>
         <v>Połowy w regionach rybackich (tys.ton)</v>
       </c>
       <c r="E2" s="10" t="str">
-        <f>wzorzec!E2</f>
+        <f>wzorzec!E1</f>
         <v>Zależność energetyczna (%)</v>
       </c>
       <c r="F2" s="10" t="str">
-        <f>wzorzec!F2</f>
+        <f>wzorzec!F1</f>
         <v>Emisja tlenków siarki (kg/osoba)</v>
       </c>
       <c r="G2" s="10" t="str">
-        <f>wzorzec!G2</f>
+        <f>wzorzec!G1</f>
         <v>Emisja cząstek stałych (kg/osoba)</v>
       </c>
       <c r="H2" s="10" t="str">
-        <f>wzorzec!H2</f>
+        <f>wzorzec!H1</f>
         <v>Zanieczyszczenie hałasem (% ludności)</v>
       </c>
       <c r="I2" s="10" t="str">
-        <f>wzorzec!I2</f>
+        <f>wzorzec!I1</f>
         <v>Konsumpcja surowców (ton/osoba)</v>
       </c>
       <c r="J2" s="10" t="str">
-        <f>wzorzec!J2</f>
+        <f>wzorzec!J1</f>
         <v>Zużycie nawozów (kg/ha)</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f>wzorzec!K2</f>
+        <f>wzorzec!K1</f>
         <v>Odpady komunalne (kg/osoba)</v>
       </c>
       <c r="L2" t="str">
-        <f>wzorzec!L2</f>
+        <f>wzorzec!L1</f>
         <v>Odnawialna energia elektryczna (%konsumpcji prądu)</v>
       </c>
       <c r="M2" t="str">
-        <f>wzorzec!M2</f>
+        <f>wzorzec!M1</f>
         <v>Krajowa konsumpcja biomasy (100 tys. ton ekwiwalentu oleju)</v>
       </c>
       <c r="N2" t="str">
-        <f>wzorzec!N2</f>
+        <f>wzorzec!N1</f>
         <v>Uprawy ekologiczne (% użytków rolnych)</v>
       </c>
       <c r="O2" t="str">
-        <f>wzorzec!O2</f>
+        <f>wzorzec!O1</f>
         <v>Odzysk odpadów (kg/osoba)</v>
       </c>
       <c r="P2" t="str">
-        <f>wzorzec!P2</f>
+        <f>wzorzec!P1</f>
         <v>Wydatki na ochronę środoiwska (% PKB)</v>
       </c>
       <c r="Q2" t="str">
-        <f>wzorzec!Q2</f>
+        <f>wzorzec!Q1</f>
         <v>Dochody z podatków środoiwskowych (% PKB)</v>
       </c>
       <c r="R2" t="str">
-        <f>wzorzec!R2</f>
+        <f>wzorzec!R1</f>
         <v>Patenty związane z recyklingiem i surowcami wtórnymi  (liczba)</v>
       </c>
       <c r="S2" t="str">
-        <f>wzorzec!S2</f>
+        <f>wzorzec!S1</f>
         <v>Wydatki publiczne na badania i rozwój dotyczące środowiska (% PKB)</v>
       </c>
       <c r="T2" s="10" t="str">
-        <f>wzorzec!T2</f>
+        <f>wzorzec!T1</f>
         <v>Stopa bezrobocia ludzi młodych w wieku 15-24 lata, obliczona jako udział (%) w całkowitej populacji w tej samej grupie wiekowej</v>
       </c>
       <c r="U2" s="10" t="str">
-        <f>wzorzec!U2</f>
+        <f>wzorzec!U1</f>
         <v>Osoby zagrożone ubóstwem lub wykluczeniem społecznym</v>
       </c>
       <c r="V2" s="11" t="str">
-        <f>wzorzec!V2</f>
+        <f>wzorzec!V1</f>
         <v>Zatrudnienie w sektorze dóbr i usług środowiskowych (ekwiwalent pełnego czasu pracy ∙〖10〗^(-3); FTE)</v>
       </c>
     </row>
@@ -18269,87 +18165,87 @@
         <v>Austria</v>
       </c>
       <c r="B3">
-        <f>wzorzec!B3</f>
+        <f>wzorzec!B2</f>
         <v>11</v>
       </c>
       <c r="C3" s="12">
-        <f>wzorzec!C3</f>
+        <f>wzorzec!C2</f>
         <v>119.7</v>
       </c>
       <c r="D3" s="10">
-        <f>wzorzec!D3</f>
+        <f>wzorzec!D2</f>
         <v>376</v>
       </c>
       <c r="E3" s="10">
-        <f>wzorzec!E3</f>
+        <f>wzorzec!E2</f>
         <v>69.599999999999994</v>
       </c>
       <c r="F3" s="10">
-        <f>wzorzec!F3</f>
+        <f>wzorzec!F2</f>
         <v>2.5</v>
       </c>
       <c r="G3" s="10">
-        <f>wzorzec!G3</f>
+        <f>wzorzec!G2</f>
         <v>4.2</v>
       </c>
       <c r="H3" s="10">
-        <f>wzorzec!H3</f>
+        <f>wzorzec!H2</f>
         <v>21.6</v>
       </c>
       <c r="I3" s="10">
-        <f>wzorzec!I3</f>
+        <f>wzorzec!I2</f>
         <v>22.2</v>
       </c>
       <c r="J3" s="10">
-        <f>wzorzec!J3</f>
+        <f>wzorzec!J2</f>
         <v>-2</v>
       </c>
       <c r="K3" s="10">
-        <f>wzorzec!K3</f>
+        <f>wzorzec!K2</f>
         <v>600</v>
       </c>
       <c r="L3">
-        <f>wzorzec!L3</f>
+        <f>wzorzec!L2</f>
         <v>27.8</v>
       </c>
       <c r="M3">
-        <f>wzorzec!M3</f>
+        <f>wzorzec!M2</f>
         <v>18.100000000000001</v>
       </c>
       <c r="N3">
-        <f>wzorzec!N3</f>
+        <f>wzorzec!N2</f>
         <v>17.399999999999999</v>
       </c>
       <c r="O3">
-        <f>wzorzec!O3</f>
+        <f>wzorzec!O2</f>
         <v>2332</v>
       </c>
       <c r="P3">
-        <f>wzorzec!P3</f>
+        <f>wzorzec!P2</f>
         <v>0.33</v>
       </c>
       <c r="Q3">
-        <f>wzorzec!Q3</f>
+        <f>wzorzec!Q2</f>
         <v>2.35</v>
       </c>
       <c r="R3">
-        <f>wzorzec!R3</f>
+        <f>wzorzec!R2</f>
         <v>8.0299999999999994</v>
       </c>
       <c r="S3">
-        <f>wzorzec!S3</f>
+        <f>wzorzec!S2</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="T3" s="10">
-        <f>wzorzec!T3</f>
+        <f>wzorzec!T2</f>
         <v>8.5</v>
       </c>
       <c r="U3" s="10">
-        <f>wzorzec!U3</f>
+        <f>wzorzec!U2</f>
         <v>20.6</v>
       </c>
       <c r="V3" s="11">
-        <f>wzorzec!V3</f>
+        <f>wzorzec!V2</f>
         <v>167.7</v>
       </c>
     </row>
@@ -18359,87 +18255,87 @@
         <v>Belgia</v>
       </c>
       <c r="B4">
-        <f>wzorzec!B4</f>
+        <f>wzorzec!B3</f>
         <v>10</v>
       </c>
       <c r="C4" s="12">
-        <f>wzorzec!C4</f>
+        <f>wzorzec!C3</f>
         <v>99.2</v>
       </c>
       <c r="D4" s="10">
-        <f>wzorzec!D4</f>
+        <f>wzorzec!D3</f>
         <v>231.76190476190476</v>
       </c>
       <c r="E4" s="10">
-        <f>wzorzec!E4</f>
+        <f>wzorzec!E3</f>
         <v>81.099999999999994</v>
       </c>
       <c r="F4" s="10">
-        <f>wzorzec!F4</f>
+        <f>wzorzec!F3</f>
         <v>9</v>
       </c>
       <c r="G4" s="10">
-        <f>wzorzec!G4</f>
+        <f>wzorzec!G3</f>
         <v>4.3</v>
       </c>
       <c r="H4" s="10">
-        <f>wzorzec!H4</f>
+        <f>wzorzec!H3</f>
         <v>21</v>
       </c>
       <c r="I4" s="10">
-        <f>wzorzec!I4</f>
+        <f>wzorzec!I3</f>
         <v>16.8</v>
       </c>
       <c r="J4" s="10">
-        <f>wzorzec!J4</f>
+        <f>wzorzec!J3</f>
         <v>4</v>
       </c>
       <c r="K4" s="10">
-        <f>wzorzec!K4</f>
+        <f>wzorzec!K3</f>
         <v>479</v>
       </c>
       <c r="L4">
-        <f>wzorzec!L4</f>
+        <f>wzorzec!L3</f>
         <v>3.6</v>
       </c>
       <c r="M4">
-        <f>wzorzec!M4</f>
+        <f>wzorzec!M3</f>
         <v>7.8</v>
       </c>
       <c r="N4">
-        <f>wzorzec!N4</f>
+        <f>wzorzec!N3</f>
         <v>2.6</v>
       </c>
       <c r="O4">
-        <f>wzorzec!O4</f>
+        <f>wzorzec!O3</f>
         <v>2036</v>
       </c>
       <c r="P4">
-        <f>wzorzec!P4</f>
+        <f>wzorzec!P3</f>
         <v>0.41</v>
       </c>
       <c r="Q4">
-        <f>wzorzec!Q4</f>
+        <f>wzorzec!Q3</f>
         <v>2.14</v>
       </c>
       <c r="R4">
-        <f>wzorzec!R4</f>
+        <f>wzorzec!R3</f>
         <v>6.4</v>
       </c>
       <c r="S4">
-        <f>wzorzec!S4</f>
+        <f>wzorzec!S3</f>
         <v>0.17</v>
       </c>
       <c r="T4" s="10">
-        <f>wzorzec!T4</f>
+        <f>wzorzec!T3</f>
         <v>18</v>
       </c>
       <c r="U4" s="10">
-        <f>wzorzec!U4</f>
+        <f>wzorzec!U3</f>
         <v>20.8</v>
       </c>
       <c r="V4" s="11">
-        <f>wzorzec!V4</f>
+        <f>wzorzec!V3</f>
         <v>80.8</v>
       </c>
     </row>
@@ -18449,87 +18345,87 @@
         <v>Bułgaria</v>
       </c>
       <c r="B5">
-        <f>wzorzec!B5</f>
+        <f>wzorzec!B4</f>
         <v>30</v>
       </c>
       <c r="C5" s="12">
-        <f>wzorzec!C5</f>
+        <f>wzorzec!C4</f>
         <v>105.6</v>
       </c>
       <c r="D5" s="10">
-        <f>wzorzec!D5</f>
+        <f>wzorzec!D4</f>
         <v>22</v>
       </c>
       <c r="E5" s="10">
-        <f>wzorzec!E5</f>
+        <f>wzorzec!E4</f>
         <v>51.7</v>
       </c>
       <c r="F5" s="10">
-        <f>wzorzec!F5</f>
+        <f>wzorzec!F4</f>
         <v>76.3</v>
       </c>
       <c r="G5" s="10">
-        <f>wzorzec!G5</f>
+        <f>wzorzec!G4</f>
         <v>6.6</v>
       </c>
       <c r="H5" s="10">
-        <f>wzorzec!H5</f>
+        <f>wzorzec!H4</f>
         <v>16.899999999999999</v>
       </c>
       <c r="I5" s="10">
-        <f>wzorzec!I5</f>
+        <f>wzorzec!I4</f>
         <v>20.399999999999999</v>
       </c>
       <c r="J5" s="10">
-        <f>wzorzec!J5</f>
+        <f>wzorzec!J4</f>
         <v>-4</v>
       </c>
       <c r="K5" s="10">
-        <f>wzorzec!K5</f>
+        <f>wzorzec!K4</f>
         <v>599</v>
       </c>
       <c r="L5">
-        <f>wzorzec!L5</f>
+        <f>wzorzec!L4</f>
         <v>10.5</v>
       </c>
       <c r="M5">
-        <f>wzorzec!M5</f>
+        <f>wzorzec!M4</f>
         <v>23.2</v>
       </c>
       <c r="N5">
-        <f>wzorzec!N5</f>
+        <f>wzorzec!N4</f>
         <v>0.3</v>
       </c>
       <c r="O5">
-        <f>wzorzec!O5</f>
+        <f>wzorzec!O4</f>
         <v>373</v>
       </c>
       <c r="P5">
-        <f>wzorzec!P5</f>
+        <f>wzorzec!P4</f>
         <v>1.1100000000000001</v>
       </c>
       <c r="Q5">
-        <f>wzorzec!Q5</f>
+        <f>wzorzec!Q4</f>
         <v>3.28</v>
       </c>
       <c r="R5">
-        <f>wzorzec!R5</f>
+        <f>wzorzec!R4</f>
         <v>1</v>
       </c>
       <c r="S5">
-        <f>wzorzec!S5</f>
+        <f>wzorzec!S4</f>
         <v>0.26</v>
       </c>
       <c r="T5" s="10">
-        <f>wzorzec!T5</f>
+        <f>wzorzec!T4</f>
         <v>11.9</v>
       </c>
       <c r="U5" s="10">
-        <f>wzorzec!U5</f>
+        <f>wzorzec!U4</f>
         <v>44.8</v>
       </c>
       <c r="V5" s="11">
-        <f>wzorzec!V5</f>
+        <f>wzorzec!V4</f>
         <v>33.18</v>
       </c>
     </row>
@@ -18539,87 +18435,87 @@
         <v>Chorwacja</v>
       </c>
       <c r="B6">
-        <f>wzorzec!B6</f>
+        <f>wzorzec!B5</f>
         <v>37</v>
       </c>
       <c r="C6" s="12">
-        <f>wzorzec!C6</f>
+        <f>wzorzec!C5</f>
         <v>70</v>
       </c>
       <c r="D6" s="10">
-        <f>wzorzec!D6</f>
+        <f>wzorzec!D5</f>
         <v>490</v>
       </c>
       <c r="E6" s="10">
-        <f>wzorzec!E6</f>
+        <f>wzorzec!E5</f>
         <v>54.6</v>
       </c>
       <c r="F6" s="10">
-        <f>wzorzec!F6</f>
+        <f>wzorzec!F5</f>
         <v>12.5</v>
       </c>
       <c r="G6" s="10">
-        <f>wzorzec!G6</f>
+        <f>wzorzec!G5</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="H6" s="10">
-        <f>wzorzec!H6</f>
+        <f>wzorzec!H5</f>
         <v>9.8571428571428577</v>
       </c>
       <c r="I6" s="10">
-        <f>wzorzec!I6</f>
+        <f>wzorzec!I5</f>
         <v>15.6</v>
       </c>
       <c r="J6" s="10">
-        <f>wzorzec!J6</f>
+        <f>wzorzec!J5</f>
         <v>9</v>
       </c>
       <c r="K6" s="10">
-        <f>wzorzec!K6</f>
+        <f>wzorzec!K5</f>
         <v>415</v>
       </c>
       <c r="L6">
-        <f>wzorzec!L6</f>
+        <f>wzorzec!L5</f>
         <v>22</v>
       </c>
       <c r="M6">
-        <f>wzorzec!M6</f>
+        <f>wzorzec!M5</f>
         <v>26.3</v>
       </c>
       <c r="N6">
-        <f>wzorzec!N6</f>
+        <f>wzorzec!N5</f>
         <v>4.1100000000000003</v>
       </c>
       <c r="O6">
-        <f>wzorzec!O6</f>
+        <f>wzorzec!O5</f>
         <v>1348</v>
       </c>
       <c r="P6">
-        <f>wzorzec!P6</f>
+        <f>wzorzec!P5</f>
         <v>0.76</v>
       </c>
       <c r="Q6">
-        <f>wzorzec!Q6</f>
+        <f>wzorzec!Q5</f>
         <v>2.85</v>
       </c>
       <c r="R6">
-        <f>wzorzec!R6</f>
+        <f>wzorzec!R5</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>wzorzec!S6</f>
+        <f>wzorzec!S5</f>
         <v>0.22</v>
       </c>
       <c r="T6" s="10">
-        <f>wzorzec!T6</f>
+        <f>wzorzec!T5</f>
         <v>23.6</v>
       </c>
       <c r="U6" s="10">
-        <f>wzorzec!U6</f>
+        <f>wzorzec!U5</f>
         <v>30.357142857142861</v>
       </c>
       <c r="V6" s="11">
-        <f>wzorzec!V6</f>
+        <f>wzorzec!V5</f>
         <v>48.333333333333336</v>
       </c>
     </row>
@@ -18629,87 +18525,87 @@
         <v>Cypr</v>
       </c>
       <c r="B7">
-        <f>wzorzec!B7</f>
+        <f>wzorzec!B6</f>
         <v>7</v>
       </c>
       <c r="C7" s="12">
-        <f>wzorzec!C7</f>
+        <f>wzorzec!C6</f>
         <v>72.5</v>
       </c>
       <c r="D7" s="10">
-        <f>wzorzec!D7</f>
+        <f>wzorzec!D6</f>
         <v>232</v>
       </c>
       <c r="E7" s="10">
-        <f>wzorzec!E7</f>
+        <f>wzorzec!E6</f>
         <v>97.5</v>
       </c>
       <c r="F7" s="10">
-        <f>wzorzec!F7</f>
+        <f>wzorzec!F6</f>
         <v>28.5</v>
       </c>
       <c r="G7" s="10">
-        <f>wzorzec!G7</f>
+        <f>wzorzec!G6</f>
         <v>5</v>
       </c>
       <c r="H7" s="10">
-        <f>wzorzec!H7</f>
+        <f>wzorzec!H6</f>
         <v>29.7</v>
       </c>
       <c r="I7" s="10">
-        <f>wzorzec!I7</f>
+        <f>wzorzec!I6</f>
         <v>40.1</v>
       </c>
       <c r="J7" s="10">
-        <f>wzorzec!J7</f>
+        <f>wzorzec!J6</f>
         <v>33</v>
       </c>
       <c r="K7" s="10">
-        <f>wzorzec!K7</f>
+        <f>wzorzec!K6</f>
         <v>728</v>
       </c>
       <c r="L7">
-        <f>wzorzec!L7</f>
+        <f>wzorzec!L6</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="M7">
-        <f>wzorzec!M7</f>
+        <f>wzorzec!M6</f>
         <v>172.7</v>
       </c>
       <c r="N7">
-        <f>wzorzec!N7</f>
+        <f>wzorzec!N6</f>
         <v>1.6</v>
       </c>
       <c r="O7">
-        <f>wzorzec!O7</f>
+        <f>wzorzec!O6</f>
         <v>2476</v>
       </c>
       <c r="P7">
-        <f>wzorzec!P7</f>
+        <f>wzorzec!P6</f>
         <v>0.16</v>
       </c>
       <c r="Q7">
-        <f>wzorzec!Q7</f>
+        <f>wzorzec!Q6</f>
         <v>3.02</v>
       </c>
       <c r="R7">
-        <f>wzorzec!R7</f>
+        <f>wzorzec!R6</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>wzorzec!S7</f>
+        <f>wzorzec!S6</f>
         <v>0.09</v>
       </c>
       <c r="T7" s="10">
-        <f>wzorzec!T7</f>
+        <f>wzorzec!T6</f>
         <v>9</v>
       </c>
       <c r="U7" s="10">
-        <f>wzorzec!U7</f>
+        <f>wzorzec!U6</f>
         <v>23.3</v>
       </c>
       <c r="V7" s="11">
-        <f>wzorzec!V7</f>
+        <f>wzorzec!V6</f>
         <v>144.90352633826882</v>
       </c>
     </row>
@@ -18719,87 +18615,87 @@
         <v>Czechy</v>
       </c>
       <c r="B8">
-        <f>wzorzec!B8</f>
+        <f>wzorzec!B7</f>
         <v>9</v>
       </c>
       <c r="C8" s="12">
-        <f>wzorzec!C8</f>
+        <f>wzorzec!C7</f>
         <v>130.4</v>
       </c>
       <c r="D8" s="10">
-        <f>wzorzec!D8</f>
+        <f>wzorzec!D7</f>
         <v>8</v>
       </c>
       <c r="E8" s="10">
-        <f>wzorzec!E8</f>
+        <f>wzorzec!E7</f>
         <v>27.8</v>
       </c>
       <c r="F8" s="10">
-        <f>wzorzec!F8</f>
+        <f>wzorzec!F7</f>
         <v>16.3</v>
       </c>
       <c r="G8" s="10">
-        <f>wzorzec!G8</f>
+        <f>wzorzec!G7</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="H8" s="10">
-        <f>wzorzec!H8</f>
+        <f>wzorzec!H7</f>
         <v>17.600000000000001</v>
       </c>
       <c r="I8" s="10">
-        <f>wzorzec!I8</f>
+        <f>wzorzec!I7</f>
         <v>18.600000000000001</v>
       </c>
       <c r="J8" s="10">
-        <f>wzorzec!J8</f>
+        <f>wzorzec!J7</f>
         <v>0</v>
       </c>
       <c r="K8" s="10">
-        <f>wzorzec!K8</f>
+        <f>wzorzec!K7</f>
         <v>306</v>
       </c>
       <c r="L8">
-        <f>wzorzec!L8</f>
+        <f>wzorzec!L7</f>
         <v>8.6</v>
       </c>
       <c r="M8">
-        <f>wzorzec!M8</f>
+        <f>wzorzec!M7</f>
         <v>6.3</v>
       </c>
       <c r="N8">
-        <f>wzorzec!N8</f>
+        <f>wzorzec!N7</f>
         <v>9</v>
       </c>
       <c r="O8">
-        <f>wzorzec!O8</f>
+        <f>wzorzec!O7</f>
         <v>3394</v>
       </c>
       <c r="P8">
-        <f>wzorzec!P8</f>
+        <f>wzorzec!P7</f>
         <v>0.78</v>
       </c>
       <c r="Q8">
-        <f>wzorzec!Q8</f>
+        <f>wzorzec!Q7</f>
         <v>2.2599999999999998</v>
       </c>
       <c r="R8">
-        <f>wzorzec!R8</f>
+        <f>wzorzec!R7</f>
         <v>2.02</v>
       </c>
       <c r="S8">
-        <f>wzorzec!S8</f>
+        <f>wzorzec!S7</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T8" s="10">
-        <f>wzorzec!T8</f>
+        <f>wzorzec!T7</f>
         <v>9.9</v>
       </c>
       <c r="U8" s="10">
-        <f>wzorzec!U8</f>
+        <f>wzorzec!U7</f>
         <v>15.3</v>
       </c>
       <c r="V8" s="11">
-        <f>wzorzec!V8</f>
+        <f>wzorzec!V7</f>
         <v>106.25</v>
       </c>
     </row>
@@ -18809,87 +18705,87 @@
         <v>Dania</v>
       </c>
       <c r="B9">
-        <f>wzorzec!B9</f>
+        <f>wzorzec!B8</f>
         <v>7</v>
       </c>
       <c r="C9" s="12">
-        <f>wzorzec!C9</f>
+        <f>wzorzec!C8</f>
         <v>102.6</v>
       </c>
       <c r="D9" s="10">
-        <f>wzorzec!D9</f>
+        <f>wzorzec!D8</f>
         <v>231.76190476190476</v>
       </c>
       <c r="E9" s="10">
-        <f>wzorzec!E9</f>
+        <f>wzorzec!E8</f>
         <v>-20.100000000000001</v>
       </c>
       <c r="F9" s="10">
-        <f>wzorzec!F9</f>
+        <f>wzorzec!F8</f>
         <v>3.9</v>
       </c>
       <c r="G9" s="10">
-        <f>wzorzec!G9</f>
+        <f>wzorzec!G8</f>
         <v>7.3</v>
       </c>
       <c r="H9" s="10">
-        <f>wzorzec!H9</f>
+        <f>wzorzec!H8</f>
         <v>18.399999999999999</v>
       </c>
       <c r="I9" s="10">
-        <f>wzorzec!I9</f>
+        <f>wzorzec!I8</f>
         <v>27</v>
       </c>
       <c r="J9" s="10">
-        <f>wzorzec!J9</f>
+        <f>wzorzec!J8</f>
         <v>7</v>
       </c>
       <c r="K9" s="10">
-        <f>wzorzec!K9</f>
+        <f>wzorzec!K8</f>
         <v>830</v>
       </c>
       <c r="L9">
-        <f>wzorzec!L9</f>
+        <f>wzorzec!L8</f>
         <v>18.600000000000001</v>
       </c>
       <c r="M9">
-        <f>wzorzec!M9</f>
+        <f>wzorzec!M8</f>
         <v>2.8</v>
       </c>
       <c r="N9">
-        <f>wzorzec!N9</f>
+        <f>wzorzec!N8</f>
         <v>5.6</v>
       </c>
       <c r="O9">
-        <f>wzorzec!O9</f>
+        <f>wzorzec!O8</f>
         <v>4272</v>
       </c>
       <c r="P9">
-        <f>wzorzec!P9</f>
+        <f>wzorzec!P8</f>
         <v>0.41</v>
       </c>
       <c r="Q9">
-        <f>wzorzec!Q9</f>
+        <f>wzorzec!Q8</f>
         <v>4.17</v>
       </c>
       <c r="R9">
-        <f>wzorzec!R9</f>
+        <f>wzorzec!R8</f>
         <v>2.56</v>
       </c>
       <c r="S9">
-        <f>wzorzec!S9</f>
+        <f>wzorzec!S8</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T9" s="10">
-        <f>wzorzec!T9</f>
+        <f>wzorzec!T8</f>
         <v>8</v>
       </c>
       <c r="U9" s="10">
-        <f>wzorzec!U9</f>
+        <f>wzorzec!U8</f>
         <v>16.3</v>
       </c>
       <c r="V9" s="11">
-        <f>wzorzec!V9</f>
+        <f>wzorzec!V8</f>
         <v>68.575000000000003</v>
       </c>
     </row>
@@ -18899,87 +18795,87 @@
         <v>Estonia</v>
       </c>
       <c r="B10">
-        <f>wzorzec!B10</f>
+        <f>wzorzec!B9</f>
         <v>16</v>
       </c>
       <c r="C10" s="12">
-        <f>wzorzec!C10</f>
+        <f>wzorzec!C9</f>
         <v>102.4</v>
       </c>
       <c r="D10" s="10">
-        <f>wzorzec!D10</f>
+        <f>wzorzec!D9</f>
         <v>207</v>
       </c>
       <c r="E10" s="10">
-        <f>wzorzec!E10</f>
+        <f>wzorzec!E9</f>
         <v>24.7</v>
       </c>
       <c r="F10" s="10">
-        <f>wzorzec!F10</f>
+        <f>wzorzec!F9</f>
         <v>52</v>
       </c>
       <c r="G10" s="10">
-        <f>wzorzec!G10</f>
+        <f>wzorzec!G9</f>
         <v>14.2</v>
       </c>
       <c r="H10" s="10">
-        <f>wzorzec!H10</f>
+        <f>wzorzec!H9</f>
         <v>18</v>
       </c>
       <c r="I10" s="10">
-        <f>wzorzec!I10</f>
+        <f>wzorzec!I9</f>
         <v>26.4</v>
       </c>
       <c r="J10" s="10">
-        <f>wzorzec!J10</f>
+        <f>wzorzec!J9</f>
         <v>-5</v>
       </c>
       <c r="K10" s="10">
-        <f>wzorzec!K10</f>
+        <f>wzorzec!K9</f>
         <v>392</v>
       </c>
       <c r="L10">
-        <f>wzorzec!L10</f>
+        <f>wzorzec!L9</f>
         <v>18.899999999999999</v>
       </c>
       <c r="M10">
-        <f>wzorzec!M10</f>
+        <f>wzorzec!M9</f>
         <v>10.5</v>
       </c>
       <c r="N10">
-        <f>wzorzec!N10</f>
+        <f>wzorzec!N9</f>
         <v>9.6</v>
       </c>
       <c r="O10">
-        <f>wzorzec!O10</f>
+        <f>wzorzec!O9</f>
         <v>2343</v>
       </c>
       <c r="P10">
-        <f>wzorzec!P10</f>
+        <f>wzorzec!P9</f>
         <v>0.69</v>
       </c>
       <c r="Q10">
-        <f>wzorzec!Q10</f>
+        <f>wzorzec!Q9</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="R10">
-        <f>wzorzec!R10</f>
+        <f>wzorzec!R9</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>wzorzec!S10</f>
+        <f>wzorzec!S9</f>
         <v>0.15</v>
       </c>
       <c r="T10" s="10">
-        <f>wzorzec!T10</f>
+        <f>wzorzec!T9</f>
         <v>12</v>
       </c>
       <c r="U10" s="10">
-        <f>wzorzec!U10</f>
+        <f>wzorzec!U9</f>
         <v>21.8</v>
       </c>
       <c r="V10" s="11">
-        <f>wzorzec!V10</f>
+        <f>wzorzec!V9</f>
         <v>28.25</v>
       </c>
     </row>
@@ -18989,87 +18885,87 @@
         <v>Finlandia</v>
       </c>
       <c r="B11">
-        <f>wzorzec!B11</f>
+        <f>wzorzec!B10</f>
         <v>13</v>
       </c>
       <c r="C11" s="12">
-        <f>wzorzec!C11</f>
+        <f>wzorzec!C10</f>
         <v>105.4</v>
       </c>
       <c r="D11" s="10">
-        <f>wzorzec!D11</f>
+        <f>wzorzec!D10</f>
         <v>231.76190476190476</v>
       </c>
       <c r="E11" s="10">
-        <f>wzorzec!E11</f>
+        <f>wzorzec!E10</f>
         <v>54.1</v>
       </c>
       <c r="F11" s="10">
-        <f>wzorzec!F11</f>
+        <f>wzorzec!F10</f>
         <v>13.2</v>
       </c>
       <c r="G11" s="10">
-        <f>wzorzec!G11</f>
+        <f>wzorzec!G10</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="H11" s="10">
-        <f>wzorzec!H11</f>
+        <f>wzorzec!H10</f>
         <v>15.5</v>
       </c>
       <c r="I11" s="10">
-        <f>wzorzec!I11</f>
+        <f>wzorzec!I10</f>
         <v>39</v>
       </c>
       <c r="J11" s="10">
-        <f>wzorzec!J11</f>
+        <f>wzorzec!J10</f>
         <v>5</v>
       </c>
       <c r="K11" s="10">
-        <f>wzorzec!K11</f>
+        <f>wzorzec!K10</f>
         <v>521</v>
       </c>
       <c r="L11">
-        <f>wzorzec!L11</f>
+        <f>wzorzec!L10</f>
         <v>31.3</v>
       </c>
       <c r="M11">
-        <f>wzorzec!M11</f>
+        <f>wzorzec!M10</f>
         <v>53.5</v>
       </c>
       <c r="N11">
-        <f>wzorzec!N11</f>
+        <f>wzorzec!N10</f>
         <v>6.5</v>
       </c>
       <c r="O11">
-        <f>wzorzec!O11</f>
+        <f>wzorzec!O10</f>
         <v>486</v>
       </c>
       <c r="P11">
-        <f>wzorzec!P11</f>
+        <f>wzorzec!P10</f>
         <v>0.39</v>
       </c>
       <c r="Q11">
-        <f>wzorzec!Q11</f>
+        <f>wzorzec!Q10</f>
         <v>2.6</v>
       </c>
       <c r="R11">
-        <f>wzorzec!R11</f>
+        <f>wzorzec!R10</f>
         <v>5.3</v>
       </c>
       <c r="S11">
-        <f>wzorzec!S11</f>
+        <f>wzorzec!S10</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T11" s="10">
-        <f>wzorzec!T11</f>
+        <f>wzorzec!T10</f>
         <v>16.5</v>
       </c>
       <c r="U11" s="10">
-        <f>wzorzec!U11</f>
+        <f>wzorzec!U10</f>
         <v>17.399999999999999</v>
       </c>
       <c r="V11" s="11">
-        <f>wzorzec!V11</f>
+        <f>wzorzec!V10</f>
         <v>132.69999999999999</v>
       </c>
     </row>
@@ -19079,87 +18975,87 @@
         <v>Francja</v>
       </c>
       <c r="B12">
-        <f>wzorzec!B12</f>
+        <f>wzorzec!B11</f>
         <v>8</v>
       </c>
       <c r="C12" s="12">
-        <f>wzorzec!C12</f>
+        <f>wzorzec!C11</f>
         <v>113.3</v>
       </c>
       <c r="D12" s="10">
-        <f>wzorzec!D12</f>
+        <f>wzorzec!D11</f>
         <v>853</v>
       </c>
       <c r="E12" s="10">
-        <f>wzorzec!E12</f>
+        <f>wzorzec!E11</f>
         <v>50.6</v>
       </c>
       <c r="F12" s="10">
-        <f>wzorzec!F12</f>
+        <f>wzorzec!F11</f>
         <v>5.4</v>
       </c>
       <c r="G12" s="10">
-        <f>wzorzec!G12</f>
+        <f>wzorzec!G11</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="H12" s="10">
-        <f>wzorzec!H12</f>
+        <f>wzorzec!H11</f>
         <v>17.8</v>
       </c>
       <c r="I12" s="10">
-        <f>wzorzec!I12</f>
+        <f>wzorzec!I11</f>
         <v>13.9</v>
       </c>
       <c r="J12" s="10">
-        <f>wzorzec!J12</f>
+        <f>wzorzec!J11</f>
         <v>4</v>
       </c>
       <c r="K12" s="10">
-        <f>wzorzec!K12</f>
+        <f>wzorzec!K11</f>
         <v>541</v>
       </c>
       <c r="L12">
-        <f>wzorzec!L12</f>
+        <f>wzorzec!L11</f>
         <v>11.3</v>
       </c>
       <c r="M12">
-        <f>wzorzec!M12</f>
+        <f>wzorzec!M11</f>
         <v>126.9</v>
       </c>
       <c r="N12">
-        <f>wzorzec!N12</f>
+        <f>wzorzec!N11</f>
         <v>2</v>
       </c>
       <c r="O12">
-        <f>wzorzec!O12</f>
+        <f>wzorzec!O11</f>
         <v>1587</v>
       </c>
       <c r="P12">
-        <f>wzorzec!P12</f>
+        <f>wzorzec!P11</f>
         <v>0.53999999999999992</v>
       </c>
       <c r="Q12">
-        <f>wzorzec!Q12</f>
+        <f>wzorzec!Q11</f>
         <v>1.84</v>
       </c>
       <c r="R12">
-        <f>wzorzec!R12</f>
+        <f>wzorzec!R11</f>
         <v>38.909999999999997</v>
       </c>
       <c r="S12">
-        <f>wzorzec!S12</f>
+        <f>wzorzec!S11</f>
         <v>0.33</v>
       </c>
       <c r="T12" s="10">
-        <f>wzorzec!T12</f>
+        <f>wzorzec!T11</f>
         <v>19</v>
       </c>
       <c r="U12" s="10">
-        <f>wzorzec!U12</f>
+        <f>wzorzec!U11</f>
         <v>18.5</v>
       </c>
       <c r="V12" s="11">
-        <f>wzorzec!V12</f>
+        <f>wzorzec!V11</f>
         <v>393.4</v>
       </c>
     </row>
@@ -19169,87 +19065,87 @@
         <v>Grecja</v>
       </c>
       <c r="B13">
-        <f>wzorzec!B13</f>
+        <f>wzorzec!B12</f>
         <v>16</v>
       </c>
       <c r="C13" s="12">
-        <f>wzorzec!C13</f>
+        <f>wzorzec!C12</f>
         <v>86.7</v>
       </c>
       <c r="D13" s="10">
-        <f>wzorzec!D13</f>
+        <f>wzorzec!D12</f>
         <v>205</v>
       </c>
       <c r="E13" s="10">
-        <f>wzorzec!E13</f>
+        <f>wzorzec!E12</f>
         <v>73.3</v>
       </c>
       <c r="F13" s="10">
-        <f>wzorzec!F13</f>
+        <f>wzorzec!F12</f>
         <v>40.1</v>
       </c>
       <c r="G13" s="10">
-        <f>wzorzec!G13</f>
+        <f>wzorzec!G12</f>
         <v>9.4</v>
       </c>
       <c r="H13" s="10">
-        <f>wzorzec!H13</f>
+        <f>wzorzec!H12</f>
         <v>22.3</v>
       </c>
       <c r="I13" s="10">
-        <f>wzorzec!I13</f>
+        <f>wzorzec!I12</f>
         <v>21</v>
       </c>
       <c r="J13" s="10">
-        <f>wzorzec!J13</f>
+        <f>wzorzec!J12</f>
         <v>2</v>
       </c>
       <c r="K13" s="10">
-        <f>wzorzec!K13</f>
+        <f>wzorzec!K12</f>
         <v>458</v>
       </c>
       <c r="L13">
-        <f>wzorzec!L13</f>
+        <f>wzorzec!L12</f>
         <v>8</v>
       </c>
       <c r="M13">
-        <f>wzorzec!M13</f>
+        <f>wzorzec!M12</f>
         <v>11.2</v>
       </c>
       <c r="N13">
-        <f>wzorzec!N13</f>
+        <f>wzorzec!N12</f>
         <v>7.8</v>
       </c>
       <c r="O13">
-        <f>wzorzec!O13</f>
+        <f>wzorzec!O12</f>
         <v>3219</v>
       </c>
       <c r="P13">
-        <f>wzorzec!P13</f>
+        <f>wzorzec!P12</f>
         <v>0.41</v>
       </c>
       <c r="Q13">
-        <f>wzorzec!Q13</f>
+        <f>wzorzec!Q12</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="R13">
-        <f>wzorzec!R13</f>
+        <f>wzorzec!R12</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>wzorzec!S13</f>
+        <f>wzorzec!S12</f>
         <v>0.23</v>
       </c>
       <c r="T13" s="10">
-        <f>wzorzec!T13</f>
+        <f>wzorzec!T12</f>
         <v>21.9</v>
       </c>
       <c r="U13" s="10">
-        <f>wzorzec!U13</f>
+        <f>wzorzec!U12</f>
         <v>28.1</v>
       </c>
       <c r="V13" s="11">
-        <f>wzorzec!V13</f>
+        <f>wzorzec!V12</f>
         <v>145.53229055046864</v>
       </c>
     </row>
@@ -19259,87 +19155,87 @@
         <v>Hiszpania</v>
       </c>
       <c r="B14">
-        <f>wzorzec!B14</f>
+        <f>wzorzec!B13</f>
         <v>23</v>
       </c>
       <c r="C14" s="12">
-        <f>wzorzec!C14</f>
+        <f>wzorzec!C13</f>
         <v>109.7</v>
       </c>
       <c r="D14" s="10">
-        <f>wzorzec!D14</f>
+        <f>wzorzec!D13</f>
         <v>84</v>
       </c>
       <c r="E14" s="10">
-        <f>wzorzec!E14</f>
+        <f>wzorzec!E13</f>
         <v>81.3</v>
       </c>
       <c r="F14" s="10">
-        <f>wzorzec!F14</f>
+        <f>wzorzec!F13</f>
         <v>11</v>
       </c>
       <c r="G14" s="10">
-        <f>wzorzec!G14</f>
+        <f>wzorzec!G13</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="H14" s="10">
-        <f>wzorzec!H14</f>
+        <f>wzorzec!H13</f>
         <v>22</v>
       </c>
       <c r="I14" s="10">
-        <f>wzorzec!I14</f>
+        <f>wzorzec!I13</f>
         <v>17.7</v>
       </c>
       <c r="J14" s="10">
-        <f>wzorzec!J14</f>
+        <f>wzorzec!J13</f>
         <v>-2</v>
       </c>
       <c r="K14" s="10">
-        <f>wzorzec!K14</f>
+        <f>wzorzec!K13</f>
         <v>551</v>
       </c>
       <c r="L14">
-        <f>wzorzec!L14</f>
+        <f>wzorzec!L13</f>
         <v>10.8</v>
       </c>
       <c r="M14">
-        <f>wzorzec!M14</f>
+        <f>wzorzec!M13</f>
         <v>106.7</v>
       </c>
       <c r="N14">
-        <f>wzorzec!N14</f>
+        <f>wzorzec!N13</f>
         <v>5.3</v>
       </c>
       <c r="O14">
-        <f>wzorzec!O14</f>
+        <f>wzorzec!O13</f>
         <v>163</v>
       </c>
       <c r="P14">
-        <f>wzorzec!P14</f>
+        <f>wzorzec!P13</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="Q14">
-        <f>wzorzec!Q14</f>
+        <f>wzorzec!Q13</f>
         <v>1.63</v>
       </c>
       <c r="R14">
-        <f>wzorzec!R14</f>
+        <f>wzorzec!R13</f>
         <v>19.260000000000002</v>
       </c>
       <c r="S14">
-        <f>wzorzec!S14</f>
+        <f>wzorzec!S13</f>
         <v>0.24</v>
       </c>
       <c r="T14" s="10">
-        <f>wzorzec!T14</f>
+        <f>wzorzec!T13</f>
         <v>24.5</v>
       </c>
       <c r="U14" s="10">
-        <f>wzorzec!U14</f>
+        <f>wzorzec!U13</f>
         <v>23.8</v>
       </c>
       <c r="V14" s="11">
-        <f>wzorzec!V14</f>
+        <f>wzorzec!V13</f>
         <v>259.75</v>
       </c>
     </row>
@@ -19349,87 +19245,87 @@
         <v>Holandia</v>
       </c>
       <c r="B15">
-        <f>wzorzec!B15</f>
+        <f>wzorzec!B14</f>
         <v>8</v>
       </c>
       <c r="C15" s="12">
-        <f>wzorzec!C15</f>
+        <f>wzorzec!C14</f>
         <v>115.3</v>
       </c>
       <c r="D15" s="10">
-        <f>wzorzec!D15</f>
+        <f>wzorzec!D14</f>
         <v>1</v>
       </c>
       <c r="E15" s="10">
-        <f>wzorzec!E15</f>
+        <f>wzorzec!E14</f>
         <v>34.299999999999997</v>
       </c>
       <c r="F15" s="10">
-        <f>wzorzec!F15</f>
+        <f>wzorzec!F14</f>
         <v>3.1</v>
       </c>
       <c r="G15" s="10">
-        <f>wzorzec!G15</f>
+        <f>wzorzec!G14</f>
         <v>2</v>
       </c>
       <c r="H15" s="10">
-        <f>wzorzec!H15</f>
+        <f>wzorzec!H14</f>
         <v>29.3</v>
       </c>
       <c r="I15" s="10">
-        <f>wzorzec!I15</f>
+        <f>wzorzec!I14</f>
         <v>12.3</v>
       </c>
       <c r="J15" s="10">
-        <f>wzorzec!J15</f>
+        <f>wzorzec!J14</f>
         <v>8</v>
       </c>
       <c r="K15" s="10">
-        <f>wzorzec!K15</f>
+        <f>wzorzec!K14</f>
         <v>600</v>
       </c>
       <c r="L15">
-        <f>wzorzec!L15</f>
+        <f>wzorzec!L14</f>
         <v>3.6</v>
       </c>
       <c r="M15">
-        <f>wzorzec!M15</f>
+        <f>wzorzec!M14</f>
         <v>0.4</v>
       </c>
       <c r="N15">
-        <f>wzorzec!N15</f>
+        <f>wzorzec!N14</f>
         <v>2.6</v>
       </c>
       <c r="O15">
-        <f>wzorzec!O15</f>
+        <f>wzorzec!O14</f>
         <v>1535</v>
       </c>
       <c r="P15">
-        <f>wzorzec!P15</f>
+        <f>wzorzec!P14</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="Q15">
-        <f>wzorzec!Q15</f>
+        <f>wzorzec!Q14</f>
         <v>3.48</v>
       </c>
       <c r="R15">
-        <f>wzorzec!R15</f>
+        <f>wzorzec!R14</f>
         <v>8.9</v>
       </c>
       <c r="S15">
-        <f>wzorzec!S15</f>
+        <f>wzorzec!S14</f>
         <v>0.2</v>
       </c>
       <c r="T15" s="10">
-        <f>wzorzec!T15</f>
+        <f>wzorzec!T14</f>
         <v>8.6</v>
       </c>
       <c r="U15" s="10">
-        <f>wzorzec!U15</f>
+        <f>wzorzec!U14</f>
         <v>14.9</v>
       </c>
       <c r="V15" s="11">
-        <f>wzorzec!V15</f>
+        <f>wzorzec!V14</f>
         <v>130.75</v>
       </c>
     </row>
@@ -19439,87 +19335,87 @@
         <v>Irlandia</v>
       </c>
       <c r="B16">
-        <f>wzorzec!B16</f>
+        <f>wzorzec!B15</f>
         <v>11</v>
       </c>
       <c r="C16" s="12">
-        <f>wzorzec!C16</f>
+        <f>wzorzec!C15</f>
         <v>111.6</v>
       </c>
       <c r="D16" s="10">
-        <f>wzorzec!D16</f>
+        <f>wzorzec!D15</f>
         <v>98</v>
       </c>
       <c r="E16" s="10">
-        <f>wzorzec!E16</f>
+        <f>wzorzec!E15</f>
         <v>90.4</v>
       </c>
       <c r="F16" s="10">
-        <f>wzorzec!F16</f>
+        <f>wzorzec!F15</f>
         <v>10.6</v>
       </c>
       <c r="G16" s="10">
-        <f>wzorzec!G16</f>
+        <f>wzorzec!G15</f>
         <v>6.3</v>
       </c>
       <c r="H16" s="10">
-        <f>wzorzec!H16</f>
+        <f>wzorzec!H15</f>
         <v>12</v>
       </c>
       <c r="I16" s="10">
-        <f>wzorzec!I16</f>
+        <f>wzorzec!I15</f>
         <v>35.799999999999997</v>
       </c>
       <c r="J16" s="10">
-        <f>wzorzec!J16</f>
+        <f>wzorzec!J15</f>
         <v>1</v>
       </c>
       <c r="K16" s="10">
-        <f>wzorzec!K16</f>
+        <f>wzorzec!K15</f>
         <v>718</v>
       </c>
       <c r="L16">
-        <f>wzorzec!L16</f>
+        <f>wzorzec!L15</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="M16">
-        <f>wzorzec!M16</f>
+        <f>wzorzec!M15</f>
         <v>11.1</v>
       </c>
       <c r="N16">
-        <f>wzorzec!N16</f>
+        <f>wzorzec!N15</f>
         <v>1</v>
       </c>
       <c r="O16">
-        <f>wzorzec!O16</f>
+        <f>wzorzec!O15</f>
         <v>957</v>
       </c>
       <c r="P16">
-        <f>wzorzec!P16</f>
+        <f>wzorzec!P15</f>
         <v>0.41</v>
       </c>
       <c r="Q16">
-        <f>wzorzec!Q16</f>
+        <f>wzorzec!Q15</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="R16">
-        <f>wzorzec!R16</f>
+        <f>wzorzec!R15</f>
         <v>3.85</v>
       </c>
       <c r="S16">
-        <f>wzorzec!S16</f>
+        <f>wzorzec!S15</f>
         <v>0.09</v>
       </c>
       <c r="T16" s="10">
-        <f>wzorzec!T16</f>
+        <f>wzorzec!T15</f>
         <v>13.5</v>
       </c>
       <c r="U16" s="10">
-        <f>wzorzec!U16</f>
+        <f>wzorzec!U15</f>
         <v>23.7</v>
       </c>
       <c r="V16" s="11">
-        <f>wzorzec!V16</f>
+        <f>wzorzec!V15</f>
         <v>21.266666666666666</v>
       </c>
     </row>
@@ -19529,87 +19425,87 @@
         <v>Litwa</v>
       </c>
       <c r="B17">
-        <f>wzorzec!B17</f>
+        <f>wzorzec!B16</f>
         <v>10</v>
       </c>
       <c r="C17" s="12">
-        <f>wzorzec!C17</f>
+        <f>wzorzec!C16</f>
         <v>99.6</v>
       </c>
       <c r="D17" s="10">
-        <f>wzorzec!D17</f>
+        <f>wzorzec!D16</f>
         <v>158</v>
       </c>
       <c r="E17" s="10">
-        <f>wzorzec!E17</f>
+        <f>wzorzec!E16</f>
         <v>57.8</v>
       </c>
       <c r="F17" s="10">
-        <f>wzorzec!F17</f>
+        <f>wzorzec!F16</f>
         <v>7.1</v>
       </c>
       <c r="G17" s="10">
-        <f>wzorzec!G17</f>
+        <f>wzorzec!G16</f>
         <v>9</v>
       </c>
       <c r="H17" s="10">
-        <f>wzorzec!H17</f>
+        <f>wzorzec!H16</f>
         <v>16.399999999999999</v>
       </c>
       <c r="I17" s="10">
-        <f>wzorzec!I17</f>
+        <f>wzorzec!I16</f>
         <v>16.2</v>
       </c>
       <c r="J17" s="10">
-        <f>wzorzec!J17</f>
+        <f>wzorzec!J16</f>
         <v>6</v>
       </c>
       <c r="K17" s="10">
-        <f>wzorzec!K17</f>
+        <f>wzorzec!K16</f>
         <v>428</v>
       </c>
       <c r="L17">
-        <f>wzorzec!L17</f>
+        <f>wzorzec!L16</f>
         <v>17.8</v>
       </c>
       <c r="M17">
-        <f>wzorzec!M17</f>
+        <f>wzorzec!M16</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="N17">
-        <f>wzorzec!N17</f>
+        <f>wzorzec!N16</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="O17">
-        <f>wzorzec!O17</f>
+        <f>wzorzec!O16</f>
         <v>305</v>
       </c>
       <c r="P17">
-        <f>wzorzec!P17</f>
+        <f>wzorzec!P16</f>
         <v>0.37</v>
       </c>
       <c r="Q17">
-        <f>wzorzec!Q17</f>
+        <f>wzorzec!Q16</f>
         <v>1.63</v>
       </c>
       <c r="R17">
-        <f>wzorzec!R17</f>
+        <f>wzorzec!R16</f>
         <v>1</v>
       </c>
       <c r="S17">
-        <f>wzorzec!S17</f>
+        <f>wzorzec!S16</f>
         <v>0.18</v>
       </c>
       <c r="T17" s="10">
-        <f>wzorzec!T17</f>
+        <f>wzorzec!T16</f>
         <v>13.3</v>
       </c>
       <c r="U17" s="10">
-        <f>wzorzec!U17</f>
+        <f>wzorzec!U16</f>
         <v>28.3</v>
       </c>
       <c r="V17" s="11">
-        <f>wzorzec!V17</f>
+        <f>wzorzec!V16</f>
         <v>36.933333333333337</v>
       </c>
     </row>
@@ -19619,87 +19515,87 @@
         <v>Luksemburg</v>
       </c>
       <c r="B18">
-        <f>wzorzec!B18</f>
+        <f>wzorzec!B17</f>
         <v>15</v>
       </c>
       <c r="C18" s="12">
-        <f>wzorzec!C18</f>
+        <f>wzorzec!C17</f>
         <v>130.69999999999999</v>
       </c>
       <c r="D18" s="10">
-        <f>wzorzec!D18</f>
+        <f>wzorzec!D17</f>
         <v>157</v>
       </c>
       <c r="E18" s="10">
-        <f>wzorzec!E18</f>
+        <f>wzorzec!E17</f>
         <v>97.5</v>
       </c>
       <c r="F18" s="10">
-        <f>wzorzec!F18</f>
+        <f>wzorzec!F17</f>
         <v>3.5</v>
       </c>
       <c r="G18" s="10">
-        <f>wzorzec!G18</f>
+        <f>wzorzec!G17</f>
         <v>5.3</v>
       </c>
       <c r="H18" s="10">
-        <f>wzorzec!H18</f>
+        <f>wzorzec!H17</f>
         <v>20</v>
       </c>
       <c r="I18" s="10">
-        <f>wzorzec!I18</f>
+        <f>wzorzec!I17</f>
         <v>22.7</v>
       </c>
       <c r="J18" s="10">
-        <f>wzorzec!J18</f>
+        <f>wzorzec!J17</f>
         <v>4</v>
       </c>
       <c r="K18" s="10">
-        <f>wzorzec!K18</f>
+        <f>wzorzec!K17</f>
         <v>697</v>
       </c>
       <c r="L18">
-        <f>wzorzec!L18</f>
+        <f>wzorzec!L17</f>
         <v>2.8</v>
       </c>
       <c r="M18">
-        <f>wzorzec!M18</f>
+        <f>wzorzec!M17</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="N18">
-        <f>wzorzec!N18</f>
+        <f>wzorzec!N17</f>
         <v>2.7</v>
       </c>
       <c r="O18">
-        <f>wzorzec!O18</f>
+        <f>wzorzec!O17</f>
         <v>487</v>
       </c>
       <c r="P18">
-        <f>wzorzec!P18</f>
+        <f>wzorzec!P17</f>
         <v>0.41</v>
       </c>
       <c r="Q18">
-        <f>wzorzec!Q18</f>
+        <f>wzorzec!Q17</f>
         <v>2.59</v>
       </c>
       <c r="R18">
-        <f>wzorzec!R18</f>
+        <f>wzorzec!R17</f>
         <v>0.83</v>
       </c>
       <c r="S18">
-        <f>wzorzec!S18</f>
+        <f>wzorzec!S17</f>
         <v>0.26</v>
       </c>
       <c r="T18" s="10">
-        <f>wzorzec!T18</f>
+        <f>wzorzec!T17</f>
         <v>17.3</v>
       </c>
       <c r="U18" s="10">
-        <f>wzorzec!U18</f>
+        <f>wzorzec!U17</f>
         <v>15.5</v>
       </c>
       <c r="V18" s="11">
-        <f>wzorzec!V18</f>
+        <f>wzorzec!V17</f>
         <v>10</v>
       </c>
     </row>
@@ -19709,87 +19605,87 @@
         <v>Łotwa</v>
       </c>
       <c r="B19">
-        <f>wzorzec!B19</f>
+        <f>wzorzec!B18</f>
         <v>11</v>
       </c>
       <c r="C19" s="12">
-        <f>wzorzec!C19</f>
+        <f>wzorzec!C18</f>
         <v>147.5</v>
       </c>
       <c r="D19" s="10">
-        <f>wzorzec!D19</f>
+        <f>wzorzec!D18</f>
         <v>2</v>
       </c>
       <c r="E19" s="10">
-        <f>wzorzec!E19</f>
+        <f>wzorzec!E18</f>
         <v>58.8</v>
       </c>
       <c r="F19" s="10">
-        <f>wzorzec!F19</f>
+        <f>wzorzec!F18</f>
         <v>3</v>
       </c>
       <c r="G19" s="10">
-        <f>wzorzec!G19</f>
+        <f>wzorzec!G18</f>
         <v>12.2</v>
       </c>
       <c r="H19" s="10">
-        <f>wzorzec!H19</f>
+        <f>wzorzec!H18</f>
         <v>20.6</v>
       </c>
       <c r="I19" s="10">
-        <f>wzorzec!I19</f>
+        <f>wzorzec!I18</f>
         <v>19.100000000000001</v>
       </c>
       <c r="J19" s="10">
-        <f>wzorzec!J19</f>
+        <f>wzorzec!J18</f>
         <v>1</v>
       </c>
       <c r="K19" s="10">
-        <f>wzorzec!K19</f>
+        <f>wzorzec!K18</f>
         <v>345</v>
       </c>
       <c r="L19">
-        <f>wzorzec!L19</f>
+        <f>wzorzec!L18</f>
         <v>29.8</v>
       </c>
       <c r="M19">
-        <f>wzorzec!M19</f>
+        <f>wzorzec!M18</f>
         <v>18.5</v>
       </c>
       <c r="N19">
-        <f>wzorzec!N19</f>
+        <f>wzorzec!N18</f>
         <v>8.9</v>
       </c>
       <c r="O19">
-        <f>wzorzec!O19</f>
+        <f>wzorzec!O18</f>
         <v>10947</v>
       </c>
       <c r="P19">
-        <f>wzorzec!P19</f>
+        <f>wzorzec!P18</f>
         <v>0.47</v>
       </c>
       <c r="Q19">
-        <f>wzorzec!Q19</f>
+        <f>wzorzec!Q18</f>
         <v>2.08</v>
       </c>
       <c r="R19">
-        <f>wzorzec!R19</f>
+        <f>wzorzec!R18</f>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>wzorzec!S19</f>
+        <f>wzorzec!S18</f>
         <v>0.16</v>
       </c>
       <c r="T19" s="10">
-        <f>wzorzec!T19</f>
+        <f>wzorzec!T18</f>
         <v>13.6</v>
       </c>
       <c r="U19" s="10">
-        <f>wzorzec!U19</f>
+        <f>wzorzec!U18</f>
         <v>34.200000000000003</v>
       </c>
       <c r="V19" s="11">
-        <f>wzorzec!V19</f>
+        <f>wzorzec!V18</f>
         <v>27.4</v>
       </c>
     </row>
@@ -19799,87 +19695,87 @@
         <v>Malta</v>
       </c>
       <c r="B20">
-        <f>wzorzec!B20</f>
+        <f>wzorzec!B19</f>
         <v>13</v>
       </c>
       <c r="C20" s="12">
-        <f>wzorzec!C20</f>
+        <f>wzorzec!C19</f>
         <v>139.80000000000001</v>
       </c>
       <c r="D20" s="10">
-        <f>wzorzec!D20</f>
+        <f>wzorzec!D19</f>
         <v>231.76190476190473</v>
       </c>
       <c r="E20" s="10">
-        <f>wzorzec!E20</f>
+        <f>wzorzec!E19</f>
         <v>100</v>
       </c>
       <c r="F20" s="10">
-        <f>wzorzec!F20</f>
+        <f>wzorzec!F19</f>
         <v>26.3</v>
       </c>
       <c r="G20" s="10">
-        <f>wzorzec!G20</f>
+        <f>wzorzec!G19</f>
         <v>5.4</v>
       </c>
       <c r="H20" s="10">
-        <f>wzorzec!H20</f>
+        <f>wzorzec!H19</f>
         <v>24.5</v>
       </c>
       <c r="I20" s="10">
-        <f>wzorzec!I20</f>
+        <f>wzorzec!I19</f>
         <v>7.7</v>
       </c>
       <c r="J20" s="10">
-        <f>wzorzec!J20</f>
+        <f>wzorzec!J19</f>
         <v>43</v>
       </c>
       <c r="K20" s="10">
-        <f>wzorzec!K20</f>
+        <f>wzorzec!K19</f>
         <v>674</v>
       </c>
       <c r="L20">
-        <f>wzorzec!L20</f>
+        <f>wzorzec!L19</f>
         <v>0.2</v>
       </c>
       <c r="M20">
-        <f>wzorzec!M20</f>
+        <f>wzorzec!M19</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>wzorzec!N20</f>
+        <f>wzorzec!N19</f>
         <v>0.4</v>
       </c>
       <c r="O20">
-        <f>wzorzec!O20</f>
+        <f>wzorzec!O19</f>
         <v>618</v>
       </c>
       <c r="P20">
-        <f>wzorzec!P20</f>
+        <f>wzorzec!P19</f>
         <v>0.41</v>
       </c>
       <c r="Q20">
-        <f>wzorzec!Q20</f>
+        <f>wzorzec!Q19</f>
         <v>3.26</v>
       </c>
       <c r="R20">
-        <f>wzorzec!R20</f>
+        <f>wzorzec!R19</f>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>wzorzec!S20</f>
+        <f>wzorzec!S19</f>
         <v>0.02</v>
       </c>
       <c r="T20" s="10">
-        <f>wzorzec!T20</f>
+        <f>wzorzec!T19</f>
         <v>12.4</v>
       </c>
       <c r="U20" s="10">
-        <f>wzorzec!U20</f>
+        <f>wzorzec!U19</f>
         <v>20.100000000000001</v>
       </c>
       <c r="V20" s="11">
-        <f>wzorzec!V20</f>
+        <f>wzorzec!V19</f>
         <v>143.91419305977459</v>
       </c>
     </row>
@@ -19889,87 +19785,87 @@
         <v>Niemcy</v>
       </c>
       <c r="B21">
-        <f>wzorzec!B21</f>
+        <f>wzorzec!B20</f>
         <v>10</v>
       </c>
       <c r="C21" s="12">
-        <f>wzorzec!C21</f>
+        <f>wzorzec!C20</f>
         <v>121.9</v>
       </c>
       <c r="D21" s="10">
-        <f>wzorzec!D21</f>
+        <f>wzorzec!D20</f>
         <v>691</v>
       </c>
       <c r="E21" s="10">
-        <f>wzorzec!E21</f>
+        <f>wzorzec!E20</f>
         <v>61</v>
       </c>
       <c r="F21" s="10">
-        <f>wzorzec!F21</f>
+        <f>wzorzec!F20</f>
         <v>5.5</v>
       </c>
       <c r="G21" s="10">
-        <f>wzorzec!G21</f>
+        <f>wzorzec!G20</f>
         <v>2.8</v>
       </c>
       <c r="H21" s="10">
-        <f>wzorzec!H21</f>
+        <f>wzorzec!H20</f>
         <v>26.3</v>
       </c>
       <c r="I21" s="10">
-        <f>wzorzec!I21</f>
+        <f>wzorzec!I20</f>
         <v>16.2</v>
       </c>
       <c r="J21" s="10">
-        <f>wzorzec!J21</f>
+        <f>wzorzec!J20</f>
         <v>-1</v>
       </c>
       <c r="K21" s="10">
-        <f>wzorzec!K21</f>
+        <f>wzorzec!K20</f>
         <v>589</v>
       </c>
       <c r="L21">
-        <f>wzorzec!L21</f>
+        <f>wzorzec!L20</f>
         <v>8.6</v>
       </c>
       <c r="M21">
-        <f>wzorzec!M21</f>
+        <f>wzorzec!M20</f>
         <v>26.1</v>
       </c>
       <c r="N21">
-        <f>wzorzec!N21</f>
+        <f>wzorzec!N20</f>
         <v>5.4</v>
       </c>
       <c r="O21">
-        <f>wzorzec!O21</f>
+        <f>wzorzec!O20</f>
         <v>430</v>
       </c>
       <c r="P21">
-        <f>wzorzec!P21</f>
+        <f>wzorzec!P20</f>
         <v>0.48</v>
       </c>
       <c r="Q21">
-        <f>wzorzec!Q21</f>
+        <f>wzorzec!Q20</f>
         <v>2.14</v>
       </c>
       <c r="R21">
-        <f>wzorzec!R21</f>
+        <f>wzorzec!R20</f>
         <v>92.04</v>
       </c>
       <c r="S21">
-        <f>wzorzec!S21</f>
+        <f>wzorzec!S20</f>
         <v>0.36</v>
       </c>
       <c r="T21" s="10">
-        <f>wzorzec!T21</f>
+        <f>wzorzec!T20</f>
         <v>10.4</v>
       </c>
       <c r="U21" s="10">
-        <f>wzorzec!U21</f>
+        <f>wzorzec!U20</f>
         <v>20.100000000000001</v>
       </c>
       <c r="V21" s="11">
-        <f>wzorzec!V21</f>
+        <f>wzorzec!V20</f>
         <v>410.24285714285713</v>
       </c>
     </row>
@@ -19979,87 +19875,87 @@
         <v>Polska</v>
       </c>
       <c r="B22">
-        <f>wzorzec!B22</f>
+        <f>wzorzec!B21</f>
         <v>8</v>
       </c>
       <c r="C22" s="12">
-        <f>wzorzec!C22</f>
+        <f>wzorzec!C21</f>
         <v>115.6</v>
       </c>
       <c r="D22" s="10">
-        <f>wzorzec!D22</f>
+        <f>wzorzec!D21</f>
         <v>231.76190476190473</v>
       </c>
       <c r="E22" s="10">
-        <f>wzorzec!E22</f>
+        <f>wzorzec!E21</f>
         <v>30.2</v>
       </c>
       <c r="F22" s="10">
-        <f>wzorzec!F22</f>
+        <f>wzorzec!F21</f>
         <v>24.6</v>
       </c>
       <c r="G22" s="10">
-        <f>wzorzec!G22</f>
+        <f>wzorzec!G21</f>
         <v>7</v>
       </c>
       <c r="H22" s="10">
-        <f>wzorzec!H22</f>
+        <f>wzorzec!H21</f>
         <v>18.7</v>
       </c>
       <c r="I22" s="10">
-        <f>wzorzec!I22</f>
+        <f>wzorzec!I21</f>
         <v>16.899999999999999</v>
       </c>
       <c r="J22" s="10">
-        <f>wzorzec!J22</f>
+        <f>wzorzec!J21</f>
         <v>8</v>
       </c>
       <c r="K22" s="10">
-        <f>wzorzec!K22</f>
+        <f>wzorzec!K21</f>
         <v>320</v>
       </c>
       <c r="L22">
-        <f>wzorzec!L22</f>
+        <f>wzorzec!L21</f>
         <v>7.7</v>
       </c>
       <c r="M22">
-        <f>wzorzec!M22</f>
+        <f>wzorzec!M21</f>
         <v>45.9</v>
       </c>
       <c r="N22">
-        <f>wzorzec!N22</f>
+        <f>wzorzec!N21</f>
         <v>2</v>
       </c>
       <c r="O22">
-        <f>wzorzec!O22</f>
+        <f>wzorzec!O21</f>
         <v>4156</v>
       </c>
       <c r="P22">
-        <f>wzorzec!P22</f>
+        <f>wzorzec!P21</f>
         <v>0.78</v>
       </c>
       <c r="Q22">
-        <f>wzorzec!Q22</f>
+        <f>wzorzec!Q21</f>
         <v>2.64</v>
       </c>
       <c r="R22">
-        <f>wzorzec!R22</f>
+        <f>wzorzec!R21</f>
         <v>24.8</v>
       </c>
       <c r="S22">
-        <f>wzorzec!S22</f>
+        <f>wzorzec!S21</f>
         <v>0.21</v>
       </c>
       <c r="T22" s="10">
-        <f>wzorzec!T22</f>
+        <f>wzorzec!T21</f>
         <v>17.2</v>
       </c>
       <c r="U22" s="10">
-        <f>wzorzec!U22</f>
+        <f>wzorzec!U21</f>
         <v>30.5</v>
       </c>
       <c r="V22" s="11">
-        <f>wzorzec!V22</f>
+        <f>wzorzec!V21</f>
         <v>442.83333333333331</v>
       </c>
     </row>
@@ -20069,87 +19965,87 @@
         <v>Portugalia</v>
       </c>
       <c r="B23">
-        <f>wzorzec!B23</f>
+        <f>wzorzec!B22</f>
         <v>17</v>
       </c>
       <c r="C23" s="12">
-        <f>wzorzec!C23</f>
+        <f>wzorzec!C22</f>
         <v>93.1</v>
       </c>
       <c r="D23" s="10">
-        <f>wzorzec!D23</f>
+        <f>wzorzec!D22</f>
         <v>116</v>
       </c>
       <c r="E23" s="10">
-        <f>wzorzec!E23</f>
+        <f>wzorzec!E22</f>
         <v>83.4</v>
       </c>
       <c r="F23" s="10">
-        <f>wzorzec!F23</f>
+        <f>wzorzec!F22</f>
         <v>10.8</v>
       </c>
       <c r="G23" s="10">
-        <f>wzorzec!G23</f>
+        <f>wzorzec!G22</f>
         <v>7</v>
       </c>
       <c r="H23" s="10">
-        <f>wzorzec!H23</f>
+        <f>wzorzec!H22</f>
         <v>24.2</v>
       </c>
       <c r="I23" s="10">
-        <f>wzorzec!I23</f>
+        <f>wzorzec!I22</f>
         <v>22.2</v>
       </c>
       <c r="J23" s="10">
-        <f>wzorzec!J23</f>
+        <f>wzorzec!J22</f>
         <v>4</v>
       </c>
       <c r="K23" s="10">
-        <f>wzorzec!K23</f>
+        <f>wzorzec!K22</f>
         <v>518</v>
       </c>
       <c r="L23">
-        <f>wzorzec!L23</f>
+        <f>wzorzec!L22</f>
         <v>23</v>
       </c>
       <c r="M23">
-        <f>wzorzec!M23</f>
+        <f>wzorzec!M22</f>
         <v>52.9</v>
       </c>
       <c r="N23">
-        <f>wzorzec!N23</f>
+        <f>wzorzec!N22</f>
         <v>5.7</v>
       </c>
       <c r="O23">
-        <f>wzorzec!O23</f>
+        <f>wzorzec!O22</f>
         <v>4332</v>
       </c>
       <c r="P23">
-        <f>wzorzec!P23</f>
+        <f>wzorzec!P22</f>
         <v>0.27</v>
       </c>
       <c r="Q23">
-        <f>wzorzec!Q23</f>
+        <f>wzorzec!Q22</f>
         <v>2.48</v>
       </c>
       <c r="R23">
-        <f>wzorzec!R23</f>
+        <f>wzorzec!R22</f>
         <v>0.26</v>
       </c>
       <c r="S23">
-        <f>wzorzec!S23</f>
+        <f>wzorzec!S22</f>
         <v>0.11</v>
       </c>
       <c r="T23" s="10">
-        <f>wzorzec!T23</f>
+        <f>wzorzec!T22</f>
         <v>21.6</v>
       </c>
       <c r="U23" s="10">
-        <f>wzorzec!U23</f>
+        <f>wzorzec!U22</f>
         <v>26</v>
       </c>
       <c r="V23" s="11">
-        <f>wzorzec!V23</f>
+        <f>wzorzec!V22</f>
         <v>95.699999999999989</v>
       </c>
     </row>
@@ -20159,87 +20055,87 @@
         <v>Rumunia</v>
       </c>
       <c r="B24">
-        <f>wzorzec!B24</f>
+        <f>wzorzec!B23</f>
         <v>13</v>
       </c>
       <c r="C24" s="12">
-        <f>wzorzec!C24</f>
+        <f>wzorzec!C23</f>
         <v>51.9</v>
       </c>
       <c r="D24" s="10">
-        <f>wzorzec!D24</f>
+        <f>wzorzec!D23</f>
         <v>224</v>
       </c>
       <c r="E24" s="10">
-        <f>wzorzec!E24</f>
+        <f>wzorzec!E23</f>
         <v>27.9</v>
       </c>
       <c r="F24" s="10">
-        <f>wzorzec!F24</f>
+        <f>wzorzec!F23</f>
         <v>25.6</v>
       </c>
       <c r="G24" s="10">
-        <f>wzorzec!G24</f>
+        <f>wzorzec!G23</f>
         <v>8.4</v>
       </c>
       <c r="H24" s="10">
-        <f>wzorzec!H24</f>
+        <f>wzorzec!H23</f>
         <v>31.3</v>
       </c>
       <c r="I24" s="10">
-        <f>wzorzec!I24</f>
+        <f>wzorzec!I23</f>
         <v>26.8</v>
       </c>
       <c r="J24" s="10">
-        <f>wzorzec!J24</f>
+        <f>wzorzec!J23</f>
         <v>1</v>
       </c>
       <c r="K24" s="10">
-        <f>wzorzec!K24</f>
+        <f>wzorzec!K23</f>
         <v>411</v>
       </c>
       <c r="L24">
-        <f>wzorzec!L24</f>
+        <f>wzorzec!L23</f>
         <v>20.5</v>
       </c>
       <c r="M24">
-        <f>wzorzec!M24</f>
+        <f>wzorzec!M23</f>
         <v>30.4</v>
       </c>
       <c r="N24">
-        <f>wzorzec!N24</f>
+        <f>wzorzec!N23</f>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>wzorzec!O24</f>
+        <f>wzorzec!O23</f>
         <v>2869</v>
       </c>
       <c r="P24">
-        <f>wzorzec!P24</f>
+        <f>wzorzec!P23</f>
         <v>0.78</v>
       </c>
       <c r="Q24">
-        <f>wzorzec!Q24</f>
+        <f>wzorzec!Q23</f>
         <v>1.7</v>
       </c>
       <c r="R24">
-        <f>wzorzec!R24</f>
+        <f>wzorzec!R23</f>
         <v>2.5</v>
       </c>
       <c r="S24">
-        <f>wzorzec!S24</f>
+        <f>wzorzec!S23</f>
         <v>0.23</v>
       </c>
       <c r="T24" s="10">
-        <f>wzorzec!T24</f>
+        <f>wzorzec!T23</f>
         <v>17.600000000000001</v>
       </c>
       <c r="U24" s="10">
-        <f>wzorzec!U24</f>
+        <f>wzorzec!U23</f>
         <v>44.2</v>
       </c>
       <c r="V24" s="11">
-        <f>wzorzec!V24</f>
+        <f>wzorzec!V23</f>
         <v>228.2</v>
       </c>
     </row>
@@ -20249,87 +20145,87 @@
         <v>Słowacja</v>
       </c>
       <c r="B25">
-        <f>wzorzec!B25</f>
+        <f>wzorzec!B24</f>
         <v>12</v>
       </c>
       <c r="C25" s="12">
-        <f>wzorzec!C25</f>
+        <f>wzorzec!C24</f>
         <v>106.2</v>
       </c>
       <c r="D25" s="10">
-        <f>wzorzec!D25</f>
+        <f>wzorzec!D24</f>
         <v>1</v>
       </c>
       <c r="E25" s="10">
-        <f>wzorzec!E25</f>
+        <f>wzorzec!E24</f>
         <v>64.400000000000006</v>
       </c>
       <c r="F25" s="10">
-        <f>wzorzec!F25</f>
+        <f>wzorzec!F24</f>
         <v>13.6</v>
       </c>
       <c r="G25" s="10">
-        <f>wzorzec!G25</f>
+        <f>wzorzec!G24</f>
         <v>6.7</v>
       </c>
       <c r="H25" s="10">
-        <f>wzorzec!H25</f>
+        <f>wzorzec!H24</f>
         <v>19.3</v>
       </c>
       <c r="I25" s="10">
-        <f>wzorzec!I25</f>
+        <f>wzorzec!I24</f>
         <v>15.4</v>
       </c>
       <c r="J25" s="10">
-        <f>wzorzec!J25</f>
+        <f>wzorzec!J24</f>
         <v>-5</v>
       </c>
       <c r="K25" s="10">
-        <f>wzorzec!K25</f>
+        <f>wzorzec!K24</f>
         <v>313</v>
       </c>
       <c r="L25">
-        <f>wzorzec!L25</f>
+        <f>wzorzec!L24</f>
         <v>7.7</v>
       </c>
       <c r="M25">
-        <f>wzorzec!M25</f>
+        <f>wzorzec!M24</f>
         <v>38.4</v>
       </c>
       <c r="N25">
-        <f>wzorzec!N25</f>
+        <f>wzorzec!N24</f>
         <v>7.3</v>
       </c>
       <c r="O25">
-        <f>wzorzec!O25</f>
+        <f>wzorzec!O24</f>
         <v>580</v>
       </c>
       <c r="P25">
-        <f>wzorzec!P25</f>
+        <f>wzorzec!P24</f>
         <v>0.66</v>
       </c>
       <c r="Q25">
-        <f>wzorzec!Q25</f>
+        <f>wzorzec!Q24</f>
         <v>2</v>
       </c>
       <c r="R25">
-        <f>wzorzec!R25</f>
+        <f>wzorzec!R24</f>
         <v>0.5</v>
       </c>
       <c r="S25">
-        <f>wzorzec!S25</f>
+        <f>wzorzec!S24</f>
         <v>0.15</v>
       </c>
       <c r="T25" s="10">
-        <f>wzorzec!T25</f>
+        <f>wzorzec!T24</f>
         <v>19.3</v>
       </c>
       <c r="U25" s="10">
-        <f>wzorzec!U25</f>
+        <f>wzorzec!U24</f>
         <v>20.6</v>
       </c>
       <c r="V25" s="11">
-        <f>wzorzec!V25</f>
+        <f>wzorzec!V24</f>
         <v>144.01113543840199</v>
       </c>
     </row>
@@ -20339,87 +20235,87 @@
         <v>Słowenia</v>
       </c>
       <c r="B26">
-        <f>wzorzec!B26</f>
+        <f>wzorzec!B25</f>
         <v>31</v>
       </c>
       <c r="C26" s="12">
-        <f>wzorzec!C26</f>
+        <f>wzorzec!C25</f>
         <v>113.3</v>
       </c>
       <c r="D26" s="10">
-        <f>wzorzec!D26</f>
+        <f>wzorzec!D25</f>
         <v>0</v>
       </c>
       <c r="E26" s="10">
-        <f>wzorzec!E26</f>
+        <f>wzorzec!E25</f>
         <v>55.1</v>
       </c>
       <c r="F26" s="10">
-        <f>wzorzec!F26</f>
+        <f>wzorzec!F25</f>
         <v>6.5</v>
       </c>
       <c r="G26" s="10">
-        <f>wzorzec!G26</f>
+        <f>wzorzec!G25</f>
         <v>6.7</v>
       </c>
       <c r="H26" s="10">
-        <f>wzorzec!H26</f>
+        <f>wzorzec!H25</f>
         <v>18.7</v>
       </c>
       <c r="I26" s="10">
-        <f>wzorzec!I26</f>
+        <f>wzorzec!I25</f>
         <v>20.8</v>
       </c>
       <c r="J26" s="10">
-        <f>wzorzec!J26</f>
+        <f>wzorzec!J25</f>
         <v>5</v>
       </c>
       <c r="K26" s="10">
-        <f>wzorzec!K26</f>
+        <f>wzorzec!K25</f>
         <v>542</v>
       </c>
       <c r="L26">
-        <f>wzorzec!L26</f>
+        <f>wzorzec!L25</f>
         <v>15</v>
       </c>
       <c r="M26">
-        <f>wzorzec!M26</f>
+        <f>wzorzec!M25</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="N26">
-        <f>wzorzec!N26</f>
+        <f>wzorzec!N25</f>
         <v>6.1</v>
       </c>
       <c r="O26">
-        <f>wzorzec!O26</f>
+        <f>wzorzec!O25</f>
         <v>463</v>
       </c>
       <c r="P26">
-        <f>wzorzec!P26</f>
+        <f>wzorzec!P25</f>
         <v>0.92</v>
       </c>
       <c r="Q26">
-        <f>wzorzec!Q26</f>
+        <f>wzorzec!Q25</f>
         <v>2.95</v>
       </c>
       <c r="R26">
-        <f>wzorzec!R26</f>
+        <f>wzorzec!R25</f>
         <v>1</v>
       </c>
       <c r="S26">
-        <f>wzorzec!S26</f>
+        <f>wzorzec!S25</f>
         <v>0.36</v>
       </c>
       <c r="T26" s="10">
-        <f>wzorzec!T26</f>
+        <f>wzorzec!T25</f>
         <v>10.4</v>
       </c>
       <c r="U26" s="10">
-        <f>wzorzec!U26</f>
+        <f>wzorzec!U25</f>
         <v>18.5</v>
       </c>
       <c r="V26" s="11">
-        <f>wzorzec!V26</f>
+        <f>wzorzec!V25</f>
         <v>23.599999999999998</v>
       </c>
     </row>
@@ -20429,87 +20325,87 @@
         <v>Szwecja</v>
       </c>
       <c r="B27">
-        <f>wzorzec!B27</f>
+        <f>wzorzec!B26</f>
         <v>14</v>
       </c>
       <c r="C27" s="12">
-        <f>wzorzec!C27</f>
+        <f>wzorzec!C26</f>
         <v>105.7</v>
       </c>
       <c r="D27" s="10">
-        <f>wzorzec!D27</f>
+        <f>wzorzec!D26</f>
         <v>119</v>
       </c>
       <c r="E27" s="10">
-        <f>wzorzec!E27</f>
+        <f>wzorzec!E26</f>
         <v>37.5</v>
       </c>
       <c r="F27" s="10">
-        <f>wzorzec!F27</f>
+        <f>wzorzec!F26</f>
         <v>3.1</v>
       </c>
       <c r="G27" s="10">
-        <f>wzorzec!G27</f>
+        <f>wzorzec!G26</f>
         <v>4.7</v>
       </c>
       <c r="H27" s="10">
-        <f>wzorzec!H27</f>
+        <f>wzorzec!H26</f>
         <v>14.4</v>
       </c>
       <c r="I27" s="10">
-        <f>wzorzec!I27</f>
+        <f>wzorzec!I26</f>
         <v>22.1</v>
       </c>
       <c r="J27" s="10">
-        <f>wzorzec!J27</f>
+        <f>wzorzec!J26</f>
         <v>2</v>
       </c>
       <c r="K27" s="10">
-        <f>wzorzec!K27</f>
+        <f>wzorzec!K26</f>
         <v>483</v>
       </c>
       <c r="L27">
-        <f>wzorzec!L27</f>
+        <f>wzorzec!L26</f>
         <v>45.3</v>
       </c>
       <c r="M27">
-        <f>wzorzec!M27</f>
+        <f>wzorzec!M26</f>
         <v>5.8</v>
       </c>
       <c r="N27">
-        <f>wzorzec!N27</f>
+        <f>wzorzec!N26</f>
         <v>10.9</v>
       </c>
       <c r="O27">
-        <f>wzorzec!O27</f>
+        <f>wzorzec!O26</f>
         <v>1659</v>
       </c>
       <c r="P27">
-        <f>wzorzec!P27</f>
+        <f>wzorzec!P26</f>
         <v>0.47799999999999992</v>
       </c>
       <c r="Q27">
-        <f>wzorzec!Q27</f>
+        <f>wzorzec!Q26</f>
         <v>2.57</v>
       </c>
       <c r="R27">
-        <f>wzorzec!R27</f>
+        <f>wzorzec!R26</f>
         <v>2.98</v>
       </c>
       <c r="S27">
-        <f>wzorzec!S27</f>
+        <f>wzorzec!S26</f>
         <v>0.16</v>
       </c>
       <c r="T27" s="10">
-        <f>wzorzec!T27</f>
+        <f>wzorzec!T26</f>
         <v>20.2</v>
       </c>
       <c r="U27" s="10">
-        <f>wzorzec!U27</f>
+        <f>wzorzec!U26</f>
         <v>16.7</v>
       </c>
       <c r="V27" s="11">
-        <f>wzorzec!V27</f>
+        <f>wzorzec!V26</f>
         <v>71.7</v>
       </c>
     </row>
@@ -20519,87 +20415,87 @@
         <v>Węgry</v>
       </c>
       <c r="B28">
-        <f>wzorzec!B28</f>
+        <f>wzorzec!B27</f>
         <v>15</v>
       </c>
       <c r="C28" s="12">
-        <f>wzorzec!C28</f>
+        <f>wzorzec!C27</f>
         <v>118</v>
       </c>
       <c r="D28" s="10">
-        <f>wzorzec!D28</f>
+        <f>wzorzec!D27</f>
         <v>588</v>
       </c>
       <c r="E28" s="10">
-        <f>wzorzec!E28</f>
+        <f>wzorzec!E27</f>
         <v>62.3</v>
       </c>
       <c r="F28" s="10">
-        <f>wzorzec!F28</f>
+        <f>wzorzec!F27</f>
         <v>3.5</v>
       </c>
       <c r="G28" s="10">
-        <f>wzorzec!G28</f>
+        <f>wzorzec!G27</f>
         <v>5.2</v>
       </c>
       <c r="H28" s="10">
-        <f>wzorzec!H28</f>
+        <f>wzorzec!H27</f>
         <v>12.2</v>
       </c>
       <c r="I28" s="10">
-        <f>wzorzec!I28</f>
+        <f>wzorzec!I27</f>
         <v>13.3</v>
       </c>
       <c r="J28" s="10">
-        <f>wzorzec!J28</f>
+        <f>wzorzec!J27</f>
         <v>-4</v>
       </c>
       <c r="K28" s="10">
-        <f>wzorzec!K28</f>
+        <f>wzorzec!K27</f>
         <v>454</v>
       </c>
       <c r="L28">
-        <f>wzorzec!L28</f>
+        <f>wzorzec!L27</f>
         <v>8.6</v>
       </c>
       <c r="M28">
-        <f>wzorzec!M28</f>
+        <f>wzorzec!M27</f>
         <v>76.5</v>
       </c>
       <c r="N28">
-        <f>wzorzec!N28</f>
+        <f>wzorzec!N27</f>
         <v>2.1</v>
       </c>
       <c r="O28">
-        <f>wzorzec!O28</f>
+        <f>wzorzec!O27</f>
         <v>829</v>
       </c>
       <c r="P28">
-        <f>wzorzec!P28</f>
+        <f>wzorzec!P27</f>
         <v>0.34999999999999992</v>
       </c>
       <c r="Q28">
-        <f>wzorzec!Q28</f>
+        <f>wzorzec!Q27</f>
         <v>2.66</v>
       </c>
       <c r="R28">
-        <f>wzorzec!R28</f>
+        <f>wzorzec!R27</f>
         <v>4.84</v>
       </c>
       <c r="S28">
-        <f>wzorzec!S28</f>
+        <f>wzorzec!S27</f>
         <v>0.23</v>
       </c>
       <c r="T28" s="10">
-        <f>wzorzec!T28</f>
+        <f>wzorzec!T27</f>
         <v>19.5</v>
       </c>
       <c r="U28" s="10">
-        <f>wzorzec!U28</f>
+        <f>wzorzec!U27</f>
         <v>28.2</v>
       </c>
       <c r="V28" s="11">
-        <f>wzorzec!V28</f>
+        <f>wzorzec!V27</f>
         <v>144.12425003756678</v>
       </c>
     </row>
@@ -20609,87 +20505,87 @@
         <v>Wielka Brytania</v>
       </c>
       <c r="B29">
-        <f>wzorzec!B29</f>
+        <f>wzorzec!B28</f>
         <v>7</v>
       </c>
       <c r="C29" s="12">
-        <f>wzorzec!C29</f>
+        <f>wzorzec!C28</f>
         <v>131.9</v>
       </c>
       <c r="D29" s="10">
-        <f>wzorzec!D29</f>
+        <f>wzorzec!D28</f>
         <v>231.76190476190473</v>
       </c>
       <c r="E29" s="10">
-        <f>wzorzec!E29</f>
+        <f>wzorzec!E28</f>
         <v>26.3</v>
       </c>
       <c r="F29" s="10">
-        <f>wzorzec!F29</f>
+        <f>wzorzec!F28</f>
         <v>7.9</v>
       </c>
       <c r="G29" s="10">
-        <f>wzorzec!G29</f>
+        <f>wzorzec!G28</f>
         <v>2.5</v>
       </c>
       <c r="H29" s="10">
-        <f>wzorzec!H29</f>
+        <f>wzorzec!H28</f>
         <v>19.8</v>
       </c>
       <c r="I29" s="10">
-        <f>wzorzec!I29</f>
+        <f>wzorzec!I28</f>
         <v>10.9</v>
       </c>
       <c r="J29" s="10">
-        <f>wzorzec!J29</f>
+        <f>wzorzec!J28</f>
         <v>-0.54545454545454541</v>
       </c>
       <c r="K29" s="10">
-        <f>wzorzec!K29</f>
+        <f>wzorzec!K28</f>
         <v>541</v>
       </c>
       <c r="L29">
-        <f>wzorzec!L29</f>
+        <f>wzorzec!L28</f>
         <v>2.7</v>
       </c>
       <c r="M29">
-        <f>wzorzec!M29</f>
+        <f>wzorzec!M28</f>
         <v>94.8</v>
       </c>
       <c r="N29">
-        <f>wzorzec!N29</f>
+        <f>wzorzec!N28</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="O29">
-        <f>wzorzec!O29</f>
+        <f>wzorzec!O28</f>
         <v>6114</v>
       </c>
       <c r="P29">
-        <f>wzorzec!P29</f>
+        <f>wzorzec!P28</f>
         <v>0.26</v>
       </c>
       <c r="Q29">
-        <f>wzorzec!Q29</f>
+        <f>wzorzec!Q28</f>
         <v>2.27</v>
       </c>
       <c r="R29">
-        <f>wzorzec!R29</f>
+        <f>wzorzec!R28</f>
         <v>15.18</v>
       </c>
       <c r="S29">
-        <f>wzorzec!S29</f>
+        <f>wzorzec!S28</f>
         <v>0.15</v>
       </c>
       <c r="T29" s="10">
-        <f>wzorzec!T29</f>
+        <f>wzorzec!T28</f>
         <v>15</v>
       </c>
       <c r="U29" s="10">
-        <f>wzorzec!U29</f>
+        <f>wzorzec!U28</f>
         <v>23.2</v>
       </c>
       <c r="V29" s="11">
-        <f>wzorzec!V29</f>
+        <f>wzorzec!V28</f>
         <v>325.20000000000005</v>
       </c>
     </row>
@@ -20699,87 +20595,87 @@
         <v>Włochy</v>
       </c>
       <c r="B30">
-        <f>wzorzec!B30</f>
+        <f>wzorzec!B29</f>
         <v>14</v>
       </c>
       <c r="C30" s="12">
-        <f>wzorzec!C30</f>
+        <f>wzorzec!C29</f>
         <v>126.4</v>
       </c>
       <c r="D30" s="10">
-        <f>wzorzec!D30</f>
+        <f>wzorzec!D29</f>
         <v>230</v>
       </c>
       <c r="E30" s="10">
-        <f>wzorzec!E30</f>
+        <f>wzorzec!E29</f>
         <v>82.9</v>
       </c>
       <c r="F30" s="10">
-        <f>wzorzec!F30</f>
+        <f>wzorzec!F29</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="G30" s="10">
-        <f>wzorzec!G30</f>
+        <f>wzorzec!G29</f>
         <v>4</v>
       </c>
       <c r="H30" s="10">
-        <f>wzorzec!H30</f>
+        <f>wzorzec!H29</f>
         <v>24.3</v>
       </c>
       <c r="I30" s="10">
-        <f>wzorzec!I30</f>
+        <f>wzorzec!I29</f>
         <v>13.7</v>
       </c>
       <c r="J30" s="10">
-        <f>wzorzec!J30</f>
+        <f>wzorzec!J29</f>
         <v>-3</v>
       </c>
       <c r="K30" s="10">
-        <f>wzorzec!K30</f>
+        <f>wzorzec!K29</f>
         <v>552</v>
       </c>
       <c r="L30">
-        <f>wzorzec!L30</f>
+        <f>wzorzec!L29</f>
         <v>11.5</v>
       </c>
       <c r="M30">
-        <f>wzorzec!M30</f>
+        <f>wzorzec!M29</f>
         <v>47.6</v>
       </c>
       <c r="N30">
-        <f>wzorzec!N30</f>
+        <f>wzorzec!N29</f>
         <v>7.5</v>
       </c>
       <c r="O30">
-        <f>wzorzec!O30</f>
+        <f>wzorzec!O29</f>
         <v>1977</v>
       </c>
       <c r="P30">
-        <f>wzorzec!P30</f>
+        <f>wzorzec!P29</f>
         <v>0.71</v>
       </c>
       <c r="Q30">
-        <f>wzorzec!Q30</f>
+        <f>wzorzec!Q29</f>
         <v>2.56</v>
       </c>
       <c r="R30">
-        <f>wzorzec!R30</f>
+        <f>wzorzec!R29</f>
         <v>23.66</v>
       </c>
       <c r="S30">
-        <f>wzorzec!S30</f>
+        <f>wzorzec!S29</f>
         <v>0.15</v>
       </c>
       <c r="T30" s="10">
-        <f>wzorzec!T30</f>
+        <f>wzorzec!T29</f>
         <v>21.2</v>
       </c>
       <c r="U30" s="10">
-        <f>wzorzec!U30</f>
+        <f>wzorzec!U29</f>
         <v>25.5</v>
       </c>
       <c r="V30" s="11">
-        <f>wzorzec!V30</f>
+        <f>wzorzec!V29</f>
         <v>144.2523062613476</v>
       </c>
     </row>
@@ -21387,89 +21283,89 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B42" t="str">
+      <c r="B42" t="e">
         <f>B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C42" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C42" s="12" t="e">
         <f t="shared" ref="C42:V42" si="6">C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X6</v>
-      </c>
-      <c r="E42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X8</v>
-      </c>
-      <c r="F42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X10</v>
-      </c>
-      <c r="G42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X11</v>
-      </c>
-      <c r="H42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X12</v>
-      </c>
-      <c r="I42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="I42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X13</v>
-      </c>
-      <c r="J42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="J42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X14</v>
-      </c>
-      <c r="K42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X15</v>
-      </c>
-      <c r="L42" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="L42" t="e">
         <f t="shared" si="6"/>
-        <v>X16</v>
-      </c>
-      <c r="M42" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="M42" t="e">
         <f t="shared" si="6"/>
-        <v>X17</v>
-      </c>
-      <c r="N42" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="N42" t="e">
         <f t="shared" si="6"/>
-        <v>X18</v>
-      </c>
-      <c r="O42" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O42" t="e">
         <f t="shared" si="6"/>
-        <v>X19</v>
-      </c>
-      <c r="P42" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="P42" t="e">
         <f t="shared" si="6"/>
-        <v>X20</v>
-      </c>
-      <c r="Q42" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="Q42" t="e">
         <f t="shared" si="6"/>
-        <v>X21</v>
-      </c>
-      <c r="R42" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="R42" t="e">
         <f t="shared" si="6"/>
-        <v>X23</v>
-      </c>
-      <c r="S42" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="S42" t="e">
         <f t="shared" si="6"/>
-        <v>X24</v>
-      </c>
-      <c r="T42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="T42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X25</v>
-      </c>
-      <c r="U42" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="U42" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X26</v>
-      </c>
-      <c r="V42" s="11" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="V42" s="11" t="e">
         <f t="shared" si="6"/>
-        <v>X27</v>
+        <v>#REF!</v>
       </c>
       <c r="X42" t="s">
         <v>32</v>
@@ -24792,89 +24688,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="12" t="e">
         <f>'ranking-standaryzacja'!B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C1" s="12" t="e">
         <f>'ranking-standaryzacja'!C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D1" s="10" t="e">
         <f>'ranking-standaryzacja'!D1</f>
-        <v>X6</v>
-      </c>
-      <c r="E1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="10" t="e">
         <f>'ranking-standaryzacja'!E1</f>
-        <v>X8</v>
-      </c>
-      <c r="F1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F1" s="10" t="e">
         <f>'ranking-standaryzacja'!F1</f>
-        <v>X10</v>
-      </c>
-      <c r="G1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G1" s="10" t="e">
         <f>'ranking-standaryzacja'!G1</f>
-        <v>X11</v>
-      </c>
-      <c r="H1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H1" s="10" t="e">
         <f>'ranking-standaryzacja'!H1</f>
-        <v>X12</v>
-      </c>
-      <c r="I1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="I1" s="10" t="e">
         <f>'ranking-standaryzacja'!I1</f>
-        <v>X13</v>
-      </c>
-      <c r="J1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="J1" s="10" t="e">
         <f>'ranking-standaryzacja'!J1</f>
-        <v>X14</v>
-      </c>
-      <c r="K1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K1" s="10" t="e">
         <f>'ranking-standaryzacja'!K1</f>
-        <v>X15</v>
-      </c>
-      <c r="L1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="L1" s="12" t="e">
         <f>'ranking-standaryzacja'!L1</f>
-        <v>X16</v>
-      </c>
-      <c r="M1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="M1" s="12" t="e">
         <f>'ranking-standaryzacja'!M1</f>
-        <v>X17</v>
-      </c>
-      <c r="N1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="N1" s="12" t="e">
         <f>'ranking-standaryzacja'!N1</f>
-        <v>X18</v>
-      </c>
-      <c r="O1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O1" s="12" t="e">
         <f>'ranking-standaryzacja'!O1</f>
-        <v>X19</v>
-      </c>
-      <c r="P1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="P1" s="12" t="e">
         <f>'ranking-standaryzacja'!P1</f>
-        <v>X20</v>
-      </c>
-      <c r="Q1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="Q1" s="12" t="e">
         <f>'ranking-standaryzacja'!Q1</f>
-        <v>X21</v>
-      </c>
-      <c r="R1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="R1" s="12" t="e">
         <f>'ranking-standaryzacja'!R1</f>
-        <v>X23</v>
-      </c>
-      <c r="S1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="S1" s="12" t="e">
         <f>'ranking-standaryzacja'!S1</f>
-        <v>X24</v>
-      </c>
-      <c r="T1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="T1" s="10" t="e">
         <f>'ranking-standaryzacja'!T1</f>
-        <v>X25</v>
-      </c>
-      <c r="U1" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="U1" s="10" t="e">
         <f>'ranking-standaryzacja'!U1</f>
-        <v>X26</v>
-      </c>
-      <c r="V1" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="V1" s="12" t="e">
         <f>'ranking-standaryzacja'!V1</f>
-        <v>X27</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -28087,89 +27983,89 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="12" t="str">
+      <c r="B43" s="12" t="e">
         <f>B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C43" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C43" s="12" t="e">
         <f t="shared" ref="C43:V43" si="6">C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X6</v>
-      </c>
-      <c r="E43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X8</v>
-      </c>
-      <c r="F43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X10</v>
-      </c>
-      <c r="G43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X11</v>
-      </c>
-      <c r="H43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X12</v>
-      </c>
-      <c r="I43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="I43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X13</v>
-      </c>
-      <c r="J43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="J43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X14</v>
-      </c>
-      <c r="K43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X15</v>
-      </c>
-      <c r="L43" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="L43" t="e">
         <f t="shared" si="6"/>
-        <v>X16</v>
-      </c>
-      <c r="M43" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="M43" t="e">
         <f t="shared" si="6"/>
-        <v>X17</v>
-      </c>
-      <c r="N43" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="N43" t="e">
         <f t="shared" si="6"/>
-        <v>X18</v>
-      </c>
-      <c r="O43" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O43" t="e">
         <f t="shared" si="6"/>
-        <v>X19</v>
-      </c>
-      <c r="P43" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="P43" t="e">
         <f t="shared" si="6"/>
-        <v>X20</v>
-      </c>
-      <c r="Q43" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="Q43" t="e">
         <f t="shared" si="6"/>
-        <v>X21</v>
-      </c>
-      <c r="R43" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="R43" t="e">
         <f t="shared" si="6"/>
-        <v>X23</v>
-      </c>
-      <c r="S43" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="S43" t="e">
         <f t="shared" si="6"/>
-        <v>X24</v>
-      </c>
-      <c r="T43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="T43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X25</v>
-      </c>
-      <c r="U43" s="10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="U43" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>X26</v>
-      </c>
-      <c r="V43" s="12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="V43" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>X27</v>
+        <v>#REF!</v>
       </c>
       <c r="X43" t="s">
         <v>32</v>
@@ -31813,14 +31709,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>wzorzec!Y19</f>
+        <f>wzorzec!Y18</f>
         <v>Łotwa</v>
       </c>
       <c r="C2" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="9">
-        <f>wzorzec!Z19</f>
+        <f>wzorzec!Z18</f>
         <v>0.96492847501516121</v>
       </c>
       <c r="E2" t="str">
@@ -31861,14 +31757,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>wzorzec!Y29</f>
+        <f>wzorzec!Y28</f>
         <v>Wielka Brytania</v>
       </c>
       <c r="C3" t="s">
         <v>137</v>
       </c>
       <c r="D3" s="9">
-        <f>wzorzec!Z29</f>
+        <f>wzorzec!Z28</f>
         <v>0.6328080251204351</v>
       </c>
       <c r="E3" t="str">
@@ -31909,14 +31805,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>wzorzec!Y23</f>
+        <f>wzorzec!Y22</f>
         <v>Portugalia</v>
       </c>
       <c r="C4" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="9">
-        <f>wzorzec!Z23</f>
+        <f>wzorzec!Z22</f>
         <v>0.49767911025036526</v>
       </c>
       <c r="E4" t="str">
@@ -31957,14 +31853,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>wzorzec!Y9</f>
+        <f>wzorzec!Y8</f>
         <v>Dania</v>
       </c>
       <c r="C5" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="9">
-        <f>wzorzec!Z9</f>
+        <f>wzorzec!Z8</f>
         <v>0.49149331038320976</v>
       </c>
       <c r="E5" t="str">
@@ -32001,14 +31897,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>wzorzec!Y22</f>
+        <f>wzorzec!Y21</f>
         <v>Polska</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="9">
-        <f>wzorzec!Z22</f>
+        <f>wzorzec!Z21</f>
         <v>0.48513426862003795</v>
       </c>
       <c r="E6" t="str">
@@ -32045,14 +31941,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>wzorzec!Y8</f>
+        <f>wzorzec!Y7</f>
         <v>Czechy</v>
       </c>
       <c r="C7" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="9">
-        <f>wzorzec!Z8</f>
+        <f>wzorzec!Z7</f>
         <v>0.42709584407663181</v>
       </c>
       <c r="E7" t="str">
@@ -32089,14 +31985,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>wzorzec!Y13</f>
+        <f>wzorzec!Y12</f>
         <v>Grecja</v>
       </c>
       <c r="C8" t="s">
         <v>142</v>
       </c>
       <c r="D8" s="9">
-        <f>wzorzec!Z13</f>
+        <f>wzorzec!Z12</f>
         <v>0.41361117041608086</v>
       </c>
       <c r="E8" t="str">
@@ -32133,14 +32029,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>wzorzec!Y24</f>
+        <f>wzorzec!Y23</f>
         <v>Rumunia</v>
       </c>
       <c r="C9" t="s">
         <v>143</v>
       </c>
       <c r="D9" s="9">
-        <f>wzorzec!Z24</f>
+        <f>wzorzec!Z23</f>
         <v>0.38739436779057512</v>
       </c>
       <c r="E9" t="str">
@@ -32177,14 +32073,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>wzorzec!Y7</f>
+        <f>wzorzec!Y6</f>
         <v>Cypr</v>
       </c>
       <c r="C10" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="9">
-        <f>wzorzec!Z7</f>
+        <f>wzorzec!Z6</f>
         <v>0.35674655348830464</v>
       </c>
       <c r="E10" t="str">
@@ -32221,14 +32117,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>wzorzec!Y10</f>
+        <f>wzorzec!Y9</f>
         <v>Estonia</v>
       </c>
       <c r="C11" t="s">
         <v>145</v>
       </c>
       <c r="D11" s="9">
-        <f>wzorzec!Z10</f>
+        <f>wzorzec!Z9</f>
         <v>0.34709079796931952</v>
       </c>
       <c r="E11" t="str">
@@ -32265,14 +32161,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>wzorzec!Y3</f>
+        <f>wzorzec!Y2</f>
         <v>Austria</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
       </c>
       <c r="D12" s="9">
-        <f>wzorzec!Z3</f>
+        <f>wzorzec!Z2</f>
         <v>0.34591050823401204</v>
       </c>
       <c r="E12" t="str">
@@ -32309,14 +32205,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>wzorzec!Y4</f>
+        <f>wzorzec!Y3</f>
         <v>Belgia</v>
       </c>
       <c r="C13" t="s">
         <v>147</v>
       </c>
       <c r="D13" s="9">
-        <f>wzorzec!Z4</f>
+        <f>wzorzec!Z3</f>
         <v>0.32387710925499469</v>
       </c>
       <c r="E13" t="str">
@@ -32353,14 +32249,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>wzorzec!Y30</f>
+        <f>wzorzec!Y29</f>
         <v>Włochy</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
       </c>
       <c r="D14" s="9">
-        <f>wzorzec!Z30</f>
+        <f>wzorzec!Z29</f>
         <v>0.31953635103854283</v>
       </c>
       <c r="E14" t="str">
@@ -32397,14 +32293,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>wzorzec!Y27</f>
+        <f>wzorzec!Y26</f>
         <v>Szwecja</v>
       </c>
       <c r="C15" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="9">
-        <f>wzorzec!Z27</f>
+        <f>wzorzec!Z26</f>
         <v>0.29552780387378008</v>
       </c>
       <c r="E15" t="str">
@@ -32441,14 +32337,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>wzorzec!Y12</f>
+        <f>wzorzec!Y11</f>
         <v>Francja</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="9">
-        <f>wzorzec!Z12</f>
+        <f>wzorzec!Z11</f>
         <v>0.2877656670861366</v>
       </c>
       <c r="E16" t="str">
@@ -32485,14 +32381,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>wzorzec!Y15</f>
+        <f>wzorzec!Y14</f>
         <v>Holandia</v>
       </c>
       <c r="C17" t="s">
         <v>151</v>
       </c>
       <c r="D17" s="9">
-        <f>wzorzec!Z15</f>
+        <f>wzorzec!Z14</f>
         <v>0.28613615091733913</v>
       </c>
       <c r="E17" t="str">
@@ -32529,14 +32425,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>wzorzec!Y6</f>
+        <f>wzorzec!Y5</f>
         <v>Chorwacja</v>
       </c>
       <c r="C18" t="s">
         <v>152</v>
       </c>
       <c r="D18" s="9">
-        <f>wzorzec!Z6</f>
+        <f>wzorzec!Z5</f>
         <v>0.27111096929366107</v>
       </c>
       <c r="E18" t="str">
@@ -32573,14 +32469,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>wzorzec!Y16</f>
+        <f>wzorzec!Y15</f>
         <v>Irlandia</v>
       </c>
       <c r="C19" t="s">
         <v>153</v>
       </c>
       <c r="D19" s="9">
-        <f>wzorzec!Z16</f>
+        <f>wzorzec!Z15</f>
         <v>0.24172370251807007</v>
       </c>
       <c r="E19" t="str">
@@ -32617,14 +32513,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>wzorzec!Y28</f>
+        <f>wzorzec!Y27</f>
         <v>Węgry</v>
       </c>
       <c r="C20" t="s">
         <v>154</v>
       </c>
       <c r="D20" s="9">
-        <f>wzorzec!Z28</f>
+        <f>wzorzec!Z27</f>
         <v>0.23176464468561864</v>
       </c>
       <c r="E20" t="str">
@@ -32661,14 +32557,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>wzorzec!Y20</f>
+        <f>wzorzec!Y19</f>
         <v>Malta</v>
       </c>
       <c r="C21" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="9">
-        <f>wzorzec!Z20</f>
+        <f>wzorzec!Z19</f>
         <v>0.21635469297381293</v>
       </c>
       <c r="E21" t="str">
@@ -32705,14 +32601,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>wzorzec!Y25</f>
+        <f>wzorzec!Y24</f>
         <v>Słowacja</v>
       </c>
       <c r="C22" t="s">
         <v>156</v>
       </c>
       <c r="D22" s="9">
-        <f>wzorzec!Z25</f>
+        <f>wzorzec!Z24</f>
         <v>0.214247530530152</v>
       </c>
       <c r="E22" t="str">
@@ -32749,14 +32645,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>wzorzec!Y11</f>
+        <f>wzorzec!Y10</f>
         <v>Finlandia</v>
       </c>
       <c r="C23" t="s">
         <v>157</v>
       </c>
       <c r="D23" s="9">
-        <f>wzorzec!Z11</f>
+        <f>wzorzec!Z10</f>
         <v>0.20676893966946708</v>
       </c>
       <c r="E23" t="str">
@@ -32793,14 +32689,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>wzorzec!Y18</f>
+        <f>wzorzec!Y17</f>
         <v>Luksemburg</v>
       </c>
       <c r="C24" t="s">
         <v>158</v>
       </c>
       <c r="D24" s="9">
-        <f>wzorzec!Z18</f>
+        <f>wzorzec!Z17</f>
         <v>0.20614900525064772</v>
       </c>
       <c r="E24" t="str">
@@ -32837,14 +32733,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>wzorzec!Y26</f>
+        <f>wzorzec!Y25</f>
         <v>Słowenia</v>
       </c>
       <c r="C25" t="s">
         <v>159</v>
       </c>
       <c r="D25" s="9">
-        <f>wzorzec!Z26</f>
+        <f>wzorzec!Z25</f>
         <v>0.20485229768139768</v>
       </c>
       <c r="E25" t="str">
@@ -32881,14 +32777,14 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f>wzorzec!Y21</f>
+        <f>wzorzec!Y20</f>
         <v>Niemcy</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>
       </c>
       <c r="D26" s="9">
-        <f>wzorzec!Z21</f>
+        <f>wzorzec!Z20</f>
         <v>0.20122795386858605</v>
       </c>
       <c r="E26" t="str">
@@ -32925,14 +32821,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f>wzorzec!Y5</f>
+        <f>wzorzec!Y4</f>
         <v>Bułgaria</v>
       </c>
       <c r="C27" t="s">
         <v>161</v>
       </c>
       <c r="D27" s="9">
-        <f>wzorzec!Z5</f>
+        <f>wzorzec!Z4</f>
         <v>0.19795885976108751</v>
       </c>
       <c r="E27" t="str">
@@ -32969,14 +32865,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>wzorzec!Y17</f>
+        <f>wzorzec!Y16</f>
         <v>Litwa</v>
       </c>
       <c r="C28" t="s">
         <v>162</v>
       </c>
       <c r="D28" s="9">
-        <f>wzorzec!Z17</f>
+        <f>wzorzec!Z16</f>
         <v>0.19299197911190935</v>
       </c>
       <c r="E28" t="str">
@@ -33013,14 +32909,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f>wzorzec!Y14</f>
+        <f>wzorzec!Y13</f>
         <v>Hiszpania</v>
       </c>
       <c r="C29" t="s">
         <v>163</v>
       </c>
       <c r="D29" s="9">
-        <f>wzorzec!Z14</f>
+        <f>wzorzec!Z13</f>
         <v>0.18268882154797972</v>
       </c>
       <c r="E29" t="str">
